--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="468">
   <si>
     <t>DSA</t>
   </si>
@@ -1511,15 +1511,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,6 +1553,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1559,29 +1573,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1609,6 +1600,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1618,21 +1624,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,13 +1639,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1668,7 +1668,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,25 +1770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,19 +1782,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,85 +1836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,37 +1848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,26 +1862,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1910,21 +1904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1936,17 +1915,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1965,153 +1933,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2133,9 +2127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2465,8 +2456,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2528,7 +2519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:5">
+    <row r="7" ht="21" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2538,11 +2529,14 @@
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>6</v>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="10">
         <v>44168</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:4">
@@ -2552,7 +2546,7 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -2566,7 +2560,7 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2580,7 +2574,7 @@
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2594,7 +2588,7 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2608,7 +2602,7 @@
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2622,7 +2616,7 @@
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -2636,7 +2630,7 @@
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -2650,7 +2644,7 @@
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2664,7 +2658,7 @@
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2678,7 +2672,7 @@
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2692,7 +2686,7 @@
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2706,7 +2700,7 @@
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2720,7 +2714,7 @@
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2734,7 +2728,7 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2748,7 +2742,7 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2762,7 +2756,7 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2776,7 +2770,7 @@
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2790,7 +2784,7 @@
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2804,7 +2798,7 @@
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2818,7 +2812,7 @@
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -2832,7 +2826,7 @@
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2846,7 +2840,7 @@
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -2860,7 +2854,7 @@
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -2874,7 +2868,7 @@
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2888,7 +2882,7 @@
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -2902,7 +2896,7 @@
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2916,7 +2910,7 @@
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -2930,7 +2924,7 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2944,7 +2938,7 @@
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -2958,7 +2952,7 @@
       <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -2972,7 +2966,7 @@
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -2986,7 +2980,7 @@
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3000,7 +2994,7 @@
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3014,7 +3008,7 @@
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -3022,14 +3016,14 @@
       </c>
     </row>
     <row r="42" ht="21" spans="3:4">
-      <c r="C42" s="13"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" ht="21" spans="2:4">
       <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="6" t="s">
         <v>6</v>
       </c>
@@ -3038,10 +3032,10 @@
       <c r="A44">
         <v>37</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -3052,10 +3046,10 @@
       <c r="A45">
         <v>38</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -3066,10 +3060,10 @@
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -3080,10 +3074,10 @@
       <c r="A47">
         <v>40</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -3094,10 +3088,10 @@
       <c r="A48">
         <v>41</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -3108,10 +3102,10 @@
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -3122,10 +3116,10 @@
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -3136,10 +3130,10 @@
       <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -3150,10 +3144,10 @@
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3164,10 +3158,10 @@
       <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -3176,7 +3170,7 @@
     </row>
     <row r="55" ht="21" spans="2:4">
       <c r="B55" s="7"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" ht="21" spans="1:4">
@@ -3186,7 +3180,7 @@
       <c r="B56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -3200,7 +3194,7 @@
       <c r="B57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -3214,7 +3208,7 @@
       <c r="B58" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -3228,7 +3222,7 @@
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -3242,7 +3236,7 @@
       <c r="B60" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -3256,7 +3250,7 @@
       <c r="B61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -3270,7 +3264,7 @@
       <c r="B62" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -3284,7 +3278,7 @@
       <c r="B63" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -3298,7 +3292,7 @@
       <c r="B64" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -3312,7 +3306,7 @@
       <c r="B65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -3326,7 +3320,7 @@
       <c r="B66" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -3340,7 +3334,7 @@
       <c r="B67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -3354,7 +3348,7 @@
       <c r="B68" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -3368,7 +3362,7 @@
       <c r="B69" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -3382,7 +3376,7 @@
       <c r="B70" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -3396,7 +3390,7 @@
       <c r="B71" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -3410,7 +3404,7 @@
       <c r="B72" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -3424,7 +3418,7 @@
       <c r="B73" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -3438,7 +3432,7 @@
       <c r="B74" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -3452,7 +3446,7 @@
       <c r="B75" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -3466,7 +3460,7 @@
       <c r="B76" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3480,7 +3474,7 @@
       <c r="B77" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -3494,7 +3488,7 @@
       <c r="B78" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -3508,7 +3502,7 @@
       <c r="B79" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -3522,7 +3516,7 @@
       <c r="B80" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -3536,7 +3530,7 @@
       <c r="B81" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -3550,7 +3544,7 @@
       <c r="B82" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3564,7 +3558,7 @@
       <c r="B83" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -3578,7 +3572,7 @@
       <c r="B84" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -3592,7 +3586,7 @@
       <c r="B85" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -3606,7 +3600,7 @@
       <c r="B86" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -3620,7 +3614,7 @@
       <c r="B87" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -3634,7 +3628,7 @@
       <c r="B88" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -3648,7 +3642,7 @@
       <c r="B89" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -3662,7 +3656,7 @@
       <c r="B90" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -3676,7 +3670,7 @@
       <c r="B91" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -3690,7 +3684,7 @@
       <c r="B92" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -3704,7 +3698,7 @@
       <c r="B93" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="11" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -3718,7 +3712,7 @@
       <c r="B94" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -3732,7 +3726,7 @@
       <c r="B95" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -3746,7 +3740,7 @@
       <c r="B96" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -3760,7 +3754,7 @@
       <c r="B97" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="11" t="s">
         <v>99</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -3774,7 +3768,7 @@
       <c r="B98" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -3782,8 +3776,8 @@
       </c>
     </row>
     <row r="100" ht="21" spans="2:4">
-      <c r="B100" s="14"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" ht="21" spans="1:4">
@@ -3793,7 +3787,7 @@
       <c r="B101" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -3807,7 +3801,7 @@
       <c r="B102" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -3821,7 +3815,7 @@
       <c r="B103" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="11" t="s">
         <v>104</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -3835,7 +3829,7 @@
       <c r="B104" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -3849,7 +3843,7 @@
       <c r="B105" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -3863,7 +3857,7 @@
       <c r="B106" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="11" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -3877,7 +3871,7 @@
       <c r="B107" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -3891,7 +3885,7 @@
       <c r="B108" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="11" t="s">
         <v>109</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -3905,7 +3899,7 @@
       <c r="B109" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -3919,7 +3913,7 @@
       <c r="B110" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -3933,7 +3927,7 @@
       <c r="B111" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -3947,7 +3941,7 @@
       <c r="B112" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -3961,7 +3955,7 @@
       <c r="B113" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -3975,7 +3969,7 @@
       <c r="B114" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -3989,7 +3983,7 @@
       <c r="B115" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -4003,7 +3997,7 @@
       <c r="B116" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -4017,7 +4011,7 @@
       <c r="B117" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="11" t="s">
         <v>118</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -4031,7 +4025,7 @@
       <c r="B118" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -4045,7 +4039,7 @@
       <c r="B119" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -4059,7 +4053,7 @@
       <c r="B120" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -4073,7 +4067,7 @@
       <c r="B121" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -4087,7 +4081,7 @@
       <c r="B122" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -4101,7 +4095,7 @@
       <c r="B123" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -4115,7 +4109,7 @@
       <c r="B124" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="11" t="s">
         <v>125</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -4129,7 +4123,7 @@
       <c r="B125" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -4143,7 +4137,7 @@
       <c r="B126" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -4157,7 +4151,7 @@
       <c r="B127" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="11" t="s">
         <v>128</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -4171,7 +4165,7 @@
       <c r="B128" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -4185,7 +4179,7 @@
       <c r="B129" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -4199,7 +4193,7 @@
       <c r="B130" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="11" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -4213,7 +4207,7 @@
       <c r="B131" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -4227,7 +4221,7 @@
       <c r="B132" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="11" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -4241,7 +4235,7 @@
       <c r="B133" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="11" t="s">
         <v>134</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -4255,7 +4249,7 @@
       <c r="B134" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="11" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4269,7 +4263,7 @@
       <c r="B135" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -4283,7 +4277,7 @@
       <c r="B136" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -4291,17 +4285,17 @@
       </c>
     </row>
     <row r="138" ht="21" spans="3:4">
-      <c r="C138" s="13"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139">
         <v>126</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="11" t="s">
         <v>139</v>
       </c>
       <c r="D139" s="6" t="s">
@@ -4312,10 +4306,10 @@
       <c r="A140">
         <v>127</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D140" s="6" t="s">
@@ -4326,10 +4320,10 @@
       <c r="A141">
         <v>128</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -4340,10 +4334,10 @@
       <c r="A142">
         <v>129</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="11" t="s">
         <v>142</v>
       </c>
       <c r="D142" s="6" t="s">
@@ -4354,10 +4348,10 @@
       <c r="A143">
         <v>130</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -4368,10 +4362,10 @@
       <c r="A144">
         <v>131</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="11" t="s">
         <v>144</v>
       </c>
       <c r="D144" s="6" t="s">
@@ -4382,10 +4376,10 @@
       <c r="A145">
         <v>132</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="11" t="s">
         <v>145</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -4396,10 +4390,10 @@
       <c r="A146">
         <v>133</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D146" s="6" t="s">
@@ -4410,10 +4404,10 @@
       <c r="A147">
         <v>134</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="11" t="s">
         <v>147</v>
       </c>
       <c r="D147" s="6" t="s">
@@ -4424,10 +4418,10 @@
       <c r="A148">
         <v>135</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -4438,10 +4432,10 @@
       <c r="A149">
         <v>136</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="11" t="s">
         <v>149</v>
       </c>
       <c r="D149" s="6" t="s">
@@ -4452,10 +4446,10 @@
       <c r="A150">
         <v>137</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="11" t="s">
         <v>150</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -4466,10 +4460,10 @@
       <c r="A151">
         <v>138</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="11" t="s">
         <v>151</v>
       </c>
       <c r="D151" s="6" t="s">
@@ -4480,10 +4474,10 @@
       <c r="A152">
         <v>139</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -4494,10 +4488,10 @@
       <c r="A153">
         <v>140</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -4508,10 +4502,10 @@
       <c r="A154">
         <v>141</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D154" s="6" t="s">
@@ -4522,10 +4516,10 @@
       <c r="A155">
         <v>142</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="11" t="s">
         <v>155</v>
       </c>
       <c r="D155" s="6" t="s">
@@ -4536,10 +4530,10 @@
       <c r="A156">
         <v>143</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D156" s="6" t="s">
@@ -4550,10 +4544,10 @@
       <c r="A157">
         <v>144</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="11" t="s">
         <v>157</v>
       </c>
       <c r="D157" s="6" t="s">
@@ -4564,10 +4558,10 @@
       <c r="A158">
         <v>145</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="11" t="s">
         <v>158</v>
       </c>
       <c r="D158" s="6" t="s">
@@ -4578,10 +4572,10 @@
       <c r="A159">
         <v>146</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="11" t="s">
         <v>159</v>
       </c>
       <c r="D159" s="6" t="s">
@@ -4592,10 +4586,10 @@
       <c r="A160">
         <v>147</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -4606,10 +4600,10 @@
       <c r="A161">
         <v>148</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -4620,10 +4614,10 @@
       <c r="A162">
         <v>149</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D162" s="6" t="s">
@@ -4634,10 +4628,10 @@
       <c r="A163">
         <v>150</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -4648,10 +4642,10 @@
       <c r="A164">
         <v>151</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="12" t="s">
         <v>164</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -4662,10 +4656,10 @@
       <c r="A165">
         <v>152</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="12" t="s">
         <v>165</v>
       </c>
       <c r="D165" s="6" t="s">
@@ -4676,10 +4670,10 @@
       <c r="A166">
         <v>153</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="11" t="s">
         <v>166</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -4690,10 +4684,10 @@
       <c r="A167">
         <v>154</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -4704,10 +4698,10 @@
       <c r="A168">
         <v>155</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -4718,10 +4712,10 @@
       <c r="A169">
         <v>156</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -4732,10 +4726,10 @@
       <c r="A170">
         <v>157</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D170" s="6" t="s">
@@ -4746,10 +4740,10 @@
       <c r="A171">
         <v>158</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D171" s="6" t="s">
@@ -4760,10 +4754,10 @@
       <c r="A172">
         <v>159</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="11" t="s">
         <v>172</v>
       </c>
       <c r="D172" s="6" t="s">
@@ -4774,10 +4768,10 @@
       <c r="A173">
         <v>160</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="11" t="s">
         <v>173</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -4788,10 +4782,10 @@
       <c r="A174">
         <v>161</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -4799,7 +4793,7 @@
       </c>
     </row>
     <row r="176" ht="21" spans="3:4">
-      <c r="C176" s="13"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="21" spans="1:4">
@@ -4809,7 +4803,7 @@
       <c r="B177" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="11" t="s">
         <v>176</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -4823,7 +4817,7 @@
       <c r="B178" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="11" t="s">
         <v>177</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -4837,7 +4831,7 @@
       <c r="B179" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -4851,7 +4845,7 @@
       <c r="B180" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="11" t="s">
         <v>179</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -4865,7 +4859,7 @@
       <c r="B181" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="11" t="s">
         <v>180</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -4879,7 +4873,7 @@
       <c r="B182" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D182" s="6" t="s">
@@ -4893,7 +4887,7 @@
       <c r="B183" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="11" t="s">
         <v>182</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -4907,7 +4901,7 @@
       <c r="B184" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D184" s="6" t="s">
@@ -4921,7 +4915,7 @@
       <c r="B185" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="11" t="s">
         <v>184</v>
       </c>
       <c r="D185" s="6" t="s">
@@ -4935,7 +4929,7 @@
       <c r="B186" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D186" s="6" t="s">
@@ -4949,7 +4943,7 @@
       <c r="B187" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="11" t="s">
         <v>186</v>
       </c>
       <c r="D187" s="6" t="s">
@@ -4963,7 +4957,7 @@
       <c r="B188" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -4977,7 +4971,7 @@
       <c r="B189" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="11" t="s">
         <v>188</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -4991,7 +4985,7 @@
       <c r="B190" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="11" t="s">
         <v>189</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -5005,7 +4999,7 @@
       <c r="B191" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="11" t="s">
         <v>190</v>
       </c>
       <c r="D191" s="6" t="s">
@@ -5019,7 +5013,7 @@
       <c r="B192" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="11" t="s">
         <v>191</v>
       </c>
       <c r="D192" s="6" t="s">
@@ -5033,7 +5027,7 @@
       <c r="B193" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="11" t="s">
         <v>192</v>
       </c>
       <c r="D193" s="6" t="s">
@@ -5047,7 +5041,7 @@
       <c r="B194" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="11" t="s">
         <v>193</v>
       </c>
       <c r="D194" s="6" t="s">
@@ -5061,7 +5055,7 @@
       <c r="B195" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="11" t="s">
         <v>194</v>
       </c>
       <c r="D195" s="6" t="s">
@@ -5075,7 +5069,7 @@
       <c r="B196" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="11" t="s">
         <v>195</v>
       </c>
       <c r="D196" s="6" t="s">
@@ -5089,7 +5083,7 @@
       <c r="B197" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="11" t="s">
         <v>196</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -5103,7 +5097,7 @@
       <c r="B198" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C198" s="11" t="s">
         <v>197</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -5117,7 +5111,7 @@
       <c r="B199" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="11" t="s">
         <v>198</v>
       </c>
       <c r="D199" s="6" t="s">
@@ -5131,7 +5125,7 @@
       <c r="B200" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="11" t="s">
         <v>199</v>
       </c>
       <c r="D200" s="6" t="s">
@@ -5145,7 +5139,7 @@
       <c r="B201" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="11" t="s">
         <v>200</v>
       </c>
       <c r="D201" s="6" t="s">
@@ -5159,7 +5153,7 @@
       <c r="B202" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="11" t="s">
         <v>201</v>
       </c>
       <c r="D202" s="6" t="s">
@@ -5173,7 +5167,7 @@
       <c r="B203" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="11" t="s">
         <v>202</v>
       </c>
       <c r="D203" s="6" t="s">
@@ -5187,7 +5181,7 @@
       <c r="B204" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="11" t="s">
         <v>203</v>
       </c>
       <c r="D204" s="6" t="s">
@@ -5201,7 +5195,7 @@
       <c r="B205" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C205" s="11" t="s">
         <v>204</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -5215,7 +5209,7 @@
       <c r="B206" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C206" s="11" t="s">
         <v>205</v>
       </c>
       <c r="D206" s="6" t="s">
@@ -5229,7 +5223,7 @@
       <c r="B207" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D207" s="6" t="s">
@@ -5243,7 +5237,7 @@
       <c r="B208" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="11" t="s">
         <v>207</v>
       </c>
       <c r="D208" s="6" t="s">
@@ -5257,7 +5251,7 @@
       <c r="B209" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D209" s="6" t="s">
@@ -5271,7 +5265,7 @@
       <c r="B210" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="11" t="s">
         <v>209</v>
       </c>
       <c r="D210" s="6" t="s">
@@ -5285,7 +5279,7 @@
       <c r="B211" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="11" t="s">
         <v>210</v>
       </c>
       <c r="D211" s="6" t="s">
@@ -5293,13 +5287,13 @@
       </c>
     </row>
     <row r="212" ht="21" spans="2:4">
-      <c r="B212" s="14"/>
-      <c r="C212" s="13"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="6"/>
     </row>
     <row r="213" ht="21" spans="2:4">
-      <c r="B213" s="14"/>
-      <c r="C213" s="13"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="6"/>
     </row>
     <row r="214" ht="21" spans="1:4">
@@ -5309,7 +5303,7 @@
       <c r="B214" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C214" s="11" t="s">
         <v>212</v>
       </c>
       <c r="D214" s="6" t="s">
@@ -5323,7 +5317,7 @@
       <c r="B215" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C215" s="11" t="s">
         <v>213</v>
       </c>
       <c r="D215" s="6" t="s">
@@ -5337,7 +5331,7 @@
       <c r="B216" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C216" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D216" s="6" t="s">
@@ -5351,7 +5345,7 @@
       <c r="B217" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C217" s="11" t="s">
         <v>215</v>
       </c>
       <c r="D217" s="6" t="s">
@@ -5365,7 +5359,7 @@
       <c r="B218" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" s="11" t="s">
         <v>216</v>
       </c>
       <c r="D218" s="6" t="s">
@@ -5379,7 +5373,7 @@
       <c r="B219" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C219" s="11" t="s">
         <v>217</v>
       </c>
       <c r="D219" s="6" t="s">
@@ -5393,7 +5387,7 @@
       <c r="B220" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D220" s="6" t="s">
@@ -5407,7 +5401,7 @@
       <c r="B221" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" s="11" t="s">
         <v>219</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -5421,7 +5415,7 @@
       <c r="B222" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D222" s="6" t="s">
@@ -5435,7 +5429,7 @@
       <c r="B223" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="11" t="s">
         <v>221</v>
       </c>
       <c r="D223" s="6" t="s">
@@ -5449,7 +5443,7 @@
       <c r="B224" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="11" t="s">
         <v>222</v>
       </c>
       <c r="D224" s="6" t="s">
@@ -5463,7 +5457,7 @@
       <c r="B225" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="11" t="s">
         <v>223</v>
       </c>
       <c r="D225" s="6" t="s">
@@ -5477,7 +5471,7 @@
       <c r="B226" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D226" s="6" t="s">
@@ -5491,7 +5485,7 @@
       <c r="B227" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="11" t="s">
         <v>225</v>
       </c>
       <c r="D227" s="6" t="s">
@@ -5505,7 +5499,7 @@
       <c r="B228" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="11" t="s">
         <v>226</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -5519,7 +5513,7 @@
       <c r="B229" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D229" s="6" t="s">
@@ -5533,7 +5527,7 @@
       <c r="B230" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -5547,7 +5541,7 @@
       <c r="B231" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D231" s="6" t="s">
@@ -5561,7 +5555,7 @@
       <c r="B232" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -5575,7 +5569,7 @@
       <c r="B233" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D233" s="6" t="s">
@@ -5589,7 +5583,7 @@
       <c r="B234" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="11" t="s">
         <v>232</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -5603,7 +5597,7 @@
       <c r="B235" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="11" t="s">
         <v>233</v>
       </c>
       <c r="D235" s="6" t="s">
@@ -5611,11 +5605,11 @@
       </c>
     </row>
     <row r="236" ht="21" spans="3:4">
-      <c r="C236" s="13"/>
+      <c r="C236" s="12"/>
       <c r="D236" s="6"/>
     </row>
     <row r="237" ht="21" spans="3:4">
-      <c r="C237" s="13"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="6"/>
     </row>
     <row r="238" ht="21" spans="1:4">
@@ -5625,7 +5619,7 @@
       <c r="B238" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="11" t="s">
         <v>235</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -5639,7 +5633,7 @@
       <c r="B239" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="11" t="s">
         <v>236</v>
       </c>
       <c r="D239" s="6" t="s">
@@ -5653,7 +5647,7 @@
       <c r="B240" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="11" t="s">
         <v>237</v>
       </c>
       <c r="D240" s="6" t="s">
@@ -5667,7 +5661,7 @@
       <c r="B241" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="11" t="s">
         <v>238</v>
       </c>
       <c r="D241" s="6" t="s">
@@ -5681,7 +5675,7 @@
       <c r="B242" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" s="11" t="s">
         <v>239</v>
       </c>
       <c r="D242" s="6" t="s">
@@ -5695,7 +5689,7 @@
       <c r="B243" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D243" s="6" t="s">
@@ -5709,7 +5703,7 @@
       <c r="B244" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C244" s="11" t="s">
         <v>241</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -5723,7 +5717,7 @@
       <c r="B245" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="11" t="s">
         <v>242</v>
       </c>
       <c r="D245" s="6" t="s">
@@ -5737,7 +5731,7 @@
       <c r="B246" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C246" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -5751,7 +5745,7 @@
       <c r="B247" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" s="11" t="s">
         <v>244</v>
       </c>
       <c r="D247" s="6" t="s">
@@ -5765,7 +5759,7 @@
       <c r="B248" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="11" t="s">
         <v>245</v>
       </c>
       <c r="D248" s="6" t="s">
@@ -5779,7 +5773,7 @@
       <c r="B249" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C249" s="11" t="s">
         <v>246</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -5793,7 +5787,7 @@
       <c r="B250" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C250" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D250" s="6" t="s">
@@ -5807,7 +5801,7 @@
       <c r="B251" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="11" t="s">
         <v>248</v>
       </c>
       <c r="D251" s="6" t="s">
@@ -5821,7 +5815,7 @@
       <c r="B252" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="11" t="s">
         <v>249</v>
       </c>
       <c r="D252" s="6" t="s">
@@ -5835,7 +5829,7 @@
       <c r="B253" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C253" s="11" t="s">
         <v>250</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -5849,7 +5843,7 @@
       <c r="B254" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D254" s="6" t="s">
@@ -5863,7 +5857,7 @@
       <c r="B255" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D255" s="6" t="s">
@@ -5877,7 +5871,7 @@
       <c r="B256" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="11" t="s">
         <v>253</v>
       </c>
       <c r="D256" s="6" t="s">
@@ -5891,7 +5885,7 @@
       <c r="B257" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C257" s="11" t="s">
         <v>254</v>
       </c>
       <c r="D257" s="6" t="s">
@@ -5905,7 +5899,7 @@
       <c r="B258" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="11" t="s">
         <v>255</v>
       </c>
       <c r="D258" s="6" t="s">
@@ -5919,7 +5913,7 @@
       <c r="B259" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C259" s="11" t="s">
         <v>256</v>
       </c>
       <c r="D259" s="6" t="s">
@@ -5933,7 +5927,7 @@
       <c r="B260" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C260" s="12" t="s">
+      <c r="C260" s="11" t="s">
         <v>257</v>
       </c>
       <c r="D260" s="6" t="s">
@@ -5947,7 +5941,7 @@
       <c r="B261" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C261" s="11" t="s">
         <v>258</v>
       </c>
       <c r="D261" s="6" t="s">
@@ -5961,7 +5955,7 @@
       <c r="B262" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C262" s="12" t="s">
+      <c r="C262" s="11" t="s">
         <v>259</v>
       </c>
       <c r="D262" s="6" t="s">
@@ -5975,7 +5969,7 @@
       <c r="B263" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="C263" s="11" t="s">
         <v>260</v>
       </c>
       <c r="D263" s="6" t="s">
@@ -5989,7 +5983,7 @@
       <c r="B264" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C264" s="11" t="s">
         <v>261</v>
       </c>
       <c r="D264" s="6" t="s">
@@ -6003,7 +5997,7 @@
       <c r="B265" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="11" t="s">
         <v>262</v>
       </c>
       <c r="D265" s="6" t="s">
@@ -6017,7 +6011,7 @@
       <c r="B266" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C266" s="12" t="s">
+      <c r="C266" s="11" t="s">
         <v>263</v>
       </c>
       <c r="D266" s="6" t="s">
@@ -6031,7 +6025,7 @@
       <c r="B267" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C267" s="12" t="s">
+      <c r="C267" s="11" t="s">
         <v>264</v>
       </c>
       <c r="D267" s="6" t="s">
@@ -6045,7 +6039,7 @@
       <c r="B268" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C268" s="12" t="s">
+      <c r="C268" s="11" t="s">
         <v>265</v>
       </c>
       <c r="D268" s="6" t="s">
@@ -6059,7 +6053,7 @@
       <c r="B269" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C269" s="12" t="s">
+      <c r="C269" s="11" t="s">
         <v>266</v>
       </c>
       <c r="D269" s="6" t="s">
@@ -6073,7 +6067,7 @@
       <c r="B270" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="C270" s="11" t="s">
         <v>267</v>
       </c>
       <c r="D270" s="6" t="s">
@@ -6087,7 +6081,7 @@
       <c r="B271" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C271" s="11" t="s">
         <v>91</v>
       </c>
       <c r="D271" s="6" t="s">
@@ -6101,7 +6095,7 @@
       <c r="B272" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C272" s="12" t="s">
+      <c r="C272" s="11" t="s">
         <v>268</v>
       </c>
       <c r="D272" s="6" t="s">
@@ -6109,11 +6103,11 @@
       </c>
     </row>
     <row r="273" ht="21" spans="3:4">
-      <c r="C273" s="13"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" ht="21" spans="3:4">
-      <c r="C274" s="13"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" ht="21" spans="1:4">
@@ -6123,7 +6117,7 @@
       <c r="B275" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="11" t="s">
         <v>270</v>
       </c>
       <c r="D275" s="6" t="s">
@@ -6137,7 +6131,7 @@
       <c r="B276" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="C276" s="11" t="s">
         <v>271</v>
       </c>
       <c r="D276" s="6" t="s">
@@ -6151,7 +6145,7 @@
       <c r="B277" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="11" t="s">
         <v>272</v>
       </c>
       <c r="D277" s="6" t="s">
@@ -6165,7 +6159,7 @@
       <c r="B278" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="12" t="s">
+      <c r="C278" s="11" t="s">
         <v>273</v>
       </c>
       <c r="D278" s="6" t="s">
@@ -6179,7 +6173,7 @@
       <c r="B279" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C279" s="12" t="s">
+      <c r="C279" s="11" t="s">
         <v>274</v>
       </c>
       <c r="D279" s="6" t="s">
@@ -6193,7 +6187,7 @@
       <c r="B280" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C280" s="12" t="s">
+      <c r="C280" s="11" t="s">
         <v>275</v>
       </c>
       <c r="D280" s="6" t="s">
@@ -6207,7 +6201,7 @@
       <c r="B281" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C281" s="12" t="s">
+      <c r="C281" s="11" t="s">
         <v>276</v>
       </c>
       <c r="D281" s="6" t="s">
@@ -6221,7 +6215,7 @@
       <c r="B282" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C282" s="12" t="s">
+      <c r="C282" s="11" t="s">
         <v>277</v>
       </c>
       <c r="D282" s="6" t="s">
@@ -6235,7 +6229,7 @@
       <c r="B283" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C283" s="12" t="s">
+      <c r="C283" s="11" t="s">
         <v>278</v>
       </c>
       <c r="D283" s="6" t="s">
@@ -6249,7 +6243,7 @@
       <c r="B284" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C284" s="12" t="s">
+      <c r="C284" s="11" t="s">
         <v>279</v>
       </c>
       <c r="D284" s="6" t="s">
@@ -6263,7 +6257,7 @@
       <c r="B285" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C285" s="12" t="s">
+      <c r="C285" s="11" t="s">
         <v>280</v>
       </c>
       <c r="D285" s="6" t="s">
@@ -6277,7 +6271,7 @@
       <c r="B286" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C286" s="12" t="s">
+      <c r="C286" s="11" t="s">
         <v>281</v>
       </c>
       <c r="D286" s="6" t="s">
@@ -6291,7 +6285,7 @@
       <c r="B287" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C287" s="12" t="s">
+      <c r="C287" s="11" t="s">
         <v>282</v>
       </c>
       <c r="D287" s="6" t="s">
@@ -6305,7 +6299,7 @@
       <c r="B288" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C288" s="12" t="s">
+      <c r="C288" s="11" t="s">
         <v>283</v>
       </c>
       <c r="D288" s="6" t="s">
@@ -6319,7 +6313,7 @@
       <c r="B289" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C289" s="12" t="s">
+      <c r="C289" s="11" t="s">
         <v>284</v>
       </c>
       <c r="D289" s="6" t="s">
@@ -6333,7 +6327,7 @@
       <c r="B290" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C290" s="12" t="s">
+      <c r="C290" s="11" t="s">
         <v>285</v>
       </c>
       <c r="D290" s="6" t="s">
@@ -6347,7 +6341,7 @@
       <c r="B291" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="11" t="s">
         <v>286</v>
       </c>
       <c r="D291" s="6" t="s">
@@ -6361,7 +6355,7 @@
       <c r="B292" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="C292" s="11" t="s">
         <v>287</v>
       </c>
       <c r="D292" s="6" t="s">
@@ -6375,7 +6369,7 @@
       <c r="B293" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C293" s="12" t="s">
+      <c r="C293" s="11" t="s">
         <v>288</v>
       </c>
       <c r="D293" s="6" t="s">
@@ -6383,11 +6377,11 @@
       </c>
     </row>
     <row r="294" ht="21" spans="3:4">
-      <c r="C294" s="13"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" ht="21" spans="3:4">
-      <c r="C295" s="13"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" ht="21" spans="1:4">
@@ -6397,7 +6391,7 @@
       <c r="B296" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C296" s="12" t="s">
+      <c r="C296" s="11" t="s">
         <v>290</v>
       </c>
       <c r="D296" s="6" t="s">
@@ -6411,7 +6405,7 @@
       <c r="B297" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C297" s="12" t="s">
+      <c r="C297" s="11" t="s">
         <v>291</v>
       </c>
       <c r="D297" s="6" t="s">
@@ -6425,7 +6419,7 @@
       <c r="B298" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C298" s="12" t="s">
+      <c r="C298" s="11" t="s">
         <v>292</v>
       </c>
       <c r="D298" s="6" t="s">
@@ -6439,7 +6433,7 @@
       <c r="B299" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="12" t="s">
+      <c r="C299" s="11" t="s">
         <v>293</v>
       </c>
       <c r="D299" s="6" t="s">
@@ -6453,7 +6447,7 @@
       <c r="B300" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C300" s="12" t="s">
+      <c r="C300" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D300" s="6" t="s">
@@ -6467,7 +6461,7 @@
       <c r="B301" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C301" s="12" t="s">
+      <c r="C301" s="11" t="s">
         <v>295</v>
       </c>
       <c r="D301" s="6" t="s">
@@ -6481,7 +6475,7 @@
       <c r="B302" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C302" s="12" t="s">
+      <c r="C302" s="11" t="s">
         <v>296</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -6495,7 +6489,7 @@
       <c r="B303" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C303" s="12" t="s">
+      <c r="C303" s="11" t="s">
         <v>297</v>
       </c>
       <c r="D303" s="6" t="s">
@@ -6509,7 +6503,7 @@
       <c r="B304" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C304" s="12" t="s">
+      <c r="C304" s="11" t="s">
         <v>298</v>
       </c>
       <c r="D304" s="6" t="s">
@@ -6523,7 +6517,7 @@
       <c r="B305" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C305" s="12" t="s">
+      <c r="C305" s="11" t="s">
         <v>299</v>
       </c>
       <c r="D305" s="6" t="s">
@@ -6537,7 +6531,7 @@
       <c r="B306" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C306" s="12" t="s">
+      <c r="C306" s="11" t="s">
         <v>300</v>
       </c>
       <c r="D306" s="6" t="s">
@@ -6551,7 +6545,7 @@
       <c r="B307" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C307" s="12" t="s">
+      <c r="C307" s="11" t="s">
         <v>301</v>
       </c>
       <c r="D307" s="6" t="s">
@@ -6565,7 +6559,7 @@
       <c r="B308" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C308" s="12" t="s">
+      <c r="C308" s="11" t="s">
         <v>302</v>
       </c>
       <c r="D308" s="6" t="s">
@@ -6579,7 +6573,7 @@
       <c r="B309" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C309" s="14" t="s">
         <v>303</v>
       </c>
       <c r="D309" s="6" t="s">
@@ -6593,7 +6587,7 @@
       <c r="B310" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C310" s="12" t="s">
+      <c r="C310" s="11" t="s">
         <v>304</v>
       </c>
       <c r="D310" s="6" t="s">
@@ -6607,7 +6601,7 @@
       <c r="B311" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C311" s="12" t="s">
+      <c r="C311" s="11" t="s">
         <v>305</v>
       </c>
       <c r="D311" s="6" t="s">
@@ -6621,7 +6615,7 @@
       <c r="B312" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C312" s="12" t="s">
+      <c r="C312" s="11" t="s">
         <v>306</v>
       </c>
       <c r="D312" s="6" t="s">
@@ -6635,7 +6629,7 @@
       <c r="B313" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C313" s="12" t="s">
+      <c r="C313" s="11" t="s">
         <v>307</v>
       </c>
       <c r="D313" s="6" t="s">
@@ -6649,7 +6643,7 @@
       <c r="B314" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C314" s="12" t="s">
+      <c r="C314" s="11" t="s">
         <v>308</v>
       </c>
       <c r="D314" s="6" t="s">
@@ -6663,7 +6657,7 @@
       <c r="B315" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C315" s="12" t="s">
+      <c r="C315" s="11" t="s">
         <v>309</v>
       </c>
       <c r="D315" s="6" t="s">
@@ -6677,7 +6671,7 @@
       <c r="B316" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C316" s="12" t="s">
+      <c r="C316" s="11" t="s">
         <v>310</v>
       </c>
       <c r="D316" s="6" t="s">
@@ -6691,7 +6685,7 @@
       <c r="B317" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C317" s="12" t="s">
+      <c r="C317" s="11" t="s">
         <v>311</v>
       </c>
       <c r="D317" s="6" t="s">
@@ -6705,7 +6699,7 @@
       <c r="B318" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C318" s="12" t="s">
+      <c r="C318" s="11" t="s">
         <v>312</v>
       </c>
       <c r="D318" s="6" t="s">
@@ -6719,7 +6713,7 @@
       <c r="B319" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C319" s="12" t="s">
+      <c r="C319" s="11" t="s">
         <v>313</v>
       </c>
       <c r="D319" s="6" t="s">
@@ -6733,7 +6727,7 @@
       <c r="B320" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C320" s="12" t="s">
+      <c r="C320" s="11" t="s">
         <v>314</v>
       </c>
       <c r="D320" s="6" t="s">
@@ -6747,7 +6741,7 @@
       <c r="B321" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C321" s="12" t="s">
+      <c r="C321" s="11" t="s">
         <v>315</v>
       </c>
       <c r="D321" s="6" t="s">
@@ -6761,7 +6755,7 @@
       <c r="B322" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C322" s="12" t="s">
+      <c r="C322" s="11" t="s">
         <v>316</v>
       </c>
       <c r="D322" s="6" t="s">
@@ -6775,7 +6769,7 @@
       <c r="B323" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C323" s="12" t="s">
+      <c r="C323" s="11" t="s">
         <v>317</v>
       </c>
       <c r="D323" s="6" t="s">
@@ -6789,7 +6783,7 @@
       <c r="B324" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C324" s="11" t="s">
         <v>318</v>
       </c>
       <c r="D324" s="6" t="s">
@@ -6803,7 +6797,7 @@
       <c r="B325" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C325" s="12" t="s">
+      <c r="C325" s="11" t="s">
         <v>319</v>
       </c>
       <c r="D325" s="6" t="s">
@@ -6817,7 +6811,7 @@
       <c r="B326" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C326" s="12" t="s">
+      <c r="C326" s="11" t="s">
         <v>320</v>
       </c>
       <c r="D326" s="6" t="s">
@@ -6831,7 +6825,7 @@
       <c r="B327" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C327" s="12" t="s">
+      <c r="C327" s="11" t="s">
         <v>321</v>
       </c>
       <c r="D327" s="6" t="s">
@@ -6845,7 +6839,7 @@
       <c r="B328" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C328" s="12" t="s">
+      <c r="C328" s="11" t="s">
         <v>322</v>
       </c>
       <c r="D328" s="6" t="s">
@@ -6859,7 +6853,7 @@
       <c r="B329" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C329" s="12" t="s">
+      <c r="C329" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D329" s="6" t="s">
@@ -6873,7 +6867,7 @@
       <c r="B330" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C330" s="12" t="s">
+      <c r="C330" s="11" t="s">
         <v>324</v>
       </c>
       <c r="D330" s="6" t="s">
@@ -6887,7 +6881,7 @@
       <c r="B331" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C331" s="12" t="s">
+      <c r="C331" s="11" t="s">
         <v>325</v>
       </c>
       <c r="D331" s="6" t="s">
@@ -6901,7 +6895,7 @@
       <c r="B332" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C332" s="12" t="s">
+      <c r="C332" s="11" t="s">
         <v>326</v>
       </c>
       <c r="D332" s="6" t="s">
@@ -6915,7 +6909,7 @@
       <c r="B333" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C333" s="12" t="s">
+      <c r="C333" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D333" s="6" t="s">
@@ -6923,21 +6917,21 @@
       </c>
     </row>
     <row r="334" ht="21" spans="3:4">
-      <c r="C334" s="13"/>
+      <c r="C334" s="12"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" ht="21" spans="3:4">
-      <c r="C335" s="13"/>
+      <c r="C335" s="12"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336">
         <v>311</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C336" s="12" t="s">
+      <c r="C336" s="11" t="s">
         <v>329</v>
       </c>
       <c r="D336" s="6" t="s">
@@ -6948,10 +6942,10 @@
       <c r="A337">
         <v>312</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B337" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C337" s="12" t="s">
+      <c r="C337" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D337" s="6" t="s">
@@ -6962,10 +6956,10 @@
       <c r="A338">
         <v>313</v>
       </c>
-      <c r="B338" s="14" t="s">
+      <c r="B338" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C338" s="12" t="s">
+      <c r="C338" s="11" t="s">
         <v>331</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -6976,10 +6970,10 @@
       <c r="A339">
         <v>314</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="12" t="s">
+      <c r="C339" s="11" t="s">
         <v>332</v>
       </c>
       <c r="D339" s="6" t="s">
@@ -6990,10 +6984,10 @@
       <c r="A340">
         <v>315</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C340" s="12" t="s">
+      <c r="C340" s="11" t="s">
         <v>333</v>
       </c>
       <c r="D340" s="6" t="s">
@@ -7004,10 +6998,10 @@
       <c r="A341">
         <v>316</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C341" s="12" t="s">
+      <c r="C341" s="11" t="s">
         <v>334</v>
       </c>
       <c r="D341" s="6" t="s">
@@ -7018,10 +7012,10 @@
       <c r="A342">
         <v>317</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C342" s="12" t="s">
+      <c r="C342" s="11" t="s">
         <v>335</v>
       </c>
       <c r="D342" s="6" t="s">
@@ -7032,10 +7026,10 @@
       <c r="A343">
         <v>318</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C343" s="12" t="s">
+      <c r="C343" s="11" t="s">
         <v>336</v>
       </c>
       <c r="D343" s="6" t="s">
@@ -7046,10 +7040,10 @@
       <c r="A344">
         <v>319</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="14" t="s">
         <v>337</v>
       </c>
       <c r="D344" s="6" t="s">
@@ -7060,10 +7054,10 @@
       <c r="A345">
         <v>320</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C345" s="12" t="s">
+      <c r="C345" s="11" t="s">
         <v>338</v>
       </c>
       <c r="D345" s="6" t="s">
@@ -7074,10 +7068,10 @@
       <c r="A346">
         <v>321</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C346" s="12" t="s">
+      <c r="C346" s="11" t="s">
         <v>339</v>
       </c>
       <c r="D346" s="6" t="s">
@@ -7088,10 +7082,10 @@
       <c r="A347">
         <v>322</v>
       </c>
-      <c r="B347" s="14" t="s">
+      <c r="B347" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C347" s="12" t="s">
+      <c r="C347" s="11" t="s">
         <v>340</v>
       </c>
       <c r="D347" s="6" t="s">
@@ -7102,10 +7096,10 @@
       <c r="A348">
         <v>323</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C348" s="12" t="s">
+      <c r="C348" s="11" t="s">
         <v>341</v>
       </c>
       <c r="D348" s="6" t="s">
@@ -7116,10 +7110,10 @@
       <c r="A349">
         <v>324</v>
       </c>
-      <c r="B349" s="14" t="s">
+      <c r="B349" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C349" s="12" t="s">
+      <c r="C349" s="11" t="s">
         <v>342</v>
       </c>
       <c r="D349" s="6" t="s">
@@ -7130,10 +7124,10 @@
       <c r="A350">
         <v>325</v>
       </c>
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C350" s="12" t="s">
+      <c r="C350" s="11" t="s">
         <v>343</v>
       </c>
       <c r="D350" s="6" t="s">
@@ -7144,10 +7138,10 @@
       <c r="A351">
         <v>326</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C351" s="12" t="s">
+      <c r="C351" s="11" t="s">
         <v>344</v>
       </c>
       <c r="D351" s="6" t="s">
@@ -7158,10 +7152,10 @@
       <c r="A352">
         <v>327</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C352" s="12" t="s">
+      <c r="C352" s="11" t="s">
         <v>345</v>
       </c>
       <c r="D352" s="6" t="s">
@@ -7172,10 +7166,10 @@
       <c r="A353">
         <v>328</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C353" s="12" t="s">
+      <c r="C353" s="11" t="s">
         <v>346</v>
       </c>
       <c r="D353" s="6" t="s">
@@ -7183,21 +7177,21 @@
       </c>
     </row>
     <row r="354" ht="21" spans="3:4">
-      <c r="C354" s="13"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" ht="21" spans="3:4">
-      <c r="C355" s="13"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356">
         <v>329</v>
       </c>
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C356" s="12" t="s">
+      <c r="C356" s="11" t="s">
         <v>348</v>
       </c>
       <c r="D356" s="6" t="s">
@@ -7208,10 +7202,10 @@
       <c r="A357">
         <v>330</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C357" s="12" t="s">
+      <c r="C357" s="11" t="s">
         <v>349</v>
       </c>
       <c r="D357" s="6" t="s">
@@ -7222,10 +7216,10 @@
       <c r="A358">
         <v>331</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C358" s="12" t="s">
+      <c r="C358" s="11" t="s">
         <v>350</v>
       </c>
       <c r="D358" s="6" t="s">
@@ -7236,10 +7230,10 @@
       <c r="A359">
         <v>332</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="12" t="s">
+      <c r="C359" s="11" t="s">
         <v>351</v>
       </c>
       <c r="D359" s="6" t="s">
@@ -7250,10 +7244,10 @@
       <c r="A360">
         <v>333</v>
       </c>
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C360" s="12" t="s">
+      <c r="C360" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D360" s="6" t="s">
@@ -7264,10 +7258,10 @@
       <c r="A361">
         <v>334</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C361" s="12" t="s">
+      <c r="C361" s="11" t="s">
         <v>353</v>
       </c>
       <c r="D361" s="6" t="s">
@@ -7278,10 +7272,10 @@
       <c r="A362">
         <v>335</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C362" s="12" t="s">
+      <c r="C362" s="11" t="s">
         <v>354</v>
       </c>
       <c r="D362" s="6" t="s">
@@ -7292,10 +7286,10 @@
       <c r="A363">
         <v>336</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="C363" s="11" t="s">
         <v>355</v>
       </c>
       <c r="D363" s="6" t="s">
@@ -7306,10 +7300,10 @@
       <c r="A364">
         <v>337</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C364" s="12" t="s">
+      <c r="C364" s="11" t="s">
         <v>356</v>
       </c>
       <c r="D364" s="6" t="s">
@@ -7320,10 +7314,10 @@
       <c r="A365">
         <v>338</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C365" s="12" t="s">
+      <c r="C365" s="11" t="s">
         <v>357</v>
       </c>
       <c r="D365" s="6" t="s">
@@ -7334,10 +7328,10 @@
       <c r="A366">
         <v>339</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C366" s="12" t="s">
+      <c r="C366" s="11" t="s">
         <v>358</v>
       </c>
       <c r="D366" s="6" t="s">
@@ -7348,10 +7342,10 @@
       <c r="A367">
         <v>340</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C367" s="12" t="s">
+      <c r="C367" s="11" t="s">
         <v>359</v>
       </c>
       <c r="D367" s="6" t="s">
@@ -7362,10 +7356,10 @@
       <c r="A368">
         <v>341</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C368" s="12" t="s">
+      <c r="C368" s="11" t="s">
         <v>360</v>
       </c>
       <c r="D368" s="6" t="s">
@@ -7376,10 +7370,10 @@
       <c r="A369">
         <v>342</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C369" s="12" t="s">
+      <c r="C369" s="11" t="s">
         <v>361</v>
       </c>
       <c r="D369" s="6" t="s">
@@ -7390,10 +7384,10 @@
       <c r="A370">
         <v>343</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C370" s="12" t="s">
+      <c r="C370" s="11" t="s">
         <v>362</v>
       </c>
       <c r="D370" s="6" t="s">
@@ -7404,10 +7398,10 @@
       <c r="A371">
         <v>344</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C371" s="12" t="s">
+      <c r="C371" s="11" t="s">
         <v>363</v>
       </c>
       <c r="D371" s="6" t="s">
@@ -7418,10 +7412,10 @@
       <c r="A372">
         <v>345</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C372" s="12" t="s">
+      <c r="C372" s="11" t="s">
         <v>364</v>
       </c>
       <c r="D372" s="6" t="s">
@@ -7432,10 +7426,10 @@
       <c r="A373">
         <v>346</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C373" s="12" t="s">
+      <c r="C373" s="11" t="s">
         <v>365</v>
       </c>
       <c r="D373" s="6" t="s">
@@ -7446,10 +7440,10 @@
       <c r="A374">
         <v>347</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C374" s="12" t="s">
+      <c r="C374" s="11" t="s">
         <v>366</v>
       </c>
       <c r="D374" s="6" t="s">
@@ -7460,10 +7454,10 @@
       <c r="A375">
         <v>348</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C375" s="12" t="s">
+      <c r="C375" s="11" t="s">
         <v>367</v>
       </c>
       <c r="D375" s="6" t="s">
@@ -7474,10 +7468,10 @@
       <c r="A376">
         <v>349</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C376" s="12" t="s">
+      <c r="C376" s="11" t="s">
         <v>368</v>
       </c>
       <c r="D376" s="6" t="s">
@@ -7488,10 +7482,10 @@
       <c r="A377">
         <v>350</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C377" s="12" t="s">
+      <c r="C377" s="11" t="s">
         <v>369</v>
       </c>
       <c r="D377" s="6" t="s">
@@ -7502,10 +7496,10 @@
       <c r="A378">
         <v>351</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C378" s="12" t="s">
+      <c r="C378" s="11" t="s">
         <v>370</v>
       </c>
       <c r="D378" s="6" t="s">
@@ -7516,10 +7510,10 @@
       <c r="A379">
         <v>352</v>
       </c>
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C379" s="12" t="s">
+      <c r="C379" s="11" t="s">
         <v>371</v>
       </c>
       <c r="D379" s="6" t="s">
@@ -7530,10 +7524,10 @@
       <c r="A380">
         <v>353</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C380" s="12" t="s">
+      <c r="C380" s="11" t="s">
         <v>372</v>
       </c>
       <c r="D380" s="6" t="s">
@@ -7544,10 +7538,10 @@
       <c r="A381">
         <v>354</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C381" s="12" t="s">
+      <c r="C381" s="11" t="s">
         <v>373</v>
       </c>
       <c r="D381" s="6" t="s">
@@ -7558,10 +7552,10 @@
       <c r="A382">
         <v>355</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C382" s="12" t="s">
+      <c r="C382" s="11" t="s">
         <v>374</v>
       </c>
       <c r="D382" s="6" t="s">
@@ -7572,10 +7566,10 @@
       <c r="A383">
         <v>356</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C383" s="12" t="s">
+      <c r="C383" s="11" t="s">
         <v>375</v>
       </c>
       <c r="D383" s="6" t="s">
@@ -7586,10 +7580,10 @@
       <c r="A384">
         <v>357</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C384" s="12" t="s">
+      <c r="C384" s="11" t="s">
         <v>376</v>
       </c>
       <c r="D384" s="6" t="s">
@@ -7600,10 +7594,10 @@
       <c r="A385">
         <v>358</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C385" s="12" t="s">
+      <c r="C385" s="11" t="s">
         <v>377</v>
       </c>
       <c r="D385" s="6" t="s">
@@ -7614,10 +7608,10 @@
       <c r="A386">
         <v>359</v>
       </c>
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C386" s="12" t="s">
+      <c r="C386" s="11" t="s">
         <v>378</v>
       </c>
       <c r="D386" s="6" t="s">
@@ -7628,10 +7622,10 @@
       <c r="A387">
         <v>360</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C387" s="12" t="s">
+      <c r="C387" s="11" t="s">
         <v>379</v>
       </c>
       <c r="D387" s="6" t="s">
@@ -7642,10 +7636,10 @@
       <c r="A388">
         <v>361</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C388" s="12" t="s">
+      <c r="C388" s="11" t="s">
         <v>380</v>
       </c>
       <c r="D388" s="6" t="s">
@@ -7656,10 +7650,10 @@
       <c r="A389">
         <v>362</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C389" s="12" t="s">
+      <c r="C389" s="11" t="s">
         <v>381</v>
       </c>
       <c r="D389" s="6" t="s">
@@ -7670,10 +7664,10 @@
       <c r="A390">
         <v>363</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C390" s="12" t="s">
+      <c r="C390" s="11" t="s">
         <v>381</v>
       </c>
       <c r="D390" s="6" t="s">
@@ -7684,10 +7678,10 @@
       <c r="A391">
         <v>364</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B391" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C391" s="12" t="s">
+      <c r="C391" s="11" t="s">
         <v>382</v>
       </c>
       <c r="D391" s="6" t="s">
@@ -7698,10 +7692,10 @@
       <c r="A392">
         <v>365</v>
       </c>
-      <c r="B392" s="14" t="s">
+      <c r="B392" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C392" s="12" t="s">
+      <c r="C392" s="11" t="s">
         <v>383</v>
       </c>
       <c r="D392" s="6" t="s">
@@ -7712,10 +7706,10 @@
       <c r="A393">
         <v>366</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C393" s="12" t="s">
+      <c r="C393" s="11" t="s">
         <v>384</v>
       </c>
       <c r="D393" s="6" t="s">
@@ -7726,10 +7720,10 @@
       <c r="A394">
         <v>367</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C394" s="12" t="s">
+      <c r="C394" s="11" t="s">
         <v>385</v>
       </c>
       <c r="D394" s="6" t="s">
@@ -7740,10 +7734,10 @@
       <c r="A395">
         <v>368</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C395" s="12" t="s">
+      <c r="C395" s="11" t="s">
         <v>386</v>
       </c>
       <c r="D395" s="6" t="s">
@@ -7754,10 +7748,10 @@
       <c r="A396">
         <v>369</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C396" s="12" t="s">
+      <c r="C396" s="11" t="s">
         <v>387</v>
       </c>
       <c r="D396" s="6" t="s">
@@ -7768,10 +7762,10 @@
       <c r="A397">
         <v>370</v>
       </c>
-      <c r="B397" s="14" t="s">
+      <c r="B397" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C397" s="12" t="s">
+      <c r="C397" s="11" t="s">
         <v>388</v>
       </c>
       <c r="D397" s="6" t="s">
@@ -7782,10 +7776,10 @@
       <c r="A398">
         <v>371</v>
       </c>
-      <c r="B398" s="14" t="s">
+      <c r="B398" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C398" s="12" t="s">
+      <c r="C398" s="11" t="s">
         <v>389</v>
       </c>
       <c r="D398" s="6" t="s">
@@ -7796,10 +7790,10 @@
       <c r="A399">
         <v>372</v>
       </c>
-      <c r="B399" s="14" t="s">
+      <c r="B399" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C399" s="12" t="s">
+      <c r="C399" s="11" t="s">
         <v>390</v>
       </c>
       <c r="D399" s="6" t="s">
@@ -7807,21 +7801,21 @@
       </c>
     </row>
     <row r="400" ht="21" spans="3:4">
-      <c r="C400" s="13"/>
+      <c r="C400" s="12"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" ht="21" spans="3:4">
-      <c r="C401" s="13"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402">
         <v>373</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C402" s="12" t="s">
+      <c r="C402" s="11" t="s">
         <v>392</v>
       </c>
       <c r="D402" s="6" t="s">
@@ -7832,10 +7826,10 @@
       <c r="A403">
         <v>374</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C403" s="12" t="s">
+      <c r="C403" s="11" t="s">
         <v>393</v>
       </c>
       <c r="D403" s="6" t="s">
@@ -7846,10 +7840,10 @@
       <c r="A404">
         <v>375</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C404" s="12" t="s">
+      <c r="C404" s="11" t="s">
         <v>394</v>
       </c>
       <c r="D404" s="6" t="s">
@@ -7860,10 +7854,10 @@
       <c r="A405">
         <v>376</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C405" s="12" t="s">
+      <c r="C405" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D405" s="6" t="s">
@@ -7874,10 +7868,10 @@
       <c r="A406">
         <v>377</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="B406" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C406" s="12" t="s">
+      <c r="C406" s="11" t="s">
         <v>395</v>
       </c>
       <c r="D406" s="6" t="s">
@@ -7888,10 +7882,10 @@
       <c r="A407">
         <v>378</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C407" s="12" t="s">
+      <c r="C407" s="11" t="s">
         <v>396</v>
       </c>
       <c r="D407" s="6" t="s">
@@ -7899,11 +7893,11 @@
       </c>
     </row>
     <row r="408" ht="21" spans="3:4">
-      <c r="C408" s="13"/>
+      <c r="C408" s="12"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" ht="21" spans="3:4">
-      <c r="C409" s="13"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" ht="21" spans="1:4">
@@ -7913,7 +7907,7 @@
       <c r="B410" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C410" s="12" t="s">
+      <c r="C410" s="11" t="s">
         <v>398</v>
       </c>
       <c r="D410" s="6" t="s">
@@ -7927,7 +7921,7 @@
       <c r="B411" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C411" s="12" t="s">
+      <c r="C411" s="11" t="s">
         <v>399</v>
       </c>
       <c r="D411" s="6" t="s">
@@ -7941,7 +7935,7 @@
       <c r="B412" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C412" s="12" t="s">
+      <c r="C412" s="11" t="s">
         <v>400</v>
       </c>
       <c r="D412" s="6" t="s">
@@ -7955,7 +7949,7 @@
       <c r="B413" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="12" t="s">
+      <c r="C413" s="11" t="s">
         <v>401</v>
       </c>
       <c r="D413" s="6" t="s">
@@ -7969,7 +7963,7 @@
       <c r="B414" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C414" s="12" t="s">
+      <c r="C414" s="11" t="s">
         <v>402</v>
       </c>
       <c r="D414" s="6" t="s">
@@ -7983,7 +7977,7 @@
       <c r="B415" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C415" s="12" t="s">
+      <c r="C415" s="11" t="s">
         <v>403</v>
       </c>
       <c r="D415" s="6" t="s">
@@ -7997,7 +7991,7 @@
       <c r="B416" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C416" s="12" t="s">
+      <c r="C416" s="11" t="s">
         <v>404</v>
       </c>
       <c r="D416" s="6" t="s">
@@ -8011,7 +8005,7 @@
       <c r="B417" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C417" s="12" t="s">
+      <c r="C417" s="11" t="s">
         <v>277</v>
       </c>
       <c r="D417" s="6" t="s">
@@ -8025,7 +8019,7 @@
       <c r="B418" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C418" s="12" t="s">
+      <c r="C418" s="11" t="s">
         <v>405</v>
       </c>
       <c r="D418" s="6" t="s">
@@ -8039,7 +8033,7 @@
       <c r="B419" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C419" s="12" t="s">
+      <c r="C419" s="11" t="s">
         <v>406</v>
       </c>
       <c r="D419" s="6" t="s">
@@ -8053,7 +8047,7 @@
       <c r="B420" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C420" s="12" t="s">
+      <c r="C420" s="11" t="s">
         <v>407</v>
       </c>
       <c r="D420" s="6" t="s">
@@ -8067,7 +8061,7 @@
       <c r="B421" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C421" s="12" t="s">
+      <c r="C421" s="11" t="s">
         <v>408</v>
       </c>
       <c r="D421" s="6" t="s">
@@ -8081,7 +8075,7 @@
       <c r="B422" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C422" s="12" t="s">
+      <c r="C422" s="11" t="s">
         <v>409</v>
       </c>
       <c r="D422" s="6" t="s">
@@ -8095,7 +8089,7 @@
       <c r="B423" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C423" s="12" t="s">
+      <c r="C423" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D423" s="6" t="s">
@@ -8109,7 +8103,7 @@
       <c r="B424" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C424" s="12" t="s">
+      <c r="C424" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D424" s="6" t="s">
@@ -8123,7 +8117,7 @@
       <c r="B425" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C425" s="12" t="s">
+      <c r="C425" s="11" t="s">
         <v>412</v>
       </c>
       <c r="D425" s="6" t="s">
@@ -8137,7 +8131,7 @@
       <c r="B426" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C426" s="12" t="s">
+      <c r="C426" s="11" t="s">
         <v>413</v>
       </c>
       <c r="D426" s="6" t="s">
@@ -8151,7 +8145,7 @@
       <c r="B427" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C427" s="12" t="s">
+      <c r="C427" s="11" t="s">
         <v>414</v>
       </c>
       <c r="D427" s="6" t="s">
@@ -8165,7 +8159,7 @@
       <c r="B428" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C428" s="12" t="s">
+      <c r="C428" s="11" t="s">
         <v>415</v>
       </c>
       <c r="D428" s="6" t="s">
@@ -8179,7 +8173,7 @@
       <c r="B429" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C429" s="12" t="s">
+      <c r="C429" s="11" t="s">
         <v>416</v>
       </c>
       <c r="D429" s="6" t="s">
@@ -8193,7 +8187,7 @@
       <c r="B430" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C430" s="12" t="s">
+      <c r="C430" s="11" t="s">
         <v>417</v>
       </c>
       <c r="D430" s="6" t="s">
@@ -8207,7 +8201,7 @@
       <c r="B431" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C431" s="12" t="s">
+      <c r="C431" s="11" t="s">
         <v>418</v>
       </c>
       <c r="D431" s="6" t="s">
@@ -8221,7 +8215,7 @@
       <c r="B432" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C432" s="12" t="s">
+      <c r="C432" s="11" t="s">
         <v>419</v>
       </c>
       <c r="D432" s="6" t="s">
@@ -8235,7 +8229,7 @@
       <c r="B433" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C433" s="12" t="s">
+      <c r="C433" s="11" t="s">
         <v>420</v>
       </c>
       <c r="D433" s="6" t="s">
@@ -8249,7 +8243,7 @@
       <c r="B434" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C434" s="12" t="s">
+      <c r="C434" s="11" t="s">
         <v>421</v>
       </c>
       <c r="D434" s="6" t="s">
@@ -8263,7 +8257,7 @@
       <c r="B435" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C435" s="12" t="s">
+      <c r="C435" s="11" t="s">
         <v>422</v>
       </c>
       <c r="D435" s="6" t="s">
@@ -8277,7 +8271,7 @@
       <c r="B436" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C436" s="12" t="s">
+      <c r="C436" s="11" t="s">
         <v>423</v>
       </c>
       <c r="D436" s="6" t="s">
@@ -8291,7 +8285,7 @@
       <c r="B437" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C437" s="12" t="s">
+      <c r="C437" s="11" t="s">
         <v>424</v>
       </c>
       <c r="D437" s="6" t="s">
@@ -8305,7 +8299,7 @@
       <c r="B438" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C438" s="12" t="s">
+      <c r="C438" s="11" t="s">
         <v>425</v>
       </c>
       <c r="D438" s="6" t="s">
@@ -8319,7 +8313,7 @@
       <c r="B439" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C439" s="12" t="s">
+      <c r="C439" s="11" t="s">
         <v>426</v>
       </c>
       <c r="D439" s="6" t="s">
@@ -8333,7 +8327,7 @@
       <c r="B440" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C440" s="12" t="s">
+      <c r="C440" s="11" t="s">
         <v>427</v>
       </c>
       <c r="D440" s="6" t="s">
@@ -8347,7 +8341,7 @@
       <c r="B441" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C441" s="12" t="s">
+      <c r="C441" s="11" t="s">
         <v>428</v>
       </c>
       <c r="D441" s="6" t="s">
@@ -8361,7 +8355,7 @@
       <c r="B442" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C442" s="12" t="s">
+      <c r="C442" s="11" t="s">
         <v>429</v>
       </c>
       <c r="D442" s="6" t="s">
@@ -8375,7 +8369,7 @@
       <c r="B443" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C443" s="12" t="s">
+      <c r="C443" s="11" t="s">
         <v>430</v>
       </c>
       <c r="D443" s="6" t="s">
@@ -8389,7 +8383,7 @@
       <c r="B444" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C444" s="12" t="s">
+      <c r="C444" s="11" t="s">
         <v>431</v>
       </c>
       <c r="D444" s="6" t="s">
@@ -8403,7 +8397,7 @@
       <c r="B445" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C445" s="12" t="s">
+      <c r="C445" s="11" t="s">
         <v>432</v>
       </c>
       <c r="D445" s="6" t="s">
@@ -8417,7 +8411,7 @@
       <c r="B446" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C446" s="12" t="s">
+      <c r="C446" s="11" t="s">
         <v>433</v>
       </c>
       <c r="D446" s="6" t="s">
@@ -8431,7 +8425,7 @@
       <c r="B447" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C447" s="12" t="s">
+      <c r="C447" s="11" t="s">
         <v>434</v>
       </c>
       <c r="D447" s="6" t="s">
@@ -8445,7 +8439,7 @@
       <c r="B448" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C448" s="12" t="s">
+      <c r="C448" s="11" t="s">
         <v>435</v>
       </c>
       <c r="D448" s="6" t="s">
@@ -8459,7 +8453,7 @@
       <c r="B449" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C449" s="12" t="s">
+      <c r="C449" s="11" t="s">
         <v>436</v>
       </c>
       <c r="D449" s="6" t="s">
@@ -8473,7 +8467,7 @@
       <c r="B450" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C450" s="12" t="s">
+      <c r="C450" s="11" t="s">
         <v>437</v>
       </c>
       <c r="D450" s="6" t="s">
@@ -8487,7 +8481,7 @@
       <c r="B451" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C451" s="12" t="s">
+      <c r="C451" s="11" t="s">
         <v>438</v>
       </c>
       <c r="D451" s="6" t="s">
@@ -8501,7 +8495,7 @@
       <c r="B452" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C452" s="12" t="s">
+      <c r="C452" s="11" t="s">
         <v>439</v>
       </c>
       <c r="D452" s="6" t="s">
@@ -8515,7 +8509,7 @@
       <c r="B453" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C453" s="12" t="s">
+      <c r="C453" s="11" t="s">
         <v>440</v>
       </c>
       <c r="D453" s="6" t="s">
@@ -8529,7 +8523,7 @@
       <c r="B454" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C454" s="12" t="s">
+      <c r="C454" s="11" t="s">
         <v>441</v>
       </c>
       <c r="D454" s="6" t="s">
@@ -8543,7 +8537,7 @@
       <c r="B455" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C455" s="12" t="s">
+      <c r="C455" s="11" t="s">
         <v>442</v>
       </c>
       <c r="D455" s="6" t="s">
@@ -8557,7 +8551,7 @@
       <c r="B456" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C456" s="12" t="s">
+      <c r="C456" s="11" t="s">
         <v>443</v>
       </c>
       <c r="D456" s="6" t="s">
@@ -8571,7 +8565,7 @@
       <c r="B457" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C457" s="12" t="s">
+      <c r="C457" s="11" t="s">
         <v>444</v>
       </c>
       <c r="D457" s="6" t="s">
@@ -8585,7 +8579,7 @@
       <c r="B458" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C458" s="12" t="s">
+      <c r="C458" s="11" t="s">
         <v>445</v>
       </c>
       <c r="D458" s="6" t="s">
@@ -8599,7 +8593,7 @@
       <c r="B459" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C459" s="12" t="s">
+      <c r="C459" s="11" t="s">
         <v>446</v>
       </c>
       <c r="D459" s="6" t="s">
@@ -8613,7 +8607,7 @@
       <c r="B460" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C460" s="12" t="s">
+      <c r="C460" s="11" t="s">
         <v>447</v>
       </c>
       <c r="D460" s="6" t="s">
@@ -8627,7 +8621,7 @@
       <c r="B461" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C461" s="12" t="s">
+      <c r="C461" s="11" t="s">
         <v>448</v>
       </c>
       <c r="D461" s="6" t="s">
@@ -8641,7 +8635,7 @@
       <c r="B462" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C462" s="12" t="s">
+      <c r="C462" s="11" t="s">
         <v>449</v>
       </c>
       <c r="D462" s="6" t="s">
@@ -8655,7 +8649,7 @@
       <c r="B463" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C463" s="12" t="s">
+      <c r="C463" s="11" t="s">
         <v>450</v>
       </c>
       <c r="D463" s="6" t="s">
@@ -8669,7 +8663,7 @@
       <c r="B464" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C464" s="12" t="s">
+      <c r="C464" s="11" t="s">
         <v>451</v>
       </c>
       <c r="D464" s="6" t="s">
@@ -8683,7 +8677,7 @@
       <c r="B465" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C465" s="12" t="s">
+      <c r="C465" s="11" t="s">
         <v>452</v>
       </c>
       <c r="D465" s="6" t="s">
@@ -8697,7 +8691,7 @@
       <c r="B466" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C466" s="12" t="s">
+      <c r="C466" s="11" t="s">
         <v>453</v>
       </c>
       <c r="D466" s="6" t="s">
@@ -8711,7 +8705,7 @@
       <c r="B467" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C467" s="12" t="s">
+      <c r="C467" s="11" t="s">
         <v>454</v>
       </c>
       <c r="D467" s="6" t="s">
@@ -8725,7 +8719,7 @@
       <c r="B468" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C468" s="12" t="s">
+      <c r="C468" s="11" t="s">
         <v>455</v>
       </c>
       <c r="D468" s="6" t="s">
@@ -8739,7 +8733,7 @@
       <c r="B469" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C469" s="12" t="s">
+      <c r="C469" s="11" t="s">
         <v>456</v>
       </c>
       <c r="D469" s="6" t="s">
@@ -8747,12 +8741,12 @@
       </c>
     </row>
     <row r="470" ht="21" spans="3:4">
-      <c r="C470" s="13"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" ht="21" spans="2:4">
-      <c r="B471" s="14"/>
-      <c r="C471" s="13"/>
+      <c r="B471" s="13"/>
+      <c r="C471" s="12"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" ht="21" spans="1:4">
@@ -8762,7 +8756,7 @@
       <c r="B472" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C472" s="12" t="s">
+      <c r="C472" s="11" t="s">
         <v>458</v>
       </c>
       <c r="D472" s="6" t="s">
@@ -8776,7 +8770,7 @@
       <c r="B473" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C473" s="12" t="s">
+      <c r="C473" s="11" t="s">
         <v>459</v>
       </c>
       <c r="D473" s="6" t="s">
@@ -8790,7 +8784,7 @@
       <c r="B474" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C474" s="12" t="s">
+      <c r="C474" s="11" t="s">
         <v>460</v>
       </c>
       <c r="D474" s="6" t="s">
@@ -8804,7 +8798,7 @@
       <c r="B475" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C475" s="12" t="s">
+      <c r="C475" s="11" t="s">
         <v>461</v>
       </c>
       <c r="D475" s="6" t="s">
@@ -8818,7 +8812,7 @@
       <c r="B476" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C476" s="12" t="s">
+      <c r="C476" s="11" t="s">
         <v>462</v>
       </c>
       <c r="D476" s="6" t="s">
@@ -8832,7 +8826,7 @@
       <c r="B477" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C477" s="12" t="s">
+      <c r="C477" s="11" t="s">
         <v>463</v>
       </c>
       <c r="D477" s="6" t="s">
@@ -8846,7 +8840,7 @@
       <c r="B478" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C478" s="12" t="s">
+      <c r="C478" s="11" t="s">
         <v>464</v>
       </c>
       <c r="D478" s="6" t="s">
@@ -8860,7 +8854,7 @@
       <c r="B479" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C479" s="12" t="s">
+      <c r="C479" s="11" t="s">
         <v>465</v>
       </c>
       <c r="D479" s="6" t="s">
@@ -8874,7 +8868,7 @@
       <c r="B480" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C480" s="12" t="s">
+      <c r="C480" s="11" t="s">
         <v>466</v>
       </c>
       <c r="D480" s="6" t="s">
@@ -8888,7 +8882,7 @@
       <c r="B481" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C481" s="12" t="s">
+      <c r="C481" s="11" t="s">
         <v>467</v>
       </c>
       <c r="D481" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="470">
   <si>
     <t>DSA</t>
   </si>
@@ -55,10 +55,16 @@
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
+    <t>O(n),O(nlogn)</t>
+  </si>
+  <si>
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
+    <t>O(N)</t>
   </si>
   <si>
     <t>Find the Union and Intersection of the two sorted arrays.</t>
@@ -1426,9 +1432,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1524,8 +1530,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1562,7 +1576,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,8 +1606,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,21 +1616,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1630,24 +1630,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,7 +1680,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,13 +1788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,37 +1818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,91 +1842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,13 +1854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,6 +1865,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1889,32 +1921,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1935,170 +1943,168 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2456,8 +2462,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2539,46 +2545,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="21" spans="1:4">
+    <row r="8" ht="21" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="21" spans="1:4">
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <v>44170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="21" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="21" spans="1:4">
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>44170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="21" spans="1:6">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:4">
@@ -2589,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
@@ -2603,7 +2627,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
@@ -2617,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -2631,7 +2655,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
@@ -2645,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
@@ -2659,7 +2683,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
@@ -2673,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
@@ -2687,7 +2711,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
@@ -2701,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
@@ -2715,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
@@ -2729,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
@@ -2743,7 +2767,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
@@ -2757,7 +2781,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
@@ -2771,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
@@ -2785,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -2799,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>6</v>
@@ -2813,7 +2837,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>6</v>
@@ -2827,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -2841,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>6</v>
@@ -2855,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
@@ -2869,7 +2893,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>6</v>
@@ -2883,7 +2907,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
@@ -2897,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
@@ -2911,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>6</v>
@@ -2925,7 +2949,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -2939,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -2953,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
@@ -2967,7 +2991,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -2981,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>6</v>
@@ -2995,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
@@ -3009,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>6</v>
@@ -3033,10 +3057,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
@@ -3047,10 +3071,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -3061,10 +3085,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>6</v>
@@ -3075,10 +3099,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>6</v>
@@ -3089,10 +3113,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
@@ -3103,10 +3127,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>6</v>
@@ -3117,10 +3141,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>6</v>
@@ -3131,10 +3155,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>6</v>
@@ -3145,10 +3169,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>6</v>
@@ -3159,10 +3183,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>6</v>
@@ -3178,10 +3202,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3192,10 +3216,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>6</v>
@@ -3206,10 +3230,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>6</v>
@@ -3220,10 +3244,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>6</v>
@@ -3234,10 +3258,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
@@ -3248,10 +3272,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>6</v>
@@ -3262,10 +3286,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>6</v>
@@ -3276,10 +3300,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>6</v>
@@ -3290,10 +3314,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>6</v>
@@ -3304,10 +3328,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -3318,10 +3342,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>6</v>
@@ -3332,10 +3356,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>6</v>
@@ -3346,10 +3370,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>6</v>
@@ -3360,10 +3384,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>6</v>
@@ -3374,10 +3398,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>6</v>
@@ -3388,10 +3412,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>6</v>
@@ -3402,10 +3426,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>6</v>
@@ -3416,10 +3440,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
@@ -3430,10 +3454,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>6</v>
@@ -3444,10 +3468,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -3458,10 +3482,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>6</v>
@@ -3472,10 +3496,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>6</v>
@@ -3486,10 +3510,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>6</v>
@@ -3500,10 +3524,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>6</v>
@@ -3514,10 +3538,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>6</v>
@@ -3528,10 +3552,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>6</v>
@@ -3542,10 +3566,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>6</v>
@@ -3556,10 +3580,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>6</v>
@@ -3570,10 +3594,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>6</v>
@@ -3584,10 +3608,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -3598,10 +3622,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>6</v>
@@ -3612,10 +3636,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
@@ -3626,10 +3650,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>6</v>
@@ -3640,10 +3664,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>6</v>
@@ -3654,10 +3678,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>6</v>
@@ -3668,10 +3692,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>6</v>
@@ -3682,10 +3706,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>6</v>
@@ -3696,10 +3720,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>6</v>
@@ -3710,10 +3734,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>6</v>
@@ -3724,10 +3748,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -3738,10 +3762,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
@@ -3752,10 +3776,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>6</v>
@@ -3766,10 +3790,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>6</v>
@@ -3785,10 +3809,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>6</v>
@@ -3799,10 +3823,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
@@ -3813,10 +3837,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>6</v>
@@ -3827,10 +3851,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>6</v>
@@ -3841,10 +3865,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -3855,10 +3879,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
@@ -3869,10 +3893,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>6</v>
@@ -3883,10 +3907,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
@@ -3897,10 +3921,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>6</v>
@@ -3911,10 +3935,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>6</v>
@@ -3925,10 +3949,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>6</v>
@@ -3939,10 +3963,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
@@ -3953,10 +3977,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>6</v>
@@ -3967,10 +3991,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>6</v>
@@ -3981,10 +4005,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -3995,10 +4019,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
@@ -4009,10 +4033,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>6</v>
@@ -4023,10 +4047,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>6</v>
@@ -4037,10 +4061,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>6</v>
@@ -4051,10 +4075,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>6</v>
@@ -4065,10 +4089,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>6</v>
@@ -4079,10 +4103,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
@@ -4093,10 +4117,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
@@ -4107,10 +4131,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>6</v>
@@ -4121,10 +4145,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -4135,10 +4159,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
@@ -4149,10 +4173,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>6</v>
@@ -4163,10 +4187,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>6</v>
@@ -4177,10 +4201,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
@@ -4191,10 +4215,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>6</v>
@@ -4205,10 +4229,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>6</v>
@@ -4219,10 +4243,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>6</v>
@@ -4233,10 +4257,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
@@ -4247,10 +4271,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>6</v>
@@ -4261,10 +4285,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -4275,10 +4299,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
@@ -4293,10 +4317,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>6</v>
@@ -4307,10 +4331,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>6</v>
@@ -4321,10 +4345,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>6</v>
@@ -4335,10 +4359,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -4349,10 +4373,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>6</v>
@@ -4363,10 +4387,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>6</v>
@@ -4377,10 +4401,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -4391,10 +4415,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>6</v>
@@ -4405,10 +4429,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>6</v>
@@ -4419,10 +4443,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>6</v>
@@ -4433,10 +4457,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>6</v>
@@ -4447,10 +4471,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>6</v>
@@ -4461,10 +4485,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>6</v>
@@ -4475,10 +4499,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>6</v>
@@ -4489,10 +4513,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>6</v>
@@ -4503,10 +4527,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>6</v>
@@ -4517,10 +4541,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -4531,10 +4555,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>6</v>
@@ -4545,10 +4569,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>6</v>
@@ -4559,10 +4583,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>6</v>
@@ -4573,10 +4597,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>6</v>
@@ -4587,10 +4611,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>6</v>
@@ -4601,10 +4625,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>6</v>
@@ -4615,10 +4639,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>6</v>
@@ -4629,10 +4653,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>6</v>
@@ -4643,10 +4667,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>6</v>
@@ -4657,10 +4681,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -4671,10 +4695,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>6</v>
@@ -4685,10 +4709,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>6</v>
@@ -4699,10 +4723,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
@@ -4713,10 +4737,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>6</v>
@@ -4727,10 +4751,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>6</v>
@@ -4741,10 +4765,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>6</v>
@@ -4755,10 +4779,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>6</v>
@@ -4769,10 +4793,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>6</v>
@@ -4783,10 +4807,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
@@ -4801,10 +4825,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
@@ -4815,10 +4839,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>6</v>
@@ -4829,10 +4853,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>6</v>
@@ -4843,10 +4867,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>6</v>
@@ -4857,10 +4881,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>6</v>
@@ -4871,10 +4895,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>6</v>
@@ -4885,10 +4909,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>6</v>
@@ -4899,10 +4923,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>6</v>
@@ -4913,10 +4937,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>6</v>
@@ -4927,10 +4951,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>6</v>
@@ -4941,10 +4965,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>6</v>
@@ -4955,10 +4979,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>6</v>
@@ -4969,10 +4993,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>6</v>
@@ -4983,10 +5007,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>6</v>
@@ -4997,10 +5021,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>6</v>
@@ -5011,10 +5035,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>6</v>
@@ -5025,10 +5049,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>6</v>
@@ -5039,10 +5063,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>6</v>
@@ -5053,10 +5077,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>6</v>
@@ -5067,10 +5091,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>6</v>
@@ -5081,10 +5105,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>6</v>
@@ -5095,10 +5119,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>6</v>
@@ -5109,10 +5133,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>6</v>
@@ -5123,10 +5147,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>6</v>
@@ -5137,10 +5161,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>6</v>
@@ -5151,10 +5175,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>6</v>
@@ -5165,10 +5189,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>6</v>
@@ -5179,10 +5203,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>6</v>
@@ -5193,10 +5217,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>6</v>
@@ -5207,10 +5231,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>6</v>
@@ -5221,10 +5245,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>6</v>
@@ -5235,10 +5259,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>6</v>
@@ -5249,10 +5273,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>6</v>
@@ -5263,10 +5287,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>6</v>
@@ -5277,10 +5301,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>6</v>
@@ -5301,10 +5325,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>6</v>
@@ -5315,10 +5339,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>6</v>
@@ -5329,10 +5353,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>6</v>
@@ -5343,10 +5367,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>6</v>
@@ -5357,10 +5381,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
@@ -5371,10 +5395,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>6</v>
@@ -5385,10 +5409,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>6</v>
@@ -5399,10 +5423,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>6</v>
@@ -5413,10 +5437,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>6</v>
@@ -5427,10 +5451,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>6</v>
@@ -5441,10 +5465,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>6</v>
@@ -5455,10 +5479,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>6</v>
@@ -5469,10 +5493,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>6</v>
@@ -5483,10 +5507,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>6</v>
@@ -5497,10 +5521,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>6</v>
@@ -5511,10 +5535,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>6</v>
@@ -5525,10 +5549,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>6</v>
@@ -5539,10 +5563,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>6</v>
@@ -5553,10 +5577,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>6</v>
@@ -5567,10 +5591,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>6</v>
@@ -5581,10 +5605,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>6</v>
@@ -5595,10 +5619,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>6</v>
@@ -5617,10 +5641,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>6</v>
@@ -5631,10 +5655,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>6</v>
@@ -5645,10 +5669,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>6</v>
@@ -5659,10 +5683,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6</v>
@@ -5673,10 +5697,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>6</v>
@@ -5687,10 +5711,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>6</v>
@@ -5701,10 +5725,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>6</v>
@@ -5715,10 +5739,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>6</v>
@@ -5729,10 +5753,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>6</v>
@@ -5743,10 +5767,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>6</v>
@@ -5757,10 +5781,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>6</v>
@@ -5771,10 +5795,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>6</v>
@@ -5785,10 +5809,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>6</v>
@@ -5799,10 +5823,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>6</v>
@@ -5813,10 +5837,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>6</v>
@@ -5827,10 +5851,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>6</v>
@@ -5841,10 +5865,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>6</v>
@@ -5855,10 +5879,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>6</v>
@@ -5869,10 +5893,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>6</v>
@@ -5883,10 +5907,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>6</v>
@@ -5897,10 +5921,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>6</v>
@@ -5911,10 +5935,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>6</v>
@@ -5925,10 +5949,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>6</v>
@@ -5939,10 +5963,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>6</v>
@@ -5953,10 +5977,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>6</v>
@@ -5967,10 +5991,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>6</v>
@@ -5981,10 +6005,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>6</v>
@@ -5995,10 +6019,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>6</v>
@@ -6009,10 +6033,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>6</v>
@@ -6023,10 +6047,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>6</v>
@@ -6037,10 +6061,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>6</v>
@@ -6051,10 +6075,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>6</v>
@@ -6065,10 +6089,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>6</v>
@@ -6079,10 +6103,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>6</v>
@@ -6093,10 +6117,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>6</v>
@@ -6115,10 +6139,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>6</v>
@@ -6129,10 +6153,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>6</v>
@@ -6143,10 +6167,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>6</v>
@@ -6157,10 +6181,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>6</v>
@@ -6171,10 +6195,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>6</v>
@@ -6185,10 +6209,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6199,10 +6223,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>6</v>
@@ -6213,10 +6237,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>6</v>
@@ -6227,10 +6251,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6241,10 +6265,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>6</v>
@@ -6255,10 +6279,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>6</v>
@@ -6269,10 +6293,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>6</v>
@@ -6283,10 +6307,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>6</v>
@@ -6297,10 +6321,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>6</v>
@@ -6311,10 +6335,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>6</v>
@@ -6325,10 +6349,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>6</v>
@@ -6339,10 +6363,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>6</v>
@@ -6353,10 +6377,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>6</v>
@@ -6367,10 +6391,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>6</v>
@@ -6389,10 +6413,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>6</v>
@@ -6403,10 +6427,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>6</v>
@@ -6417,10 +6441,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>6</v>
@@ -6431,10 +6455,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>6</v>
@@ -6445,10 +6469,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>6</v>
@@ -6459,10 +6483,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>6</v>
@@ -6473,10 +6497,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>6</v>
@@ -6487,10 +6511,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>6</v>
@@ -6501,10 +6525,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>6</v>
@@ -6515,10 +6539,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>6</v>
@@ -6529,10 +6553,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>6</v>
@@ -6543,10 +6567,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>6</v>
@@ -6557,10 +6581,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>6</v>
@@ -6571,10 +6595,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>6</v>
@@ -6585,10 +6609,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>6</v>
@@ -6599,10 +6623,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>6</v>
@@ -6613,10 +6637,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>6</v>
@@ -6627,10 +6651,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>6</v>
@@ -6641,10 +6665,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>6</v>
@@ -6655,10 +6679,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>6</v>
@@ -6669,10 +6693,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>6</v>
@@ -6683,10 +6707,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>6</v>
@@ -6697,10 +6721,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>6</v>
@@ -6711,10 +6735,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>6</v>
@@ -6725,10 +6749,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>6</v>
@@ -6739,10 +6763,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>6</v>
@@ -6753,10 +6777,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>6</v>
@@ -6767,10 +6791,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>6</v>
@@ -6781,10 +6805,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>6</v>
@@ -6795,10 +6819,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>6</v>
@@ -6809,10 +6833,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>6</v>
@@ -6823,10 +6847,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>6</v>
@@ -6837,10 +6861,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>6</v>
@@ -6851,10 +6875,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>6</v>
@@ -6865,10 +6889,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>6</v>
@@ -6879,10 +6903,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>6</v>
@@ -6893,10 +6917,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>6</v>
@@ -6907,10 +6931,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>6</v>
@@ -6929,10 +6953,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>6</v>
@@ -6943,10 +6967,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>6</v>
@@ -6957,10 +6981,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>6</v>
@@ -6971,10 +6995,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>6</v>
@@ -6985,10 +7009,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>6</v>
@@ -6999,10 +7023,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>6</v>
@@ -7013,10 +7037,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>6</v>
@@ -7027,10 +7051,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>6</v>
@@ -7041,10 +7065,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>6</v>
@@ -7055,10 +7079,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>6</v>
@@ -7069,10 +7093,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>6</v>
@@ -7083,10 +7107,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>6</v>
@@ -7097,10 +7121,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>6</v>
@@ -7111,10 +7135,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>6</v>
@@ -7125,10 +7149,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>6</v>
@@ -7139,10 +7163,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>6</v>
@@ -7153,10 +7177,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>6</v>
@@ -7167,10 +7191,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>6</v>
@@ -7189,10 +7213,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>6</v>
@@ -7203,10 +7227,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>6</v>
@@ -7217,10 +7241,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>6</v>
@@ -7231,10 +7255,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>6</v>
@@ -7245,10 +7269,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>6</v>
@@ -7259,10 +7283,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>6</v>
@@ -7273,10 +7297,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>6</v>
@@ -7287,10 +7311,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>6</v>
@@ -7301,10 +7325,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>6</v>
@@ -7315,10 +7339,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>6</v>
@@ -7329,10 +7353,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>6</v>
@@ -7343,10 +7367,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>6</v>
@@ -7357,10 +7381,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>6</v>
@@ -7371,10 +7395,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>6</v>
@@ -7385,10 +7409,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>6</v>
@@ -7399,10 +7423,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>6</v>
@@ -7413,10 +7437,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>6</v>
@@ -7427,10 +7451,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>6</v>
@@ -7441,10 +7465,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>6</v>
@@ -7455,10 +7479,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>6</v>
@@ -7469,10 +7493,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>6</v>
@@ -7483,10 +7507,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>6</v>
@@ -7497,10 +7521,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>6</v>
@@ -7511,10 +7535,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>6</v>
@@ -7525,10 +7549,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>6</v>
@@ -7539,10 +7563,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>6</v>
@@ -7553,10 +7577,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>6</v>
@@ -7567,10 +7591,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>6</v>
@@ -7581,10 +7605,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>6</v>
@@ -7595,10 +7619,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>6</v>
@@ -7609,10 +7633,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>6</v>
@@ -7623,10 +7647,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>6</v>
@@ -7637,10 +7661,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>6</v>
@@ -7651,10 +7675,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>6</v>
@@ -7665,10 +7689,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>6</v>
@@ -7679,10 +7703,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>6</v>
@@ -7693,10 +7717,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>6</v>
@@ -7707,10 +7731,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>6</v>
@@ -7721,10 +7745,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>6</v>
@@ -7735,10 +7759,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>6</v>
@@ -7749,10 +7773,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>6</v>
@@ -7763,10 +7787,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>6</v>
@@ -7777,10 +7801,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>6</v>
@@ -7791,10 +7815,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>6</v>
@@ -7813,10 +7837,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>6</v>
@@ -7827,10 +7851,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>6</v>
@@ -7841,10 +7865,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>6</v>
@@ -7855,10 +7879,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>6</v>
@@ -7869,10 +7893,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>6</v>
@@ -7883,10 +7907,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>6</v>
@@ -7905,10 +7929,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>6</v>
@@ -7919,10 +7943,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>6</v>
@@ -7933,10 +7957,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>6</v>
@@ -7947,10 +7971,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>6</v>
@@ -7961,10 +7985,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>6</v>
@@ -7975,10 +7999,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>6</v>
@@ -7989,10 +8013,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>6</v>
@@ -8003,10 +8027,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>6</v>
@@ -8017,10 +8041,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>6</v>
@@ -8031,10 +8055,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>6</v>
@@ -8045,10 +8069,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>6</v>
@@ -8059,10 +8083,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>6</v>
@@ -8073,10 +8097,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>6</v>
@@ -8087,10 +8111,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>6</v>
@@ -8101,10 +8125,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>6</v>
@@ -8115,10 +8139,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>6</v>
@@ -8129,10 +8153,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>6</v>
@@ -8143,10 +8167,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>6</v>
@@ -8157,10 +8181,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>6</v>
@@ -8171,10 +8195,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>6</v>
@@ -8185,10 +8209,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>6</v>
@@ -8199,10 +8223,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>6</v>
@@ -8213,10 +8237,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>6</v>
@@ -8227,10 +8251,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>6</v>
@@ -8241,10 +8265,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>6</v>
@@ -8255,10 +8279,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>6</v>
@@ -8269,10 +8293,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>6</v>
@@ -8283,10 +8307,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>6</v>
@@ -8297,10 +8321,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>6</v>
@@ -8311,10 +8335,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>6</v>
@@ -8325,10 +8349,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>6</v>
@@ -8339,10 +8363,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>6</v>
@@ -8353,10 +8377,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>6</v>
@@ -8367,10 +8391,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>6</v>
@@ -8381,10 +8405,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>6</v>
@@ -8395,10 +8419,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>6</v>
@@ -8409,10 +8433,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>6</v>
@@ -8423,10 +8447,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>6</v>
@@ -8437,10 +8461,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>6</v>
@@ -8451,10 +8475,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>6</v>
@@ -8465,10 +8489,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>6</v>
@@ -8479,10 +8503,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>6</v>
@@ -8493,10 +8517,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>6</v>
@@ -8507,10 +8531,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>6</v>
@@ -8521,10 +8545,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>6</v>
@@ -8535,10 +8559,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>6</v>
@@ -8549,10 +8573,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>6</v>
@@ -8563,10 +8587,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>6</v>
@@ -8577,10 +8601,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>6</v>
@@ -8591,10 +8615,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>6</v>
@@ -8605,10 +8629,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>6</v>
@@ -8619,10 +8643,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>6</v>
@@ -8633,10 +8657,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>6</v>
@@ -8647,10 +8671,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>6</v>
@@ -8661,10 +8685,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>6</v>
@@ -8675,10 +8699,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>6</v>
@@ -8689,10 +8713,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>6</v>
@@ -8703,10 +8727,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>6</v>
@@ -8717,10 +8741,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>6</v>
@@ -8731,10 +8755,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>6</v>
@@ -8754,10 +8778,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>6</v>
@@ -8768,10 +8792,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>6</v>
@@ -8782,10 +8806,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>6</v>
@@ -8796,10 +8820,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>6</v>
@@ -8810,10 +8834,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>6</v>
@@ -8824,10 +8848,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>6</v>
@@ -8838,10 +8862,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>6</v>
@@ -8852,10 +8876,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>6</v>
@@ -8866,10 +8890,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>6</v>
@@ -8880,10 +8904,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>6</v>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="471">
   <si>
     <t>DSA</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>O(N+M)</t>
   </si>
   <si>
     <t>Write a program to cyclically rotate an array by one.</t>
@@ -1431,8 +1434,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1517,14 +1520,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,13 +1536,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,48 +1565,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1619,6 +1576,28 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1639,6 +1618,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1646,14 +1640,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1674,13 +1677,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,168 +1858,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,17 +1882,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1898,7 +1895,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,8 +1918,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,106 +1954,109 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2065,49 +2065,52 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2462,8 +2465,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2605,18 +2608,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="21" spans="1:4">
+    <row r="11" ht="21" spans="1:6">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>44171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:4">
@@ -2626,8 +2635,8 @@
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>18</v>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
@@ -2641,7 +2650,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -2655,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>6</v>
@@ -2669,7 +2678,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
@@ -2683,7 +2692,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
@@ -2697,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
@@ -2711,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
@@ -2725,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
@@ -2739,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
@@ -2753,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
@@ -2767,7 +2776,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
@@ -2781,7 +2790,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
@@ -2795,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
@@ -2809,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -2823,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>6</v>
@@ -2837,7 +2846,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>6</v>
@@ -2851,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -2865,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>6</v>
@@ -2879,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
@@ -2893,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>6</v>
@@ -2907,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
@@ -2921,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
@@ -2935,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>6</v>
@@ -2949,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -2963,7 +2972,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -2977,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
@@ -2991,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -3005,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>6</v>
@@ -3019,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
@@ -3033,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>6</v>
@@ -3057,10 +3066,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
@@ -3071,10 +3080,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -3085,10 +3094,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>6</v>
@@ -3099,10 +3108,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>6</v>
@@ -3113,10 +3122,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
@@ -3127,10 +3136,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>6</v>
@@ -3141,10 +3150,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>6</v>
@@ -3155,10 +3164,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>6</v>
@@ -3169,10 +3178,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>6</v>
@@ -3183,10 +3192,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>6</v>
@@ -3202,10 +3211,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3216,10 +3225,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>6</v>
@@ -3230,10 +3239,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>6</v>
@@ -3244,10 +3253,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>6</v>
@@ -3258,10 +3267,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
@@ -3272,10 +3281,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>6</v>
@@ -3286,10 +3295,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>6</v>
@@ -3300,10 +3309,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>6</v>
@@ -3314,10 +3323,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>6</v>
@@ -3328,10 +3337,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -3342,10 +3351,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>6</v>
@@ -3356,10 +3365,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>6</v>
@@ -3370,10 +3379,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>6</v>
@@ -3384,10 +3393,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>6</v>
@@ -3398,10 +3407,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>6</v>
@@ -3412,10 +3421,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>6</v>
@@ -3426,10 +3435,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>6</v>
@@ -3440,10 +3449,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
@@ -3454,10 +3463,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>6</v>
@@ -3468,10 +3477,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -3482,10 +3491,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>6</v>
@@ -3496,10 +3505,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>6</v>
@@ -3510,10 +3519,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>6</v>
@@ -3524,10 +3533,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>6</v>
@@ -3538,10 +3547,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>6</v>
@@ -3552,10 +3561,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>6</v>
@@ -3566,10 +3575,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>6</v>
@@ -3580,10 +3589,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>6</v>
@@ -3594,10 +3603,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>6</v>
@@ -3608,10 +3617,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -3622,10 +3631,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>6</v>
@@ -3636,10 +3645,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
@@ -3650,10 +3659,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>6</v>
@@ -3664,10 +3673,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>6</v>
@@ -3678,10 +3687,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>6</v>
@@ -3692,10 +3701,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>6</v>
@@ -3706,10 +3715,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>6</v>
@@ -3720,10 +3729,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>6</v>
@@ -3734,10 +3743,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>6</v>
@@ -3748,10 +3757,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -3762,10 +3771,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
@@ -3776,10 +3785,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>6</v>
@@ -3790,10 +3799,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>6</v>
@@ -3809,10 +3818,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>6</v>
@@ -3823,10 +3832,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
@@ -3837,10 +3846,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>6</v>
@@ -3851,10 +3860,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>6</v>
@@ -3865,10 +3874,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -3879,10 +3888,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
@@ -3893,10 +3902,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>6</v>
@@ -3907,10 +3916,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
@@ -3921,10 +3930,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>6</v>
@@ -3935,10 +3944,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>6</v>
@@ -3949,10 +3958,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>6</v>
@@ -3963,10 +3972,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
@@ -3977,10 +3986,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>6</v>
@@ -3991,10 +4000,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>6</v>
@@ -4005,10 +4014,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -4019,10 +4028,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
@@ -4033,10 +4042,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>6</v>
@@ -4047,10 +4056,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>6</v>
@@ -4061,10 +4070,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>6</v>
@@ -4075,10 +4084,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>6</v>
@@ -4089,10 +4098,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>6</v>
@@ -4103,10 +4112,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
@@ -4117,10 +4126,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
@@ -4131,10 +4140,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>6</v>
@@ -4145,10 +4154,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -4159,10 +4168,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
@@ -4173,10 +4182,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>6</v>
@@ -4187,10 +4196,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>6</v>
@@ -4201,10 +4210,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
@@ -4215,10 +4224,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>6</v>
@@ -4229,10 +4238,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>6</v>
@@ -4243,10 +4252,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>6</v>
@@ -4257,10 +4266,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
@@ -4271,10 +4280,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>6</v>
@@ -4285,10 +4294,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -4299,10 +4308,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
@@ -4317,10 +4326,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>6</v>
@@ -4331,10 +4340,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>6</v>
@@ -4345,10 +4354,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>6</v>
@@ -4359,10 +4368,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -4373,10 +4382,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>6</v>
@@ -4387,10 +4396,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>6</v>
@@ -4401,10 +4410,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -4415,10 +4424,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>6</v>
@@ -4429,10 +4438,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>6</v>
@@ -4443,10 +4452,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>6</v>
@@ -4457,10 +4466,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>6</v>
@@ -4471,10 +4480,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>6</v>
@@ -4485,10 +4494,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>6</v>
@@ -4499,10 +4508,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>6</v>
@@ -4513,10 +4522,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>6</v>
@@ -4527,10 +4536,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>6</v>
@@ -4541,10 +4550,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -4555,10 +4564,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>6</v>
@@ -4569,10 +4578,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>6</v>
@@ -4583,10 +4592,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>6</v>
@@ -4597,10 +4606,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>6</v>
@@ -4611,10 +4620,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>6</v>
@@ -4625,10 +4634,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>6</v>
@@ -4639,10 +4648,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>6</v>
@@ -4653,10 +4662,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>6</v>
@@ -4667,10 +4676,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>6</v>
@@ -4681,10 +4690,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -4695,10 +4704,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>6</v>
@@ -4709,10 +4718,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>6</v>
@@ -4723,10 +4732,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
@@ -4737,10 +4746,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>6</v>
@@ -4751,10 +4760,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>6</v>
@@ -4765,10 +4774,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C171" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>6</v>
@@ -4779,10 +4788,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>6</v>
@@ -4793,10 +4802,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>6</v>
@@ -4807,10 +4816,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
@@ -4825,10 +4834,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
@@ -4839,10 +4848,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>6</v>
@@ -4853,10 +4862,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>6</v>
@@ -4867,10 +4876,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>6</v>
@@ -4881,10 +4890,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>6</v>
@@ -4895,10 +4904,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>6</v>
@@ -4909,10 +4918,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>6</v>
@@ -4923,10 +4932,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>6</v>
@@ -4937,10 +4946,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>6</v>
@@ -4951,10 +4960,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>6</v>
@@ -4965,10 +4974,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>6</v>
@@ -4979,10 +4988,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>6</v>
@@ -4993,10 +5002,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>6</v>
@@ -5007,10 +5016,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>6</v>
@@ -5021,10 +5030,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>6</v>
@@ -5035,10 +5044,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>6</v>
@@ -5049,10 +5058,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>6</v>
@@ -5063,10 +5072,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>6</v>
@@ -5077,10 +5086,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>6</v>
@@ -5091,10 +5100,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>6</v>
@@ -5105,10 +5114,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>6</v>
@@ -5119,10 +5128,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>6</v>
@@ -5133,10 +5142,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>6</v>
@@ -5147,10 +5156,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>6</v>
@@ -5161,10 +5170,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>6</v>
@@ -5175,10 +5184,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>6</v>
@@ -5189,10 +5198,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>6</v>
@@ -5203,10 +5212,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>6</v>
@@ -5217,10 +5226,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>6</v>
@@ -5231,10 +5240,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>6</v>
@@ -5245,10 +5254,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>6</v>
@@ -5259,10 +5268,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>6</v>
@@ -5273,10 +5282,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>6</v>
@@ -5287,10 +5296,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C210" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>6</v>
@@ -5301,10 +5310,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>6</v>
@@ -5325,10 +5334,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>6</v>
@@ -5339,10 +5348,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>6</v>
@@ -5353,10 +5362,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>6</v>
@@ -5367,10 +5376,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>6</v>
@@ -5381,10 +5390,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
@@ -5395,10 +5404,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>6</v>
@@ -5409,10 +5418,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>6</v>
@@ -5423,10 +5432,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>6</v>
@@ -5437,10 +5446,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>6</v>
@@ -5451,10 +5460,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>6</v>
@@ -5465,10 +5474,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>6</v>
@@ -5479,10 +5488,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>6</v>
@@ -5493,10 +5502,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>6</v>
@@ -5507,10 +5516,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>6</v>
@@ -5521,10 +5530,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>6</v>
@@ -5535,10 +5544,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>6</v>
@@ -5549,10 +5558,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>6</v>
@@ -5563,10 +5572,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>6</v>
@@ -5577,10 +5586,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>6</v>
@@ -5591,10 +5600,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>6</v>
@@ -5605,10 +5614,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>6</v>
@@ -5619,10 +5628,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>6</v>
@@ -5641,10 +5650,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>6</v>
@@ -5655,10 +5664,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>6</v>
@@ -5669,10 +5678,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>6</v>
@@ -5683,10 +5692,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6</v>
@@ -5697,10 +5706,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>6</v>
@@ -5711,10 +5720,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C243" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>6</v>
@@ -5725,10 +5734,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C244" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>6</v>
@@ -5739,10 +5748,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C245" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>6</v>
@@ -5753,10 +5762,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>6</v>
@@ -5767,10 +5776,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>6</v>
@@ -5781,10 +5790,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>6</v>
@@ -5795,10 +5804,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C249" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>6</v>
@@ -5809,10 +5818,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>6</v>
@@ -5823,10 +5832,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C251" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>6</v>
@@ -5837,10 +5846,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>6</v>
@@ -5851,10 +5860,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>6</v>
@@ -5865,10 +5874,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>6</v>
@@ -5879,10 +5888,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C255" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>6</v>
@@ -5893,10 +5902,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>6</v>
@@ -5907,10 +5916,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>6</v>
@@ -5921,10 +5930,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>6</v>
@@ -5935,10 +5944,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>6</v>
@@ -5949,10 +5958,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>6</v>
@@ -5963,10 +5972,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>6</v>
@@ -5977,10 +5986,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>6</v>
@@ -5991,10 +6000,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>6</v>
@@ -6005,10 +6014,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>6</v>
@@ -6019,10 +6028,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>6</v>
@@ -6033,10 +6042,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>6</v>
@@ -6047,10 +6056,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>6</v>
@@ -6061,10 +6070,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>6</v>
@@ -6075,10 +6084,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>6</v>
@@ -6089,10 +6098,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>6</v>
@@ -6103,10 +6112,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>6</v>
@@ -6117,10 +6126,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>6</v>
@@ -6139,10 +6148,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>6</v>
@@ -6153,10 +6162,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>6</v>
@@ -6167,10 +6176,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>6</v>
@@ -6181,10 +6190,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>6</v>
@@ -6195,10 +6204,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>6</v>
@@ -6209,10 +6218,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6223,10 +6232,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>6</v>
@@ -6237,10 +6246,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>6</v>
@@ -6251,10 +6260,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6265,10 +6274,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>6</v>
@@ -6279,10 +6288,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>6</v>
@@ -6293,10 +6302,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>6</v>
@@ -6307,10 +6316,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>6</v>
@@ -6321,10 +6330,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>6</v>
@@ -6335,10 +6344,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>6</v>
@@ -6349,10 +6358,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>6</v>
@@ -6363,10 +6372,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>6</v>
@@ -6377,10 +6386,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>6</v>
@@ -6391,10 +6400,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>6</v>
@@ -6413,10 +6422,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>6</v>
@@ -6427,10 +6436,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>6</v>
@@ -6441,10 +6450,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>6</v>
@@ -6455,10 +6464,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>6</v>
@@ -6469,10 +6478,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>6</v>
@@ -6483,10 +6492,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>6</v>
@@ -6497,10 +6506,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>6</v>
@@ -6511,10 +6520,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>6</v>
@@ -6525,10 +6534,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>6</v>
@@ -6539,10 +6548,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>6</v>
@@ -6553,10 +6562,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>6</v>
@@ -6567,10 +6576,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>6</v>
@@ -6581,10 +6590,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>6</v>
@@ -6595,10 +6604,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>6</v>
@@ -6609,10 +6618,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>6</v>
@@ -6623,10 +6632,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>6</v>
@@ -6637,10 +6646,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C312" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>6</v>
@@ -6651,10 +6660,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C313" s="11" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>6</v>
@@ -6665,10 +6674,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C314" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>6</v>
@@ -6679,10 +6688,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C315" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>6</v>
@@ -6693,10 +6702,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C316" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>6</v>
@@ -6707,10 +6716,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C317" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>6</v>
@@ -6721,10 +6730,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>6</v>
@@ -6735,10 +6744,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>6</v>
@@ -6749,10 +6758,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>6</v>
@@ -6763,10 +6772,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>6</v>
@@ -6777,10 +6786,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>6</v>
@@ -6791,10 +6800,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C323" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>6</v>
@@ -6805,10 +6814,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>6</v>
@@ -6819,10 +6828,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>6</v>
@@ -6833,10 +6842,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>6</v>
@@ -6847,10 +6856,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>6</v>
@@ -6861,10 +6870,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>6</v>
@@ -6875,10 +6884,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>6</v>
@@ -6889,10 +6898,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>6</v>
@@ -6903,10 +6912,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>6</v>
@@ -6917,10 +6926,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>6</v>
@@ -6931,10 +6940,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>6</v>
@@ -6953,10 +6962,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>6</v>
@@ -6967,10 +6976,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>6</v>
@@ -6981,10 +6990,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>6</v>
@@ -6995,10 +7004,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>6</v>
@@ -7009,10 +7018,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>6</v>
@@ -7023,10 +7032,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>6</v>
@@ -7037,10 +7046,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>6</v>
@@ -7051,10 +7060,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>6</v>
@@ -7065,10 +7074,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>6</v>
@@ -7079,10 +7088,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>6</v>
@@ -7093,10 +7102,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>6</v>
@@ -7107,10 +7116,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>6</v>
@@ -7121,10 +7130,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>6</v>
@@ -7135,10 +7144,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>6</v>
@@ -7149,10 +7158,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>6</v>
@@ -7163,10 +7172,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>6</v>
@@ -7177,10 +7186,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>6</v>
@@ -7191,10 +7200,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>6</v>
@@ -7213,10 +7222,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>6</v>
@@ -7227,10 +7236,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>6</v>
@@ -7241,10 +7250,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>6</v>
@@ -7255,10 +7264,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>6</v>
@@ -7269,10 +7278,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>6</v>
@@ -7283,10 +7292,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>6</v>
@@ -7297,10 +7306,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>6</v>
@@ -7311,10 +7320,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>6</v>
@@ -7325,10 +7334,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>6</v>
@@ -7339,10 +7348,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>6</v>
@@ -7353,10 +7362,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>6</v>
@@ -7367,10 +7376,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>6</v>
@@ -7381,10 +7390,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>6</v>
@@ -7395,10 +7404,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>6</v>
@@ -7409,10 +7418,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>6</v>
@@ -7423,10 +7432,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>6</v>
@@ -7437,10 +7446,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>6</v>
@@ -7451,10 +7460,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>6</v>
@@ -7465,10 +7474,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>6</v>
@@ -7479,10 +7488,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>6</v>
@@ -7493,10 +7502,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>6</v>
@@ -7507,10 +7516,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>6</v>
@@ -7521,10 +7530,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>6</v>
@@ -7535,10 +7544,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>6</v>
@@ -7549,10 +7558,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>6</v>
@@ -7563,10 +7572,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>6</v>
@@ -7577,10 +7586,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>6</v>
@@ -7591,10 +7600,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>6</v>
@@ -7605,10 +7614,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>6</v>
@@ -7619,10 +7628,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>6</v>
@@ -7633,10 +7642,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>6</v>
@@ -7647,10 +7656,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>6</v>
@@ -7661,10 +7670,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>6</v>
@@ -7675,10 +7684,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>6</v>
@@ -7689,10 +7698,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>6</v>
@@ -7703,10 +7712,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>6</v>
@@ -7717,10 +7726,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>6</v>
@@ -7731,10 +7740,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>6</v>
@@ -7745,10 +7754,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>6</v>
@@ -7759,10 +7768,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>6</v>
@@ -7773,10 +7782,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>6</v>
@@ -7787,10 +7796,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>6</v>
@@ -7801,10 +7810,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>6</v>
@@ -7815,10 +7824,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>6</v>
@@ -7837,10 +7846,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>6</v>
@@ -7851,10 +7860,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>6</v>
@@ -7865,10 +7874,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C404" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>6</v>
@@ -7879,10 +7888,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>6</v>
@@ -7893,10 +7902,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>6</v>
@@ -7907,10 +7916,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C407" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>6</v>
@@ -7929,10 +7938,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C410" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>6</v>
@@ -7943,10 +7952,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>6</v>
@@ -7957,10 +7966,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>6</v>
@@ -7971,10 +7980,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>6</v>
@@ -7985,10 +7994,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>6</v>
@@ -7999,10 +8008,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C415" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>6</v>
@@ -8013,10 +8022,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C416" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>6</v>
@@ -8027,10 +8036,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C417" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>6</v>
@@ -8041,10 +8050,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C418" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>6</v>
@@ -8055,10 +8064,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C419" s="11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>6</v>
@@ -8069,10 +8078,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>6</v>
@@ -8083,10 +8092,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C421" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>6</v>
@@ -8097,10 +8106,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C422" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>6</v>
@@ -8111,10 +8120,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C423" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>6</v>
@@ -8125,10 +8134,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C424" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>6</v>
@@ -8139,10 +8148,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C425" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>6</v>
@@ -8153,10 +8162,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C426" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>6</v>
@@ -8167,10 +8176,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C427" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>6</v>
@@ -8181,10 +8190,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C428" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>6</v>
@@ -8195,10 +8204,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>6</v>
@@ -8209,10 +8218,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C430" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>6</v>
@@ -8223,10 +8232,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C431" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>6</v>
@@ -8237,10 +8246,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C432" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>6</v>
@@ -8251,10 +8260,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C433" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>6</v>
@@ -8265,10 +8274,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>6</v>
@@ -8279,10 +8288,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>6</v>
@@ -8293,10 +8302,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>6</v>
@@ -8307,10 +8316,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>6</v>
@@ -8321,10 +8330,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C438" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>6</v>
@@ -8335,10 +8344,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>6</v>
@@ -8349,10 +8358,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>6</v>
@@ -8363,10 +8372,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>6</v>
@@ -8377,10 +8386,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>6</v>
@@ -8391,10 +8400,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C443" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>6</v>
@@ -8405,10 +8414,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C444" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>6</v>
@@ -8419,10 +8428,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C445" s="11" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>6</v>
@@ -8433,10 +8442,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C446" s="11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>6</v>
@@ -8447,10 +8456,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C447" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>6</v>
@@ -8461,10 +8470,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>6</v>
@@ -8475,10 +8484,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>6</v>
@@ -8489,10 +8498,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>6</v>
@@ -8503,10 +8512,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>6</v>
@@ -8517,10 +8526,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>6</v>
@@ -8531,10 +8540,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>6</v>
@@ -8545,10 +8554,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>6</v>
@@ -8559,10 +8568,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>6</v>
@@ -8573,10 +8582,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>6</v>
@@ -8587,10 +8596,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>6</v>
@@ -8601,10 +8610,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>6</v>
@@ -8615,10 +8624,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>6</v>
@@ -8629,10 +8638,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>6</v>
@@ -8643,10 +8652,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>6</v>
@@ -8657,10 +8666,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C462" s="11" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>6</v>
@@ -8671,10 +8680,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C463" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>6</v>
@@ -8685,10 +8694,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C464" s="11" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>6</v>
@@ -8699,10 +8708,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>6</v>
@@ -8713,10 +8722,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C466" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>6</v>
@@ -8727,10 +8736,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C467" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>6</v>
@@ -8741,10 +8750,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>6</v>
@@ -8755,10 +8764,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>6</v>
@@ -8778,10 +8787,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C472" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>6</v>
@@ -8792,10 +8801,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C473" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>6</v>
@@ -8806,10 +8815,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C474" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>6</v>
@@ -8820,10 +8829,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="11" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>6</v>
@@ -8834,10 +8843,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C476" s="11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>6</v>
@@ -8848,10 +8857,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C477" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>6</v>
@@ -8862,10 +8871,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C478" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>6</v>
@@ -8876,10 +8885,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C479" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>6</v>
@@ -8890,10 +8899,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C480" s="11" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>6</v>
@@ -8904,10 +8913,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C481" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>6</v>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="471">
   <si>
     <t>DSA</t>
   </si>
@@ -1535,7 +1535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,6 +1563,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1579,68 +1639,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,6 +1677,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1689,43 +1749,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,13 +1773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1797,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,85 +1845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,13 +1871,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1887,15 +1891,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,26 +1910,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1954,24 +1951,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1989,128 +1989,128 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2628,7 +2628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="21" spans="1:4">
+    <row r="12" ht="21" spans="1:6">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2638,8 +2638,14 @@
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10">
+        <v>44172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:4">
@@ -2649,7 +2655,7 @@
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="473">
   <si>
     <t>DSA</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Doubt</t>
+  </si>
+  <si>
+    <t>O(NlogN)</t>
   </si>
   <si>
     <t>Minimum no. of Jumps to reach end of an array</t>
@@ -1434,10 +1440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1526,23 +1532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,30 +1555,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1600,22 +1571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1631,6 +1586,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1640,7 +1639,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1677,7 +1683,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,19 +1845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,109 +1857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,37 +1869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,21 +1922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1932,21 +1929,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,153 +1950,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2136,6 +2148,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2465,8 +2480,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2648,7 +2663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="21" spans="1:4">
+    <row r="13" ht="21" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2658,22 +2673,34 @@
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="21" spans="1:4">
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="21" spans="1:6">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>6</v>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10">
+        <v>44173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:4">
@@ -2683,8 +2710,8 @@
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
@@ -2697,8 +2724,8 @@
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>23</v>
+      <c r="C16" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>6</v>
@@ -2711,8 +2738,8 @@
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>24</v>
+      <c r="C17" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>6</v>
@@ -2725,8 +2752,8 @@
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>25</v>
+      <c r="C18" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>6</v>
@@ -2739,8 +2766,8 @@
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>26</v>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
@@ -2753,8 +2780,8 @@
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>27</v>
+      <c r="C20" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>6</v>
@@ -2767,8 +2794,8 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
+      <c r="C21" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
@@ -2781,8 +2808,8 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
+      <c r="C22" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
@@ -2795,8 +2822,8 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>30</v>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>6</v>
@@ -2809,8 +2836,8 @@
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
+      <c r="C24" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>6</v>
@@ -2823,8 +2850,8 @@
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
+      <c r="C25" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -2837,8 +2864,8 @@
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>33</v>
+      <c r="C26" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>6</v>
@@ -2851,8 +2878,8 @@
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>34</v>
+      <c r="C27" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>6</v>
@@ -2865,8 +2892,8 @@
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>35</v>
+      <c r="C28" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -2879,8 +2906,8 @@
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>36</v>
+      <c r="C29" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>6</v>
@@ -2893,8 +2920,8 @@
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>37</v>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
@@ -2907,8 +2934,8 @@
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>38</v>
+      <c r="C31" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>6</v>
@@ -2921,8 +2948,8 @@
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
+      <c r="C32" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
@@ -2935,8 +2962,8 @@
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>40</v>
+      <c r="C33" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
@@ -2949,8 +2976,8 @@
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>41</v>
+      <c r="C34" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>6</v>
@@ -2963,8 +2990,8 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>42</v>
+      <c r="C35" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -2977,8 +3004,8 @@
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>43</v>
+      <c r="C36" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -2991,8 +3018,8 @@
       <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>44</v>
+      <c r="C37" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
@@ -3005,8 +3032,8 @@
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>45</v>
+      <c r="C38" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -3019,8 +3046,8 @@
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>46</v>
+      <c r="C39" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>6</v>
@@ -3033,8 +3060,8 @@
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>47</v>
+      <c r="C40" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
@@ -3047,22 +3074,22 @@
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>48</v>
+      <c r="C41" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" ht="21" spans="3:4">
-      <c r="C42" s="12"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" ht="21" spans="2:4">
       <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="6" t="s">
         <v>6</v>
       </c>
@@ -3071,11 +3098,11 @@
       <c r="A44">
         <v>37</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>50</v>
+      <c r="B44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
@@ -3085,11 +3112,11 @@
       <c r="A45">
         <v>38</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="14" t="s">
         <v>51</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -3099,11 +3126,11 @@
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>52</v>
+      <c r="B46" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>6</v>
@@ -3113,11 +3140,11 @@
       <c r="A47">
         <v>40</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>53</v>
+      <c r="B47" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>6</v>
@@ -3127,11 +3154,11 @@
       <c r="A48">
         <v>41</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>54</v>
+      <c r="B48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
@@ -3141,11 +3168,11 @@
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>55</v>
+      <c r="B49" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>6</v>
@@ -3155,11 +3182,11 @@
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>56</v>
+      <c r="B50" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>6</v>
@@ -3169,11 +3196,11 @@
       <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>57</v>
+      <c r="B51" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>6</v>
@@ -3183,11 +3210,11 @@
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>58</v>
+      <c r="B52" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>6</v>
@@ -3197,11 +3224,11 @@
       <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>59</v>
+      <c r="B53" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>6</v>
@@ -3209,7 +3236,7 @@
     </row>
     <row r="55" ht="21" spans="2:4">
       <c r="B55" s="7"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" ht="21" spans="1:4">
@@ -3217,10 +3244,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3231,10 +3258,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>6</v>
@@ -3245,10 +3272,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>6</v>
@@ -3259,10 +3286,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>6</v>
@@ -3273,10 +3300,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
@@ -3287,10 +3314,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>6</v>
@@ -3301,10 +3328,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>6</v>
@@ -3315,10 +3342,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>6</v>
@@ -3329,10 +3356,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>6</v>
@@ -3343,10 +3370,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -3357,10 +3384,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>6</v>
@@ -3371,10 +3398,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>6</v>
@@ -3385,10 +3412,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>6</v>
@@ -3399,10 +3426,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>6</v>
@@ -3413,10 +3440,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>6</v>
@@ -3427,10 +3454,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>6</v>
@@ -3441,10 +3468,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>6</v>
@@ -3455,10 +3482,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
@@ -3469,10 +3496,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>79</v>
+        <v>62</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>6</v>
@@ -3483,10 +3510,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -3497,10 +3524,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>81</v>
+        <v>62</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>6</v>
@@ -3511,10 +3538,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>6</v>
@@ -3525,10 +3552,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>6</v>
@@ -3539,10 +3566,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>6</v>
@@ -3553,10 +3580,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>85</v>
+        <v>62</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>6</v>
@@ -3567,10 +3594,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>86</v>
+        <v>62</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>6</v>
@@ -3581,10 +3608,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>6</v>
@@ -3595,10 +3622,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>6</v>
@@ -3609,10 +3636,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>89</v>
+        <v>62</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>6</v>
@@ -3623,10 +3650,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>90</v>
+        <v>62</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -3637,10 +3664,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>6</v>
@@ -3651,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
@@ -3665,10 +3692,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>93</v>
+        <v>62</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>6</v>
@@ -3679,10 +3706,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>6</v>
@@ -3693,10 +3720,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>95</v>
+        <v>62</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>6</v>
@@ -3707,10 +3734,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>6</v>
@@ -3721,10 +3748,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>97</v>
+        <v>62</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>6</v>
@@ -3735,10 +3762,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>98</v>
+        <v>62</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>6</v>
@@ -3749,10 +3776,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>6</v>
@@ -3763,10 +3790,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>100</v>
+        <v>62</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -3777,10 +3804,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>101</v>
+        <v>62</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
@@ -3791,10 +3818,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>102</v>
+        <v>62</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>6</v>
@@ -3805,18 +3832,18 @@
         <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>103</v>
+        <v>62</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="100" ht="21" spans="2:4">
-      <c r="B100" s="13"/>
-      <c r="C100" s="12"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" ht="21" spans="1:4">
@@ -3824,10 +3851,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>6</v>
@@ -3838,10 +3865,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="11" t="s">
         <v>106</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
@@ -3852,10 +3879,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>6</v>
@@ -3866,10 +3893,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>6</v>
@@ -3880,10 +3907,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -3894,10 +3921,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
@@ -3908,10 +3935,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>6</v>
@@ -3922,10 +3949,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
@@ -3936,10 +3963,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>6</v>
@@ -3950,10 +3977,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>6</v>
@@ -3964,10 +3991,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>6</v>
@@ -3978,10 +4005,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
@@ -3992,10 +4019,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>6</v>
@@ -4006,10 +4033,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>6</v>
@@ -4020,10 +4047,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -4034,10 +4061,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
@@ -4048,10 +4075,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>6</v>
@@ -4062,10 +4089,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>6</v>
@@ -4076,10 +4103,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>6</v>
@@ -4090,10 +4117,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>124</v>
+        <v>106</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>6</v>
@@ -4104,10 +4131,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C121" s="11" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>6</v>
@@ -4118,10 +4145,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
@@ -4132,10 +4159,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="11" t="s">
-        <v>127</v>
+        <v>106</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
@@ -4146,10 +4173,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>6</v>
@@ -4160,10 +4187,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>129</v>
+        <v>106</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -4174,10 +4201,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
@@ -4188,10 +4215,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>131</v>
+        <v>106</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>6</v>
@@ -4202,10 +4229,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>6</v>
@@ -4216,10 +4243,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
@@ -4230,10 +4257,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>6</v>
@@ -4244,10 +4271,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>6</v>
@@ -4258,10 +4285,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>136</v>
+        <v>106</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>6</v>
@@ -4272,10 +4299,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>137</v>
+        <v>106</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
@@ -4286,10 +4313,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>138</v>
+        <v>106</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>6</v>
@@ -4300,10 +4327,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -4314,28 +4341,28 @@
         <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="138" ht="21" spans="3:4">
-      <c r="C138" s="12"/>
+      <c r="C138" s="13"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139">
         <v>126</v>
       </c>
-      <c r="B139" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>142</v>
+      <c r="B139" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>6</v>
@@ -4345,11 +4372,11 @@
       <c r="A140">
         <v>127</v>
       </c>
-      <c r="B140" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="11" t="s">
+      <c r="B140" s="14" t="s">
         <v>143</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>6</v>
@@ -4359,11 +4386,11 @@
       <c r="A141">
         <v>128</v>
       </c>
-      <c r="B141" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>144</v>
+      <c r="B141" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>6</v>
@@ -4373,11 +4400,11 @@
       <c r="A142">
         <v>129</v>
       </c>
-      <c r="B142" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>145</v>
+      <c r="B142" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -4387,11 +4414,11 @@
       <c r="A143">
         <v>130</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>146</v>
+      <c r="B143" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>6</v>
@@ -4401,11 +4428,11 @@
       <c r="A144">
         <v>131</v>
       </c>
-      <c r="B144" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>147</v>
+      <c r="B144" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>6</v>
@@ -4415,11 +4442,11 @@
       <c r="A145">
         <v>132</v>
       </c>
-      <c r="B145" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>148</v>
+      <c r="B145" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -4429,11 +4456,11 @@
       <c r="A146">
         <v>133</v>
       </c>
-      <c r="B146" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>149</v>
+      <c r="B146" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>6</v>
@@ -4443,11 +4470,11 @@
       <c r="A147">
         <v>134</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>150</v>
+      <c r="B147" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>6</v>
@@ -4457,11 +4484,11 @@
       <c r="A148">
         <v>135</v>
       </c>
-      <c r="B148" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>151</v>
+      <c r="B148" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>6</v>
@@ -4471,11 +4498,11 @@
       <c r="A149">
         <v>136</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>152</v>
+      <c r="B149" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>6</v>
@@ -4485,11 +4512,11 @@
       <c r="A150">
         <v>137</v>
       </c>
-      <c r="B150" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>153</v>
+      <c r="B150" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>6</v>
@@ -4499,11 +4526,11 @@
       <c r="A151">
         <v>138</v>
       </c>
-      <c r="B151" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>154</v>
+      <c r="B151" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>6</v>
@@ -4513,11 +4540,11 @@
       <c r="A152">
         <v>139</v>
       </c>
-      <c r="B152" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>155</v>
+      <c r="B152" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>6</v>
@@ -4527,11 +4554,11 @@
       <c r="A153">
         <v>140</v>
       </c>
-      <c r="B153" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>156</v>
+      <c r="B153" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>6</v>
@@ -4541,11 +4568,11 @@
       <c r="A154">
         <v>141</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>157</v>
+      <c r="B154" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>6</v>
@@ -4555,11 +4582,11 @@
       <c r="A155">
         <v>142</v>
       </c>
-      <c r="B155" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>158</v>
+      <c r="B155" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -4569,11 +4596,11 @@
       <c r="A156">
         <v>143</v>
       </c>
-      <c r="B156" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>159</v>
+      <c r="B156" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>6</v>
@@ -4583,11 +4610,11 @@
       <c r="A157">
         <v>144</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>160</v>
+      <c r="B157" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>6</v>
@@ -4597,11 +4624,11 @@
       <c r="A158">
         <v>145</v>
       </c>
-      <c r="B158" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>161</v>
+      <c r="B158" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>6</v>
@@ -4611,11 +4638,11 @@
       <c r="A159">
         <v>146</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>162</v>
+      <c r="B159" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>6</v>
@@ -4625,11 +4652,11 @@
       <c r="A160">
         <v>147</v>
       </c>
-      <c r="B160" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>163</v>
+      <c r="B160" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>6</v>
@@ -4639,11 +4666,11 @@
       <c r="A161">
         <v>148</v>
       </c>
-      <c r="B161" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>164</v>
+      <c r="B161" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>6</v>
@@ -4653,11 +4680,11 @@
       <c r="A162">
         <v>149</v>
       </c>
-      <c r="B162" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>165</v>
+      <c r="B162" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>6</v>
@@ -4667,11 +4694,11 @@
       <c r="A163">
         <v>150</v>
       </c>
-      <c r="B163" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>166</v>
+      <c r="B163" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>6</v>
@@ -4681,11 +4708,11 @@
       <c r="A164">
         <v>151</v>
       </c>
-      <c r="B164" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>167</v>
+      <c r="B164" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>6</v>
@@ -4695,11 +4722,11 @@
       <c r="A165">
         <v>152</v>
       </c>
-      <c r="B165" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>168</v>
+      <c r="B165" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -4709,11 +4736,11 @@
       <c r="A166">
         <v>153</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>169</v>
+      <c r="B166" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>6</v>
@@ -4723,11 +4750,11 @@
       <c r="A167">
         <v>154</v>
       </c>
-      <c r="B167" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>170</v>
+      <c r="B167" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>6</v>
@@ -4737,11 +4764,11 @@
       <c r="A168">
         <v>155</v>
       </c>
-      <c r="B168" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>171</v>
+      <c r="B168" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
@@ -4751,11 +4778,11 @@
       <c r="A169">
         <v>156</v>
       </c>
-      <c r="B169" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>172</v>
+      <c r="B169" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>6</v>
@@ -4765,11 +4792,11 @@
       <c r="A170">
         <v>157</v>
       </c>
-      <c r="B170" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>173</v>
+      <c r="B170" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>6</v>
@@ -4779,11 +4806,11 @@
       <c r="A171">
         <v>158</v>
       </c>
-      <c r="B171" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>174</v>
+      <c r="B171" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>6</v>
@@ -4793,11 +4820,11 @@
       <c r="A172">
         <v>159</v>
       </c>
-      <c r="B172" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>175</v>
+      <c r="B172" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>6</v>
@@ -4807,11 +4834,11 @@
       <c r="A173">
         <v>160</v>
       </c>
-      <c r="B173" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>176</v>
+      <c r="B173" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>6</v>
@@ -4821,18 +4848,18 @@
       <c r="A174">
         <v>161</v>
       </c>
-      <c r="B174" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>177</v>
+      <c r="B174" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="176" ht="21" spans="3:4">
-      <c r="C176" s="12"/>
+      <c r="C176" s="13"/>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="21" spans="1:4">
@@ -4840,10 +4867,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
@@ -4854,10 +4881,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178" s="11" t="s">
         <v>180</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>6</v>
@@ -4868,10 +4895,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>6</v>
@@ -4882,10 +4909,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>6</v>
@@ -4896,10 +4923,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>6</v>
@@ -4910,10 +4937,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>6</v>
@@ -4924,10 +4951,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>6</v>
@@ -4938,10 +4965,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>6</v>
@@ -4952,10 +4979,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>6</v>
@@ -4966,10 +4993,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>6</v>
@@ -4980,10 +5007,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>6</v>
@@ -4994,10 +5021,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>190</v>
+        <v>180</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>6</v>
@@ -5008,10 +5035,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>6</v>
@@ -5022,10 +5049,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>192</v>
+        <v>180</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>6</v>
@@ -5036,10 +5063,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>6</v>
@@ -5050,10 +5077,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C192" s="11" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>6</v>
@@ -5064,10 +5091,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>6</v>
@@ -5078,10 +5105,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>196</v>
+        <v>180</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>6</v>
@@ -5092,10 +5119,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>6</v>
@@ -5106,10 +5133,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>198</v>
+        <v>180</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>200</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>6</v>
@@ -5120,10 +5147,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C197" s="11" t="s">
-        <v>199</v>
+        <v>180</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>6</v>
@@ -5134,10 +5161,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>200</v>
+        <v>180</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>6</v>
@@ -5148,10 +5175,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C199" s="11" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>6</v>
@@ -5162,10 +5189,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>6</v>
@@ -5176,10 +5203,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>203</v>
+        <v>180</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>6</v>
@@ -5190,10 +5217,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>6</v>
@@ -5204,10 +5231,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>205</v>
+        <v>180</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>6</v>
@@ -5218,10 +5245,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>206</v>
+        <v>180</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>6</v>
@@ -5232,10 +5259,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>207</v>
+        <v>180</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>6</v>
@@ -5246,10 +5273,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>208</v>
+        <v>180</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>6</v>
@@ -5260,10 +5287,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>209</v>
+        <v>180</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>6</v>
@@ -5274,10 +5301,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>210</v>
+        <v>180</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>6</v>
@@ -5288,10 +5315,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>211</v>
+        <v>180</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>6</v>
@@ -5302,10 +5329,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>212</v>
+        <v>180</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>6</v>
@@ -5316,23 +5343,23 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>213</v>
+        <v>180</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="212" ht="21" spans="2:4">
-      <c r="B212" s="13"/>
-      <c r="C212" s="12"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="13"/>
       <c r="D212" s="6"/>
     </row>
     <row r="213" ht="21" spans="2:4">
-      <c r="B213" s="13"/>
-      <c r="C213" s="12"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="13"/>
       <c r="D213" s="6"/>
     </row>
     <row r="214" ht="21" spans="1:4">
@@ -5340,10 +5367,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>6</v>
@@ -5354,10 +5381,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C215" s="11" t="s">
         <v>216</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>6</v>
@@ -5368,10 +5395,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>6</v>
@@ -5382,10 +5409,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>6</v>
@@ -5396,10 +5423,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
@@ -5410,10 +5437,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>6</v>
@@ -5424,10 +5451,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C220" s="14" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>6</v>
@@ -5438,10 +5465,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>6</v>
@@ -5452,10 +5479,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>6</v>
@@ -5466,10 +5493,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C223" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>6</v>
@@ -5480,10 +5507,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>6</v>
@@ -5494,10 +5521,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>6</v>
@@ -5508,10 +5535,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C226" s="11" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>6</v>
@@ -5522,10 +5549,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>228</v>
+        <v>216</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>6</v>
@@ -5536,10 +5563,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C228" s="11" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>6</v>
@@ -5550,10 +5577,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>230</v>
+        <v>216</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>6</v>
@@ -5564,10 +5591,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>233</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>6</v>
@@ -5578,10 +5605,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>6</v>
@@ -5592,10 +5619,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>233</v>
+        <v>216</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>6</v>
@@ -5606,10 +5633,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>234</v>
+        <v>216</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>6</v>
@@ -5620,10 +5647,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>235</v>
+        <v>216</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>6</v>
@@ -5634,21 +5661,21 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="236" ht="21" spans="3:4">
-      <c r="C236" s="12"/>
+      <c r="C236" s="13"/>
       <c r="D236" s="6"/>
     </row>
     <row r="237" ht="21" spans="3:4">
-      <c r="C237" s="12"/>
+      <c r="C237" s="13"/>
       <c r="D237" s="6"/>
     </row>
     <row r="238" ht="21" spans="1:4">
@@ -5656,10 +5683,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>6</v>
@@ -5670,10 +5697,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C239" s="11" t="s">
         <v>239</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>6</v>
@@ -5684,10 +5711,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>6</v>
@@ -5698,10 +5725,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6</v>
@@ -5712,10 +5739,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>6</v>
@@ -5726,10 +5753,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>6</v>
@@ -5740,10 +5767,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>6</v>
@@ -5754,10 +5781,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>6</v>
@@ -5768,10 +5795,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>6</v>
@@ -5782,10 +5809,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>6</v>
@@ -5796,10 +5823,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>6</v>
@@ -5810,10 +5837,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>6</v>
@@ -5824,10 +5851,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>6</v>
@@ -5838,10 +5865,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>251</v>
+        <v>239</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>6</v>
@@ -5852,10 +5879,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>252</v>
+        <v>239</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>254</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>6</v>
@@ -5866,10 +5893,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>6</v>
@@ -5880,10 +5907,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>254</v>
+        <v>239</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>6</v>
@@ -5894,10 +5921,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>6</v>
@@ -5908,10 +5935,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>256</v>
+        <v>239</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>6</v>
@@ -5922,10 +5949,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>6</v>
@@ -5936,10 +5963,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>258</v>
+        <v>239</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>6</v>
@@ -5950,10 +5977,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>259</v>
+        <v>239</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>6</v>
@@ -5964,10 +5991,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>6</v>
@@ -5978,10 +6005,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>261</v>
+        <v>239</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>6</v>
@@ -5992,10 +6019,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>6</v>
@@ -6006,10 +6033,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>263</v>
+        <v>239</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>6</v>
@@ -6020,10 +6047,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>264</v>
+        <v>239</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>6</v>
@@ -6034,10 +6061,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>265</v>
+        <v>239</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>6</v>
@@ -6048,10 +6075,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>268</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>6</v>
@@ -6062,10 +6089,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>267</v>
+        <v>239</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>6</v>
@@ -6076,10 +6103,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>6</v>
@@ -6090,10 +6117,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>6</v>
@@ -6104,10 +6131,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C270" s="11" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>6</v>
@@ -6118,10 +6145,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>94</v>
+        <v>239</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>6</v>
@@ -6132,21 +6159,21 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="273" ht="21" spans="3:4">
-      <c r="C273" s="12"/>
+      <c r="C273" s="13"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" ht="21" spans="3:4">
-      <c r="C274" s="12"/>
+      <c r="C274" s="13"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" ht="21" spans="1:4">
@@ -6154,10 +6181,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>6</v>
@@ -6168,10 +6195,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C276" s="11" t="s">
         <v>274</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>6</v>
@@ -6182,10 +6209,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>6</v>
@@ -6196,10 +6223,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>6</v>
@@ -6210,10 +6237,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>279</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>6</v>
@@ -6224,10 +6251,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C280" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6238,10 +6265,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C281" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>6</v>
@@ -6252,10 +6279,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C282" s="11" t="s">
-        <v>280</v>
+        <v>274</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>6</v>
@@ -6266,10 +6293,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C283" s="11" t="s">
-        <v>281</v>
+        <v>274</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6280,10 +6307,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C284" s="11" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>6</v>
@@ -6294,10 +6321,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C285" s="11" t="s">
-        <v>283</v>
+        <v>274</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>285</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>6</v>
@@ -6308,10 +6335,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C286" s="11" t="s">
-        <v>284</v>
+        <v>274</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>6</v>
@@ -6322,10 +6349,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C287" s="11" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>6</v>
@@ -6336,10 +6363,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C288" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>6</v>
@@ -6350,10 +6377,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C289" s="11" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>289</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>6</v>
@@ -6364,10 +6391,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C290" s="11" t="s">
-        <v>288</v>
+        <v>274</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>6</v>
@@ -6378,10 +6405,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C291" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>6</v>
@@ -6392,10 +6419,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C292" s="11" t="s">
-        <v>290</v>
+        <v>274</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>6</v>
@@ -6406,21 +6433,21 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="294" ht="21" spans="3:4">
-      <c r="C294" s="12"/>
+      <c r="C294" s="13"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" ht="21" spans="3:4">
-      <c r="C295" s="12"/>
+      <c r="C295" s="13"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" ht="21" spans="1:4">
@@ -6428,10 +6455,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C296" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>6</v>
@@ -6442,10 +6469,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C297" s="11" t="s">
         <v>294</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>6</v>
@@ -6456,10 +6483,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C298" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>6</v>
@@ -6470,10 +6497,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>6</v>
@@ -6484,10 +6511,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>6</v>
@@ -6498,10 +6525,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C301" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>6</v>
@@ -6512,10 +6539,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C302" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>6</v>
@@ -6526,10 +6553,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C303" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>6</v>
@@ -6540,10 +6567,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>6</v>
@@ -6554,10 +6581,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>6</v>
@@ -6568,10 +6595,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C306" s="11" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>6</v>
@@ -6582,10 +6609,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C307" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>306</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>6</v>
@@ -6596,10 +6623,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C308" s="11" t="s">
-        <v>305</v>
+        <v>294</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>6</v>
@@ -6610,10 +6637,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>306</v>
+        <v>294</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>308</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>6</v>
@@ -6624,10 +6651,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C310" s="11" t="s">
-        <v>307</v>
+        <v>294</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>6</v>
@@ -6638,10 +6665,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>308</v>
+        <v>294</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>6</v>
@@ -6652,10 +6679,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>309</v>
+        <v>294</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>6</v>
@@ -6666,10 +6693,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C313" s="11" t="s">
-        <v>310</v>
+        <v>294</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>6</v>
@@ -6680,10 +6707,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C314" s="11" t="s">
-        <v>311</v>
+        <v>294</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>6</v>
@@ -6694,10 +6721,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C315" s="11" t="s">
-        <v>312</v>
+        <v>294</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>6</v>
@@ -6708,10 +6735,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C316" s="11" t="s">
-        <v>313</v>
+        <v>294</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>6</v>
@@ -6722,10 +6749,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C317" s="11" t="s">
-        <v>314</v>
+        <v>294</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>6</v>
@@ -6736,10 +6763,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C318" s="11" t="s">
-        <v>315</v>
+        <v>294</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>317</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>6</v>
@@ -6750,10 +6777,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C319" s="11" t="s">
-        <v>316</v>
+        <v>294</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>6</v>
@@ -6764,10 +6791,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C320" s="11" t="s">
-        <v>317</v>
+        <v>294</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>6</v>
@@ -6778,10 +6805,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C321" s="11" t="s">
-        <v>318</v>
+        <v>294</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>6</v>
@@ -6792,10 +6819,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C322" s="11" t="s">
-        <v>319</v>
+        <v>294</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>6</v>
@@ -6806,10 +6833,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C323" s="11" t="s">
-        <v>320</v>
+        <v>294</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>6</v>
@@ -6820,10 +6847,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C324" s="11" t="s">
-        <v>321</v>
+        <v>294</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>6</v>
@@ -6834,10 +6861,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C325" s="11" t="s">
-        <v>322</v>
+        <v>294</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>6</v>
@@ -6848,10 +6875,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>323</v>
+        <v>294</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>6</v>
@@ -6862,10 +6889,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C327" s="11" t="s">
-        <v>324</v>
+        <v>294</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>6</v>
@@ -6876,10 +6903,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C328" s="11" t="s">
-        <v>325</v>
+        <v>294</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>6</v>
@@ -6890,10 +6917,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C329" s="11" t="s">
-        <v>326</v>
+        <v>294</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>6</v>
@@ -6904,10 +6931,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C330" s="11" t="s">
-        <v>327</v>
+        <v>294</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>6</v>
@@ -6918,10 +6945,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>328</v>
+        <v>294</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>6</v>
@@ -6932,10 +6959,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>329</v>
+        <v>294</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>6</v>
@@ -6946,32 +6973,32 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C333" s="11" t="s">
-        <v>330</v>
+        <v>294</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="334" ht="21" spans="3:4">
-      <c r="C334" s="12"/>
+      <c r="C334" s="13"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" ht="21" spans="3:4">
-      <c r="C335" s="12"/>
+      <c r="C335" s="13"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336">
         <v>311</v>
       </c>
-      <c r="B336" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>332</v>
+      <c r="B336" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>6</v>
@@ -6981,11 +7008,11 @@
       <c r="A337">
         <v>312</v>
       </c>
-      <c r="B337" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C337" s="11" t="s">
+      <c r="B337" s="14" t="s">
         <v>333</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>335</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>6</v>
@@ -6995,11 +7022,11 @@
       <c r="A338">
         <v>313</v>
       </c>
-      <c r="B338" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C338" s="11" t="s">
-        <v>334</v>
+      <c r="B338" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>6</v>
@@ -7009,11 +7036,11 @@
       <c r="A339">
         <v>314</v>
       </c>
-      <c r="B339" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C339" s="11" t="s">
-        <v>335</v>
+      <c r="B339" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>6</v>
@@ -7023,11 +7050,11 @@
       <c r="A340">
         <v>315</v>
       </c>
-      <c r="B340" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>336</v>
+      <c r="B340" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>6</v>
@@ -7037,11 +7064,11 @@
       <c r="A341">
         <v>316</v>
       </c>
-      <c r="B341" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>337</v>
+      <c r="B341" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>6</v>
@@ -7051,11 +7078,11 @@
       <c r="A342">
         <v>317</v>
       </c>
-      <c r="B342" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>338</v>
+      <c r="B342" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>6</v>
@@ -7065,11 +7092,11 @@
       <c r="A343">
         <v>318</v>
       </c>
-      <c r="B343" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C343" s="11" t="s">
-        <v>339</v>
+      <c r="B343" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>6</v>
@@ -7079,11 +7106,11 @@
       <c r="A344">
         <v>319</v>
       </c>
-      <c r="B344" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C344" s="14" t="s">
-        <v>340</v>
+      <c r="B344" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C344" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>6</v>
@@ -7093,11 +7120,11 @@
       <c r="A345">
         <v>320</v>
       </c>
-      <c r="B345" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C345" s="11" t="s">
-        <v>341</v>
+      <c r="B345" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>6</v>
@@ -7107,11 +7134,11 @@
       <c r="A346">
         <v>321</v>
       </c>
-      <c r="B346" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C346" s="11" t="s">
-        <v>342</v>
+      <c r="B346" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>6</v>
@@ -7121,11 +7148,11 @@
       <c r="A347">
         <v>322</v>
       </c>
-      <c r="B347" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>343</v>
+      <c r="B347" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>6</v>
@@ -7135,11 +7162,11 @@
       <c r="A348">
         <v>323</v>
       </c>
-      <c r="B348" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>344</v>
+      <c r="B348" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>6</v>
@@ -7149,11 +7176,11 @@
       <c r="A349">
         <v>324</v>
       </c>
-      <c r="B349" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>345</v>
+      <c r="B349" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>6</v>
@@ -7163,11 +7190,11 @@
       <c r="A350">
         <v>325</v>
       </c>
-      <c r="B350" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C350" s="11" t="s">
-        <v>346</v>
+      <c r="B350" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>6</v>
@@ -7177,11 +7204,11 @@
       <c r="A351">
         <v>326</v>
       </c>
-      <c r="B351" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>347</v>
+      <c r="B351" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>6</v>
@@ -7191,11 +7218,11 @@
       <c r="A352">
         <v>327</v>
       </c>
-      <c r="B352" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>348</v>
+      <c r="B352" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>6</v>
@@ -7205,33 +7232,33 @@
       <c r="A353">
         <v>328</v>
       </c>
-      <c r="B353" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>349</v>
+      <c r="B353" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="354" ht="21" spans="3:4">
-      <c r="C354" s="12"/>
+      <c r="C354" s="13"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" ht="21" spans="3:4">
-      <c r="C355" s="12"/>
+      <c r="C355" s="13"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356">
         <v>329</v>
       </c>
-      <c r="B356" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>351</v>
+      <c r="B356" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>6</v>
@@ -7241,11 +7268,11 @@
       <c r="A357">
         <v>330</v>
       </c>
-      <c r="B357" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C357" s="11" t="s">
+      <c r="B357" s="14" t="s">
         <v>352</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>6</v>
@@ -7255,11 +7282,11 @@
       <c r="A358">
         <v>331</v>
       </c>
-      <c r="B358" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>353</v>
+      <c r="B358" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>6</v>
@@ -7269,11 +7296,11 @@
       <c r="A359">
         <v>332</v>
       </c>
-      <c r="B359" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>354</v>
+      <c r="B359" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>6</v>
@@ -7283,11 +7310,11 @@
       <c r="A360">
         <v>333</v>
       </c>
-      <c r="B360" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>355</v>
+      <c r="B360" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>6</v>
@@ -7297,11 +7324,11 @@
       <c r="A361">
         <v>334</v>
       </c>
-      <c r="B361" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>356</v>
+      <c r="B361" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>6</v>
@@ -7311,11 +7338,11 @@
       <c r="A362">
         <v>335</v>
       </c>
-      <c r="B362" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>357</v>
+      <c r="B362" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>6</v>
@@ -7325,11 +7352,11 @@
       <c r="A363">
         <v>336</v>
       </c>
-      <c r="B363" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>358</v>
+      <c r="B363" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>6</v>
@@ -7339,11 +7366,11 @@
       <c r="A364">
         <v>337</v>
       </c>
-      <c r="B364" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>359</v>
+      <c r="B364" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>6</v>
@@ -7353,11 +7380,11 @@
       <c r="A365">
         <v>338</v>
       </c>
-      <c r="B365" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C365" s="11" t="s">
-        <v>360</v>
+      <c r="B365" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>6</v>
@@ -7367,11 +7394,11 @@
       <c r="A366">
         <v>339</v>
       </c>
-      <c r="B366" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C366" s="11" t="s">
-        <v>361</v>
+      <c r="B366" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>6</v>
@@ -7381,11 +7408,11 @@
       <c r="A367">
         <v>340</v>
       </c>
-      <c r="B367" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C367" s="11" t="s">
-        <v>362</v>
+      <c r="B367" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>6</v>
@@ -7395,11 +7422,11 @@
       <c r="A368">
         <v>341</v>
       </c>
-      <c r="B368" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C368" s="11" t="s">
-        <v>363</v>
+      <c r="B368" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>6</v>
@@ -7409,11 +7436,11 @@
       <c r="A369">
         <v>342</v>
       </c>
-      <c r="B369" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C369" s="11" t="s">
-        <v>364</v>
+      <c r="B369" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>6</v>
@@ -7423,11 +7450,11 @@
       <c r="A370">
         <v>343</v>
       </c>
-      <c r="B370" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C370" s="11" t="s">
-        <v>365</v>
+      <c r="B370" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>6</v>
@@ -7437,11 +7464,11 @@
       <c r="A371">
         <v>344</v>
       </c>
-      <c r="B371" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C371" s="11" t="s">
-        <v>366</v>
+      <c r="B371" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>368</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>6</v>
@@ -7451,11 +7478,11 @@
       <c r="A372">
         <v>345</v>
       </c>
-      <c r="B372" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C372" s="11" t="s">
-        <v>367</v>
+      <c r="B372" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>6</v>
@@ -7465,11 +7492,11 @@
       <c r="A373">
         <v>346</v>
       </c>
-      <c r="B373" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C373" s="11" t="s">
-        <v>368</v>
+      <c r="B373" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>6</v>
@@ -7479,11 +7506,11 @@
       <c r="A374">
         <v>347</v>
       </c>
-      <c r="B374" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C374" s="11" t="s">
-        <v>369</v>
+      <c r="B374" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>371</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>6</v>
@@ -7493,11 +7520,11 @@
       <c r="A375">
         <v>348</v>
       </c>
-      <c r="B375" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C375" s="11" t="s">
-        <v>370</v>
+      <c r="B375" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>6</v>
@@ -7507,11 +7534,11 @@
       <c r="A376">
         <v>349</v>
       </c>
-      <c r="B376" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>371</v>
+      <c r="B376" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>6</v>
@@ -7521,11 +7548,11 @@
       <c r="A377">
         <v>350</v>
       </c>
-      <c r="B377" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C377" s="11" t="s">
-        <v>372</v>
+      <c r="B377" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>6</v>
@@ -7535,11 +7562,11 @@
       <c r="A378">
         <v>351</v>
       </c>
-      <c r="B378" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C378" s="11" t="s">
-        <v>373</v>
+      <c r="B378" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>375</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>6</v>
@@ -7549,11 +7576,11 @@
       <c r="A379">
         <v>352</v>
       </c>
-      <c r="B379" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C379" s="11" t="s">
-        <v>374</v>
+      <c r="B379" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>6</v>
@@ -7563,11 +7590,11 @@
       <c r="A380">
         <v>353</v>
       </c>
-      <c r="B380" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C380" s="11" t="s">
-        <v>375</v>
+      <c r="B380" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>377</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>6</v>
@@ -7577,11 +7604,11 @@
       <c r="A381">
         <v>354</v>
       </c>
-      <c r="B381" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C381" s="11" t="s">
-        <v>376</v>
+      <c r="B381" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>6</v>
@@ -7591,11 +7618,11 @@
       <c r="A382">
         <v>355</v>
       </c>
-      <c r="B382" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C382" s="11" t="s">
-        <v>377</v>
+      <c r="B382" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>6</v>
@@ -7605,11 +7632,11 @@
       <c r="A383">
         <v>356</v>
       </c>
-      <c r="B383" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>378</v>
+      <c r="B383" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>380</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>6</v>
@@ -7619,11 +7646,11 @@
       <c r="A384">
         <v>357</v>
       </c>
-      <c r="B384" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C384" s="11" t="s">
-        <v>379</v>
+      <c r="B384" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>6</v>
@@ -7633,11 +7660,11 @@
       <c r="A385">
         <v>358</v>
       </c>
-      <c r="B385" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C385" s="11" t="s">
-        <v>380</v>
+      <c r="B385" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>6</v>
@@ -7647,11 +7674,11 @@
       <c r="A386">
         <v>359</v>
       </c>
-      <c r="B386" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>381</v>
+      <c r="B386" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>383</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>6</v>
@@ -7661,11 +7688,11 @@
       <c r="A387">
         <v>360</v>
       </c>
-      <c r="B387" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C387" s="11" t="s">
-        <v>382</v>
+      <c r="B387" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>6</v>
@@ -7675,11 +7702,11 @@
       <c r="A388">
         <v>361</v>
       </c>
-      <c r="B388" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C388" s="11" t="s">
-        <v>383</v>
+      <c r="B388" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>6</v>
@@ -7689,11 +7716,11 @@
       <c r="A389">
         <v>362</v>
       </c>
-      <c r="B389" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>384</v>
+      <c r="B389" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>6</v>
@@ -7703,11 +7730,11 @@
       <c r="A390">
         <v>363</v>
       </c>
-      <c r="B390" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C390" s="11" t="s">
-        <v>384</v>
+      <c r="B390" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>6</v>
@@ -7717,11 +7744,11 @@
       <c r="A391">
         <v>364</v>
       </c>
-      <c r="B391" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C391" s="11" t="s">
-        <v>385</v>
+      <c r="B391" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>387</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>6</v>
@@ -7731,11 +7758,11 @@
       <c r="A392">
         <v>365</v>
       </c>
-      <c r="B392" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C392" s="11" t="s">
-        <v>386</v>
+      <c r="B392" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>6</v>
@@ -7745,11 +7772,11 @@
       <c r="A393">
         <v>366</v>
       </c>
-      <c r="B393" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C393" s="11" t="s">
-        <v>387</v>
+      <c r="B393" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>6</v>
@@ -7759,11 +7786,11 @@
       <c r="A394">
         <v>367</v>
       </c>
-      <c r="B394" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C394" s="11" t="s">
-        <v>388</v>
+      <c r="B394" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>6</v>
@@ -7773,11 +7800,11 @@
       <c r="A395">
         <v>368</v>
       </c>
-      <c r="B395" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C395" s="11" t="s">
-        <v>389</v>
+      <c r="B395" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>391</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>6</v>
@@ -7787,11 +7814,11 @@
       <c r="A396">
         <v>369</v>
       </c>
-      <c r="B396" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C396" s="11" t="s">
-        <v>390</v>
+      <c r="B396" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>6</v>
@@ -7801,11 +7828,11 @@
       <c r="A397">
         <v>370</v>
       </c>
-      <c r="B397" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>391</v>
+      <c r="B397" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>393</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>6</v>
@@ -7815,11 +7842,11 @@
       <c r="A398">
         <v>371</v>
       </c>
-      <c r="B398" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C398" s="11" t="s">
-        <v>392</v>
+      <c r="B398" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>6</v>
@@ -7829,33 +7856,33 @@
       <c r="A399">
         <v>372</v>
       </c>
-      <c r="B399" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>393</v>
+      <c r="B399" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>395</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="400" ht="21" spans="3:4">
-      <c r="C400" s="12"/>
+      <c r="C400" s="13"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" ht="21" spans="3:4">
-      <c r="C401" s="12"/>
+      <c r="C401" s="13"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402">
         <v>373</v>
       </c>
-      <c r="B402" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C402" s="11" t="s">
-        <v>395</v>
+      <c r="B402" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>397</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>6</v>
@@ -7865,11 +7892,11 @@
       <c r="A403">
         <v>374</v>
       </c>
-      <c r="B403" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C403" s="11" t="s">
+      <c r="B403" s="14" t="s">
         <v>396</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>6</v>
@@ -7879,11 +7906,11 @@
       <c r="A404">
         <v>375</v>
       </c>
-      <c r="B404" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C404" s="11" t="s">
-        <v>397</v>
+      <c r="B404" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>6</v>
@@ -7893,11 +7920,11 @@
       <c r="A405">
         <v>376</v>
       </c>
-      <c r="B405" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C405" s="11" t="s">
-        <v>96</v>
+      <c r="B405" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>6</v>
@@ -7907,11 +7934,11 @@
       <c r="A406">
         <v>377</v>
       </c>
-      <c r="B406" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C406" s="11" t="s">
-        <v>398</v>
+      <c r="B406" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>400</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>6</v>
@@ -7921,22 +7948,22 @@
       <c r="A407">
         <v>378</v>
       </c>
-      <c r="B407" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C407" s="11" t="s">
-        <v>399</v>
+      <c r="B407" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>401</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="408" ht="21" spans="3:4">
-      <c r="C408" s="12"/>
+      <c r="C408" s="13"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" ht="21" spans="3:4">
-      <c r="C409" s="12"/>
+      <c r="C409" s="13"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" ht="21" spans="1:4">
@@ -7944,10 +7971,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>6</v>
@@ -7958,10 +7985,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C411" s="11" t="s">
         <v>402</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>404</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>6</v>
@@ -7972,10 +7999,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C412" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>6</v>
@@ -7986,10 +8013,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C413" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>406</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>6</v>
@@ -8000,10 +8027,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C414" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>6</v>
@@ -8014,10 +8041,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>6</v>
@@ -8028,10 +8055,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C416" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>409</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>6</v>
@@ -8042,10 +8069,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C417" s="11" t="s">
-        <v>280</v>
+        <v>402</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>6</v>
@@ -8056,10 +8083,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C418" s="11" t="s">
-        <v>408</v>
+        <v>402</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>6</v>
@@ -8070,10 +8097,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C419" s="11" t="s">
-        <v>409</v>
+        <v>402</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>6</v>
@@ -8084,10 +8111,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C420" s="11" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>6</v>
@@ -8098,10 +8125,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C421" s="11" t="s">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>6</v>
@@ -8112,10 +8139,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C422" s="11" t="s">
-        <v>412</v>
+        <v>402</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>6</v>
@@ -8126,10 +8153,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C423" s="11" t="s">
-        <v>413</v>
+        <v>402</v>
+      </c>
+      <c r="C423" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>6</v>
@@ -8140,10 +8167,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C424" s="11" t="s">
-        <v>414</v>
+        <v>402</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>6</v>
@@ -8154,10 +8181,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C425" s="11" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>6</v>
@@ -8168,10 +8195,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C426" s="11" t="s">
-        <v>416</v>
+        <v>402</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>6</v>
@@ -8182,10 +8209,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C427" s="11" t="s">
-        <v>417</v>
+        <v>402</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>6</v>
@@ -8196,10 +8223,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C428" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>6</v>
@@ -8210,10 +8237,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C429" s="11" t="s">
-        <v>419</v>
+        <v>402</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>6</v>
@@ -8224,10 +8251,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C430" s="11" t="s">
-        <v>420</v>
+        <v>402</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>6</v>
@@ -8238,10 +8265,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C431" s="11" t="s">
-        <v>421</v>
+        <v>402</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>6</v>
@@ -8252,10 +8279,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C432" s="11" t="s">
-        <v>422</v>
+        <v>402</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>6</v>
@@ -8266,10 +8293,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C433" s="11" t="s">
-        <v>423</v>
+        <v>402</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>6</v>
@@ -8280,10 +8307,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C434" s="11" t="s">
-        <v>424</v>
+        <v>402</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>6</v>
@@ -8294,10 +8321,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C435" s="11" t="s">
-        <v>425</v>
+        <v>402</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>6</v>
@@ -8308,10 +8335,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C436" s="11" t="s">
-        <v>426</v>
+        <v>402</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>6</v>
@@ -8322,10 +8349,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C437" s="11" t="s">
-        <v>427</v>
+        <v>402</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>6</v>
@@ -8336,10 +8363,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C438" s="11" t="s">
-        <v>428</v>
+        <v>402</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>6</v>
@@ -8350,10 +8377,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C439" s="11" t="s">
-        <v>429</v>
+        <v>402</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>6</v>
@@ -8364,10 +8391,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C440" s="11" t="s">
-        <v>430</v>
+        <v>402</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>6</v>
@@ -8378,10 +8405,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C441" s="11" t="s">
-        <v>431</v>
+        <v>402</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>6</v>
@@ -8392,10 +8419,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>432</v>
+        <v>402</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>6</v>
@@ -8406,10 +8433,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C443" s="11" t="s">
-        <v>433</v>
+        <v>402</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>6</v>
@@ -8420,10 +8447,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C444" s="11" t="s">
-        <v>434</v>
+        <v>402</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>6</v>
@@ -8434,10 +8461,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C445" s="11" t="s">
-        <v>435</v>
+        <v>402</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>6</v>
@@ -8448,10 +8475,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C446" s="11" t="s">
-        <v>436</v>
+        <v>402</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>6</v>
@@ -8462,10 +8489,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C447" s="11" t="s">
-        <v>437</v>
+        <v>402</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>6</v>
@@ -8476,10 +8503,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C448" s="11" t="s">
-        <v>438</v>
+        <v>402</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>6</v>
@@ -8490,10 +8517,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C449" s="11" t="s">
-        <v>439</v>
+        <v>402</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>6</v>
@@ -8504,10 +8531,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C450" s="11" t="s">
-        <v>440</v>
+        <v>402</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>6</v>
@@ -8518,10 +8545,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C451" s="11" t="s">
-        <v>441</v>
+        <v>402</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>443</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>6</v>
@@ -8532,10 +8559,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C452" s="11" t="s">
-        <v>442</v>
+        <v>402</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>6</v>
@@ -8546,10 +8573,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C453" s="11" t="s">
-        <v>443</v>
+        <v>402</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>6</v>
@@ -8560,10 +8587,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C454" s="11" t="s">
-        <v>444</v>
+        <v>402</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>6</v>
@@ -8574,10 +8601,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C455" s="11" t="s">
-        <v>445</v>
+        <v>402</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>6</v>
@@ -8588,10 +8615,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C456" s="11" t="s">
-        <v>446</v>
+        <v>402</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>6</v>
@@ -8602,10 +8629,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C457" s="11" t="s">
-        <v>447</v>
+        <v>402</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>6</v>
@@ -8616,10 +8643,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C458" s="11" t="s">
-        <v>448</v>
+        <v>402</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>6</v>
@@ -8630,10 +8657,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C459" s="11" t="s">
-        <v>449</v>
+        <v>402</v>
+      </c>
+      <c r="C459" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>6</v>
@@ -8644,10 +8671,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C460" s="11" t="s">
-        <v>450</v>
+        <v>402</v>
+      </c>
+      <c r="C460" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>6</v>
@@ -8658,10 +8685,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C461" s="11" t="s">
-        <v>451</v>
+        <v>402</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>6</v>
@@ -8672,10 +8699,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C462" s="11" t="s">
-        <v>452</v>
+        <v>402</v>
+      </c>
+      <c r="C462" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>6</v>
@@ -8686,10 +8713,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C463" s="11" t="s">
-        <v>453</v>
+        <v>402</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>6</v>
@@ -8700,10 +8727,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C464" s="11" t="s">
-        <v>454</v>
+        <v>402</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>6</v>
@@ -8714,10 +8741,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C465" s="11" t="s">
-        <v>455</v>
+        <v>402</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>6</v>
@@ -8728,10 +8755,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C466" s="11" t="s">
-        <v>456</v>
+        <v>402</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>6</v>
@@ -8742,10 +8769,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C467" s="11" t="s">
-        <v>457</v>
+        <v>402</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>6</v>
@@ -8756,10 +8783,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C468" s="11" t="s">
-        <v>458</v>
+        <v>402</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>460</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>6</v>
@@ -8770,22 +8797,22 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C469" s="11" t="s">
-        <v>459</v>
+        <v>402</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="470" ht="21" spans="3:4">
-      <c r="C470" s="12"/>
+      <c r="C470" s="13"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" ht="21" spans="2:4">
-      <c r="B471" s="13"/>
-      <c r="C471" s="12"/>
+      <c r="B471" s="14"/>
+      <c r="C471" s="13"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" ht="21" spans="1:4">
@@ -8793,10 +8820,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C472" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>6</v>
@@ -8807,10 +8834,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C473" s="11" t="s">
         <v>462</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>6</v>
@@ -8821,10 +8848,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C474" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>6</v>
@@ -8835,10 +8862,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C475" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>6</v>
@@ -8849,10 +8876,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C476" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>6</v>
@@ -8863,10 +8890,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C477" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>6</v>
@@ -8877,10 +8904,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C478" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>6</v>
@@ -8891,10 +8918,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C479" s="11" t="s">
-        <v>468</v>
+        <v>462</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>6</v>
@@ -8905,10 +8932,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C480" s="11" t="s">
-        <v>469</v>
+        <v>462</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>6</v>
@@ -8919,10 +8946,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C481" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>472</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>6</v>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="473">
   <si>
     <t>DSA</t>
   </si>
@@ -1441,9 +1441,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1532,9 +1532,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,14 +1541,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1564,15 +1555,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,22 +1577,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1609,6 +1602,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,45 +1633,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,31 +1695,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,7 +1743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,19 +1767,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,31 +1833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,7 +1851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,55 +1863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,6 +1880,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1901,89 +1975,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2001,128 +2001,128 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2481,7 +2481,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2710,7 +2710,7 @@
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2745,18 +2745,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="21" spans="1:4">
+    <row r="18" ht="21" spans="1:6">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>6</v>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10">
+        <v>44173</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1440,12 +1440,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,6 +1502,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="16"/>
       <color theme="10"/>
@@ -1526,7 +1533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,14 +1554,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1563,7 +1562,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,8 +1592,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,22 +1623,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1631,16 +1630,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,21 +1661,21 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1689,7 +1696,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,37 +1750,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,43 +1792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,7 +1816,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,67 +1870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,6 +1893,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1901,7 +1923,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1922,15 +1955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1942,17 +1966,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,158 +1988,158 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2151,12 +2164,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2480,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2724,7 +2738,7 @@
       <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2738,7 +2752,7 @@
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2766,13 +2780,13 @@
       </c>
     </row>
     <row r="19" ht="21" spans="1:4">
-      <c r="A19">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2786,7 +2800,7 @@
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2800,7 +2814,7 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -2814,7 +2828,7 @@
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2828,7 +2842,7 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2842,7 +2856,7 @@
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -2856,7 +2870,7 @@
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -2870,7 +2884,7 @@
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2884,7 +2898,7 @@
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -2898,7 +2912,7 @@
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2912,7 +2926,7 @@
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -2926,7 +2940,7 @@
       <c r="B30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -2940,7 +2954,7 @@
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2954,7 +2968,7 @@
       <c r="B32" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -2968,7 +2982,7 @@
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2982,7 +2996,7 @@
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -2996,7 +3010,7 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -3010,7 +3024,7 @@
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -3024,7 +3038,7 @@
       <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -3038,7 +3052,7 @@
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -3052,7 +3066,7 @@
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -3066,7 +3080,7 @@
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -3080,7 +3094,7 @@
       <c r="B41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -3088,14 +3102,14 @@
       </c>
     </row>
     <row r="42" ht="21" spans="3:4">
-      <c r="C42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" ht="21" spans="2:4">
       <c r="B43" s="7"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="6" t="s">
         <v>6</v>
       </c>
@@ -3104,10 +3118,10 @@
       <c r="A44">
         <v>37</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -3118,10 +3132,10 @@
       <c r="A45">
         <v>38</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -3132,10 +3146,10 @@
       <c r="A46">
         <v>39</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -3146,10 +3160,10 @@
       <c r="A47">
         <v>40</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -3160,10 +3174,10 @@
       <c r="A48">
         <v>41</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -3174,10 +3188,10 @@
       <c r="A49">
         <v>42</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -3188,10 +3202,10 @@
       <c r="A50">
         <v>43</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -3202,10 +3216,10 @@
       <c r="A51">
         <v>44</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="6" t="s">
@@ -3216,10 +3230,10 @@
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3230,10 +3244,10 @@
       <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
@@ -3242,7 +3256,7 @@
     </row>
     <row r="55" ht="21" spans="2:4">
       <c r="B55" s="7"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" ht="21" spans="1:4">
@@ -3252,7 +3266,7 @@
       <c r="B56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D56" s="6" t="s">
@@ -3266,7 +3280,7 @@
       <c r="B57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -3280,7 +3294,7 @@
       <c r="B58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -3294,7 +3308,7 @@
       <c r="B59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -3308,7 +3322,7 @@
       <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -3322,7 +3336,7 @@
       <c r="B61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -3336,7 +3350,7 @@
       <c r="B62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -3350,7 +3364,7 @@
       <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -3364,7 +3378,7 @@
       <c r="B64" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -3378,7 +3392,7 @@
       <c r="B65" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -3392,7 +3406,7 @@
       <c r="B66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -3406,7 +3420,7 @@
       <c r="B67" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -3420,7 +3434,7 @@
       <c r="B68" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -3434,7 +3448,7 @@
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -3448,7 +3462,7 @@
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -3462,7 +3476,7 @@
       <c r="B71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -3476,7 +3490,7 @@
       <c r="B72" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -3490,7 +3504,7 @@
       <c r="B73" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D73" s="6" t="s">
@@ -3504,7 +3518,7 @@
       <c r="B74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -3518,7 +3532,7 @@
       <c r="B75" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D75" s="6" t="s">
@@ -3532,7 +3546,7 @@
       <c r="B76" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D76" s="6" t="s">
@@ -3546,7 +3560,7 @@
       <c r="B77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D77" s="6" t="s">
@@ -3560,7 +3574,7 @@
       <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D78" s="6" t="s">
@@ -3574,7 +3588,7 @@
       <c r="B79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -3588,7 +3602,7 @@
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -3602,7 +3616,7 @@
       <c r="B81" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -3616,7 +3630,7 @@
       <c r="B82" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -3630,7 +3644,7 @@
       <c r="B83" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -3644,7 +3658,7 @@
       <c r="B84" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D84" s="6" t="s">
@@ -3658,7 +3672,7 @@
       <c r="B85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D85" s="6" t="s">
@@ -3672,7 +3686,7 @@
       <c r="B86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D86" s="6" t="s">
@@ -3686,7 +3700,7 @@
       <c r="B87" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -3700,7 +3714,7 @@
       <c r="B88" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D88" s="6" t="s">
@@ -3714,7 +3728,7 @@
       <c r="B89" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D89" s="6" t="s">
@@ -3728,7 +3742,7 @@
       <c r="B90" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D90" s="6" t="s">
@@ -3742,7 +3756,7 @@
       <c r="B91" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -3756,7 +3770,7 @@
       <c r="B92" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -3770,7 +3784,7 @@
       <c r="B93" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -3784,7 +3798,7 @@
       <c r="B94" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -3798,7 +3812,7 @@
       <c r="B95" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -3812,7 +3826,7 @@
       <c r="B96" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -3826,7 +3840,7 @@
       <c r="B97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -3840,7 +3854,7 @@
       <c r="B98" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="13" t="s">
         <v>105</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -3848,8 +3862,8 @@
       </c>
     </row>
     <row r="100" ht="21" spans="2:4">
-      <c r="B100" s="14"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="6"/>
     </row>
     <row r="101" ht="21" spans="1:4">
@@ -3859,7 +3873,7 @@
       <c r="B101" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -3873,7 +3887,7 @@
       <c r="B102" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -3887,7 +3901,7 @@
       <c r="B103" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -3901,7 +3915,7 @@
       <c r="B104" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -3915,7 +3929,7 @@
       <c r="B105" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -3929,7 +3943,7 @@
       <c r="B106" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -3943,7 +3957,7 @@
       <c r="B107" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="13" t="s">
         <v>113</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -3957,7 +3971,7 @@
       <c r="B108" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -3971,7 +3985,7 @@
       <c r="B109" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -3985,7 +3999,7 @@
       <c r="B110" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -3999,7 +4013,7 @@
       <c r="B111" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -4013,7 +4027,7 @@
       <c r="B112" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -4027,7 +4041,7 @@
       <c r="B113" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -4041,7 +4055,7 @@
       <c r="B114" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -4055,7 +4069,7 @@
       <c r="B115" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -4069,7 +4083,7 @@
       <c r="B116" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -4083,7 +4097,7 @@
       <c r="B117" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -4097,7 +4111,7 @@
       <c r="B118" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -4111,7 +4125,7 @@
       <c r="B119" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -4125,7 +4139,7 @@
       <c r="B120" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -4139,7 +4153,7 @@
       <c r="B121" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -4153,7 +4167,7 @@
       <c r="B122" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C122" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -4167,7 +4181,7 @@
       <c r="B123" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -4181,7 +4195,7 @@
       <c r="B124" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -4195,7 +4209,7 @@
       <c r="B125" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C125" s="12" t="s">
+      <c r="C125" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -4209,7 +4223,7 @@
       <c r="B126" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -4223,7 +4237,7 @@
       <c r="B127" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -4237,7 +4251,7 @@
       <c r="B128" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -4251,7 +4265,7 @@
       <c r="B129" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -4265,7 +4279,7 @@
       <c r="B130" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -4279,7 +4293,7 @@
       <c r="B131" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -4293,7 +4307,7 @@
       <c r="B132" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C132" s="13" t="s">
         <v>138</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -4307,7 +4321,7 @@
       <c r="B133" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" s="13" t="s">
         <v>139</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -4321,7 +4335,7 @@
       <c r="B134" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -4335,7 +4349,7 @@
       <c r="B135" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -4349,7 +4363,7 @@
       <c r="B136" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -4357,17 +4371,17 @@
       </c>
     </row>
     <row r="138" ht="21" spans="3:4">
-      <c r="C138" s="13"/>
+      <c r="C138" s="14"/>
       <c r="D138" s="6"/>
     </row>
     <row r="139" ht="21" spans="1:4">
       <c r="A139">
         <v>126</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="13" t="s">
         <v>144</v>
       </c>
       <c r="D139" s="6" t="s">
@@ -4378,10 +4392,10 @@
       <c r="A140">
         <v>127</v>
       </c>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" s="13" t="s">
         <v>145</v>
       </c>
       <c r="D140" s="6" t="s">
@@ -4392,10 +4406,10 @@
       <c r="A141">
         <v>128</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C141" s="13" t="s">
         <v>146</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -4406,10 +4420,10 @@
       <c r="A142">
         <v>129</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C142" s="13" t="s">
         <v>147</v>
       </c>
       <c r="D142" s="6" t="s">
@@ -4420,10 +4434,10 @@
       <c r="A143">
         <v>130</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="13" t="s">
         <v>148</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -4434,10 +4448,10 @@
       <c r="A144">
         <v>131</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="13" t="s">
         <v>149</v>
       </c>
       <c r="D144" s="6" t="s">
@@ -4448,10 +4462,10 @@
       <c r="A145">
         <v>132</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="13" t="s">
         <v>150</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -4462,10 +4476,10 @@
       <c r="A146">
         <v>133</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D146" s="6" t="s">
@@ -4476,10 +4490,10 @@
       <c r="A147">
         <v>134</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="13" t="s">
         <v>152</v>
       </c>
       <c r="D147" s="6" t="s">
@@ -4490,10 +4504,10 @@
       <c r="A148">
         <v>135</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="13" t="s">
         <v>153</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -4504,10 +4518,10 @@
       <c r="A149">
         <v>136</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D149" s="6" t="s">
@@ -4518,10 +4532,10 @@
       <c r="A150">
         <v>137</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="13" t="s">
         <v>155</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -4532,10 +4546,10 @@
       <c r="A151">
         <v>138</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="13" t="s">
         <v>156</v>
       </c>
       <c r="D151" s="6" t="s">
@@ -4546,10 +4560,10 @@
       <c r="A152">
         <v>139</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -4560,10 +4574,10 @@
       <c r="A153">
         <v>140</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="13" t="s">
         <v>158</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -4574,10 +4588,10 @@
       <c r="A154">
         <v>141</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D154" s="6" t="s">
@@ -4588,10 +4602,10 @@
       <c r="A155">
         <v>142</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D155" s="6" t="s">
@@ -4602,10 +4616,10 @@
       <c r="A156">
         <v>143</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="13" t="s">
         <v>161</v>
       </c>
       <c r="D156" s="6" t="s">
@@ -4616,10 +4630,10 @@
       <c r="A157">
         <v>144</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="13" t="s">
         <v>162</v>
       </c>
       <c r="D157" s="6" t="s">
@@ -4630,10 +4644,10 @@
       <c r="A158">
         <v>145</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D158" s="6" t="s">
@@ -4644,10 +4658,10 @@
       <c r="A159">
         <v>146</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D159" s="6" t="s">
@@ -4658,10 +4672,10 @@
       <c r="A160">
         <v>147</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="13" t="s">
         <v>165</v>
       </c>
       <c r="D160" s="6" t="s">
@@ -4672,10 +4686,10 @@
       <c r="A161">
         <v>148</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="13" t="s">
         <v>166</v>
       </c>
       <c r="D161" s="6" t="s">
@@ -4686,10 +4700,10 @@
       <c r="A162">
         <v>149</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="13" t="s">
         <v>167</v>
       </c>
       <c r="D162" s="6" t="s">
@@ -4700,10 +4714,10 @@
       <c r="A163">
         <v>150</v>
       </c>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="13" t="s">
         <v>168</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -4714,10 +4728,10 @@
       <c r="A164">
         <v>151</v>
       </c>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="14" t="s">
         <v>169</v>
       </c>
       <c r="D164" s="6" t="s">
@@ -4728,10 +4742,10 @@
       <c r="A165">
         <v>152</v>
       </c>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D165" s="6" t="s">
@@ -4742,10 +4756,10 @@
       <c r="A166">
         <v>153</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D166" s="6" t="s">
@@ -4756,10 +4770,10 @@
       <c r="A167">
         <v>154</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="13" t="s">
         <v>172</v>
       </c>
       <c r="D167" s="6" t="s">
@@ -4770,10 +4784,10 @@
       <c r="A168">
         <v>155</v>
       </c>
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="13" t="s">
         <v>173</v>
       </c>
       <c r="D168" s="6" t="s">
@@ -4784,10 +4798,10 @@
       <c r="A169">
         <v>156</v>
       </c>
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="13" t="s">
         <v>174</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -4798,10 +4812,10 @@
       <c r="A170">
         <v>157</v>
       </c>
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="13" t="s">
         <v>175</v>
       </c>
       <c r="D170" s="6" t="s">
@@ -4812,10 +4826,10 @@
       <c r="A171">
         <v>158</v>
       </c>
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D171" s="6" t="s">
@@ -4826,10 +4840,10 @@
       <c r="A172">
         <v>159</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="13" t="s">
         <v>177</v>
       </c>
       <c r="D172" s="6" t="s">
@@ -4840,10 +4854,10 @@
       <c r="A173">
         <v>160</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="13" t="s">
         <v>178</v>
       </c>
       <c r="D173" s="6" t="s">
@@ -4854,10 +4868,10 @@
       <c r="A174">
         <v>161</v>
       </c>
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="13" t="s">
         <v>179</v>
       </c>
       <c r="D174" s="6" t="s">
@@ -4865,7 +4879,7 @@
       </c>
     </row>
     <row r="176" ht="21" spans="3:4">
-      <c r="C176" s="13"/>
+      <c r="C176" s="14"/>
       <c r="D176" s="6"/>
     </row>
     <row r="177" ht="21" spans="1:4">
@@ -4875,7 +4889,7 @@
       <c r="B177" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="13" t="s">
         <v>181</v>
       </c>
       <c r="D177" s="6" t="s">
@@ -4889,7 +4903,7 @@
       <c r="B178" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="13" t="s">
         <v>182</v>
       </c>
       <c r="D178" s="6" t="s">
@@ -4903,7 +4917,7 @@
       <c r="B179" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="13" t="s">
         <v>183</v>
       </c>
       <c r="D179" s="6" t="s">
@@ -4917,7 +4931,7 @@
       <c r="B180" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="13" t="s">
         <v>184</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -4931,7 +4945,7 @@
       <c r="B181" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="13" t="s">
         <v>185</v>
       </c>
       <c r="D181" s="6" t="s">
@@ -4945,7 +4959,7 @@
       <c r="B182" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D182" s="6" t="s">
@@ -4959,7 +4973,7 @@
       <c r="B183" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="13" t="s">
         <v>187</v>
       </c>
       <c r="D183" s="6" t="s">
@@ -4973,7 +4987,7 @@
       <c r="B184" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="13" t="s">
         <v>188</v>
       </c>
       <c r="D184" s="6" t="s">
@@ -4987,7 +5001,7 @@
       <c r="B185" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="13" t="s">
         <v>189</v>
       </c>
       <c r="D185" s="6" t="s">
@@ -5001,7 +5015,7 @@
       <c r="B186" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="13" t="s">
         <v>190</v>
       </c>
       <c r="D186" s="6" t="s">
@@ -5015,7 +5029,7 @@
       <c r="B187" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="13" t="s">
         <v>191</v>
       </c>
       <c r="D187" s="6" t="s">
@@ -5029,7 +5043,7 @@
       <c r="B188" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -5043,7 +5057,7 @@
       <c r="B189" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="13" t="s">
         <v>193</v>
       </c>
       <c r="D189" s="6" t="s">
@@ -5057,7 +5071,7 @@
       <c r="B190" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="13" t="s">
         <v>194</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -5071,7 +5085,7 @@
       <c r="B191" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="13" t="s">
         <v>195</v>
       </c>
       <c r="D191" s="6" t="s">
@@ -5085,7 +5099,7 @@
       <c r="B192" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="13" t="s">
         <v>196</v>
       </c>
       <c r="D192" s="6" t="s">
@@ -5099,7 +5113,7 @@
       <c r="B193" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="13" t="s">
         <v>197</v>
       </c>
       <c r="D193" s="6" t="s">
@@ -5113,7 +5127,7 @@
       <c r="B194" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="13" t="s">
         <v>198</v>
       </c>
       <c r="D194" s="6" t="s">
@@ -5127,7 +5141,7 @@
       <c r="B195" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="13" t="s">
         <v>199</v>
       </c>
       <c r="D195" s="6" t="s">
@@ -5141,7 +5155,7 @@
       <c r="B196" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="13" t="s">
         <v>200</v>
       </c>
       <c r="D196" s="6" t="s">
@@ -5155,7 +5169,7 @@
       <c r="B197" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D197" s="6" t="s">
@@ -5169,7 +5183,7 @@
       <c r="B198" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C198" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D198" s="6" t="s">
@@ -5183,7 +5197,7 @@
       <c r="B199" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D199" s="6" t="s">
@@ -5197,7 +5211,7 @@
       <c r="B200" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D200" s="6" t="s">
@@ -5211,7 +5225,7 @@
       <c r="B201" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D201" s="6" t="s">
@@ -5225,7 +5239,7 @@
       <c r="B202" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="13" t="s">
         <v>206</v>
       </c>
       <c r="D202" s="6" t="s">
@@ -5239,7 +5253,7 @@
       <c r="B203" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D203" s="6" t="s">
@@ -5253,7 +5267,7 @@
       <c r="B204" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D204" s="6" t="s">
@@ -5267,7 +5281,7 @@
       <c r="B205" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C205" s="13" t="s">
         <v>209</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -5281,7 +5295,7 @@
       <c r="B206" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C206" s="13" t="s">
         <v>210</v>
       </c>
       <c r="D206" s="6" t="s">
@@ -5295,7 +5309,7 @@
       <c r="B207" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="13" t="s">
         <v>211</v>
       </c>
       <c r="D207" s="6" t="s">
@@ -5309,7 +5323,7 @@
       <c r="B208" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="13" t="s">
         <v>212</v>
       </c>
       <c r="D208" s="6" t="s">
@@ -5323,7 +5337,7 @@
       <c r="B209" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D209" s="6" t="s">
@@ -5337,7 +5351,7 @@
       <c r="B210" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="13" t="s">
         <v>214</v>
       </c>
       <c r="D210" s="6" t="s">
@@ -5351,7 +5365,7 @@
       <c r="B211" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="13" t="s">
         <v>215</v>
       </c>
       <c r="D211" s="6" t="s">
@@ -5359,13 +5373,13 @@
       </c>
     </row>
     <row r="212" ht="21" spans="2:4">
-      <c r="B212" s="14"/>
-      <c r="C212" s="13"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="14"/>
       <c r="D212" s="6"/>
     </row>
     <row r="213" ht="21" spans="2:4">
-      <c r="B213" s="14"/>
-      <c r="C213" s="13"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="14"/>
       <c r="D213" s="6"/>
     </row>
     <row r="214" ht="21" spans="1:4">
@@ -5375,7 +5389,7 @@
       <c r="B214" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C214" s="13" t="s">
         <v>217</v>
       </c>
       <c r="D214" s="6" t="s">
@@ -5389,7 +5403,7 @@
       <c r="B215" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C215" s="13" t="s">
         <v>218</v>
       </c>
       <c r="D215" s="6" t="s">
@@ -5403,7 +5417,7 @@
       <c r="B216" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C216" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D216" s="6" t="s">
@@ -5417,7 +5431,7 @@
       <c r="B217" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C217" s="13" t="s">
         <v>220</v>
       </c>
       <c r="D217" s="6" t="s">
@@ -5431,7 +5445,7 @@
       <c r="B218" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D218" s="6" t="s">
@@ -5445,7 +5459,7 @@
       <c r="B219" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C219" s="13" t="s">
         <v>222</v>
       </c>
       <c r="D219" s="6" t="s">
@@ -5459,7 +5473,7 @@
       <c r="B220" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C220" s="15" t="s">
+      <c r="C220" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D220" s="6" t="s">
@@ -5473,7 +5487,7 @@
       <c r="B221" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" s="13" t="s">
         <v>224</v>
       </c>
       <c r="D221" s="6" t="s">
@@ -5487,7 +5501,7 @@
       <c r="B222" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="13" t="s">
         <v>225</v>
       </c>
       <c r="D222" s="6" t="s">
@@ -5501,7 +5515,7 @@
       <c r="B223" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="13" t="s">
         <v>226</v>
       </c>
       <c r="D223" s="6" t="s">
@@ -5515,7 +5529,7 @@
       <c r="B224" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="13" t="s">
         <v>227</v>
       </c>
       <c r="D224" s="6" t="s">
@@ -5529,7 +5543,7 @@
       <c r="B225" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="13" t="s">
         <v>228</v>
       </c>
       <c r="D225" s="6" t="s">
@@ -5543,7 +5557,7 @@
       <c r="B226" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="13" t="s">
         <v>229</v>
       </c>
       <c r="D226" s="6" t="s">
@@ -5557,7 +5571,7 @@
       <c r="B227" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="13" t="s">
         <v>230</v>
       </c>
       <c r="D227" s="6" t="s">
@@ -5571,7 +5585,7 @@
       <c r="B228" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="13" t="s">
         <v>231</v>
       </c>
       <c r="D228" s="6" t="s">
@@ -5585,7 +5599,7 @@
       <c r="B229" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="13" t="s">
         <v>232</v>
       </c>
       <c r="D229" s="6" t="s">
@@ -5599,7 +5613,7 @@
       <c r="B230" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="13" t="s">
         <v>233</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -5613,7 +5627,7 @@
       <c r="B231" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C231" s="12" t="s">
+      <c r="C231" s="13" t="s">
         <v>234</v>
       </c>
       <c r="D231" s="6" t="s">
@@ -5627,7 +5641,7 @@
       <c r="B232" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="C232" s="13" t="s">
         <v>235</v>
       </c>
       <c r="D232" s="6" t="s">
@@ -5641,7 +5655,7 @@
       <c r="B233" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="C233" s="13" t="s">
         <v>236</v>
       </c>
       <c r="D233" s="6" t="s">
@@ -5655,7 +5669,7 @@
       <c r="B234" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="13" t="s">
         <v>237</v>
       </c>
       <c r="D234" s="6" t="s">
@@ -5669,7 +5683,7 @@
       <c r="B235" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D235" s="6" t="s">
@@ -5677,11 +5691,11 @@
       </c>
     </row>
     <row r="236" ht="21" spans="3:4">
-      <c r="C236" s="13"/>
+      <c r="C236" s="14"/>
       <c r="D236" s="6"/>
     </row>
     <row r="237" ht="21" spans="3:4">
-      <c r="C237" s="13"/>
+      <c r="C237" s="14"/>
       <c r="D237" s="6"/>
     </row>
     <row r="238" ht="21" spans="1:4">
@@ -5691,7 +5705,7 @@
       <c r="B238" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="13" t="s">
         <v>240</v>
       </c>
       <c r="D238" s="6" t="s">
@@ -5705,7 +5719,7 @@
       <c r="B239" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="13" t="s">
         <v>241</v>
       </c>
       <c r="D239" s="6" t="s">
@@ -5719,7 +5733,7 @@
       <c r="B240" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D240" s="6" t="s">
@@ -5733,7 +5747,7 @@
       <c r="B241" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="13" t="s">
         <v>243</v>
       </c>
       <c r="D241" s="6" t="s">
@@ -5747,7 +5761,7 @@
       <c r="B242" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" s="13" t="s">
         <v>244</v>
       </c>
       <c r="D242" s="6" t="s">
@@ -5761,7 +5775,7 @@
       <c r="B243" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" s="13" t="s">
         <v>245</v>
       </c>
       <c r="D243" s="6" t="s">
@@ -5775,7 +5789,7 @@
       <c r="B244" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C244" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D244" s="6" t="s">
@@ -5789,7 +5803,7 @@
       <c r="B245" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D245" s="6" t="s">
@@ -5803,7 +5817,7 @@
       <c r="B246" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C246" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -5817,7 +5831,7 @@
       <c r="B247" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" s="13" t="s">
         <v>249</v>
       </c>
       <c r="D247" s="6" t="s">
@@ -5831,7 +5845,7 @@
       <c r="B248" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="13" t="s">
         <v>250</v>
       </c>
       <c r="D248" s="6" t="s">
@@ -5845,7 +5859,7 @@
       <c r="B249" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C249" s="13" t="s">
         <v>251</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -5859,7 +5873,7 @@
       <c r="B250" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C250" s="13" t="s">
         <v>252</v>
       </c>
       <c r="D250" s="6" t="s">
@@ -5873,7 +5887,7 @@
       <c r="B251" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="13" t="s">
         <v>253</v>
       </c>
       <c r="D251" s="6" t="s">
@@ -5887,7 +5901,7 @@
       <c r="B252" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="13" t="s">
         <v>254</v>
       </c>
       <c r="D252" s="6" t="s">
@@ -5901,7 +5915,7 @@
       <c r="B253" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C253" s="13" t="s">
         <v>255</v>
       </c>
       <c r="D253" s="6" t="s">
@@ -5915,7 +5929,7 @@
       <c r="B254" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" s="13" t="s">
         <v>256</v>
       </c>
       <c r="D254" s="6" t="s">
@@ -5929,7 +5943,7 @@
       <c r="B255" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D255" s="6" t="s">
@@ -5943,7 +5957,7 @@
       <c r="B256" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="13" t="s">
         <v>258</v>
       </c>
       <c r="D256" s="6" t="s">
@@ -5957,7 +5971,7 @@
       <c r="B257" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C257" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D257" s="6" t="s">
@@ -5971,7 +5985,7 @@
       <c r="B258" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="13" t="s">
         <v>260</v>
       </c>
       <c r="D258" s="6" t="s">
@@ -5985,7 +5999,7 @@
       <c r="B259" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C259" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D259" s="6" t="s">
@@ -5999,7 +6013,7 @@
       <c r="B260" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C260" s="12" t="s">
+      <c r="C260" s="13" t="s">
         <v>262</v>
       </c>
       <c r="D260" s="6" t="s">
@@ -6013,7 +6027,7 @@
       <c r="B261" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C261" s="13" t="s">
         <v>263</v>
       </c>
       <c r="D261" s="6" t="s">
@@ -6027,7 +6041,7 @@
       <c r="B262" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C262" s="12" t="s">
+      <c r="C262" s="13" t="s">
         <v>264</v>
       </c>
       <c r="D262" s="6" t="s">
@@ -6041,7 +6055,7 @@
       <c r="B263" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="C263" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D263" s="6" t="s">
@@ -6055,7 +6069,7 @@
       <c r="B264" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C264" s="12" t="s">
+      <c r="C264" s="13" t="s">
         <v>266</v>
       </c>
       <c r="D264" s="6" t="s">
@@ -6069,7 +6083,7 @@
       <c r="B265" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="13" t="s">
         <v>267</v>
       </c>
       <c r="D265" s="6" t="s">
@@ -6083,7 +6097,7 @@
       <c r="B266" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C266" s="12" t="s">
+      <c r="C266" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D266" s="6" t="s">
@@ -6097,7 +6111,7 @@
       <c r="B267" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C267" s="12" t="s">
+      <c r="C267" s="13" t="s">
         <v>269</v>
       </c>
       <c r="D267" s="6" t="s">
@@ -6111,7 +6125,7 @@
       <c r="B268" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C268" s="12" t="s">
+      <c r="C268" s="13" t="s">
         <v>270</v>
       </c>
       <c r="D268" s="6" t="s">
@@ -6125,7 +6139,7 @@
       <c r="B269" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C269" s="12" t="s">
+      <c r="C269" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D269" s="6" t="s">
@@ -6139,7 +6153,7 @@
       <c r="B270" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="C270" s="13" t="s">
         <v>272</v>
       </c>
       <c r="D270" s="6" t="s">
@@ -6153,7 +6167,7 @@
       <c r="B271" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C271" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D271" s="6" t="s">
@@ -6167,7 +6181,7 @@
       <c r="B272" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C272" s="12" t="s">
+      <c r="C272" s="13" t="s">
         <v>273</v>
       </c>
       <c r="D272" s="6" t="s">
@@ -6175,11 +6189,11 @@
       </c>
     </row>
     <row r="273" ht="21" spans="3:4">
-      <c r="C273" s="13"/>
+      <c r="C273" s="14"/>
       <c r="D273" s="6"/>
     </row>
     <row r="274" ht="21" spans="3:4">
-      <c r="C274" s="13"/>
+      <c r="C274" s="14"/>
       <c r="D274" s="6"/>
     </row>
     <row r="275" ht="21" spans="1:4">
@@ -6189,7 +6203,7 @@
       <c r="B275" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="13" t="s">
         <v>275</v>
       </c>
       <c r="D275" s="6" t="s">
@@ -6203,7 +6217,7 @@
       <c r="B276" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C276" s="12" t="s">
+      <c r="C276" s="13" t="s">
         <v>276</v>
       </c>
       <c r="D276" s="6" t="s">
@@ -6217,7 +6231,7 @@
       <c r="B277" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="13" t="s">
         <v>277</v>
       </c>
       <c r="D277" s="6" t="s">
@@ -6231,7 +6245,7 @@
       <c r="B278" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C278" s="12" t="s">
+      <c r="C278" s="13" t="s">
         <v>278</v>
       </c>
       <c r="D278" s="6" t="s">
@@ -6245,7 +6259,7 @@
       <c r="B279" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C279" s="12" t="s">
+      <c r="C279" s="13" t="s">
         <v>279</v>
       </c>
       <c r="D279" s="6" t="s">
@@ -6259,7 +6273,7 @@
       <c r="B280" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C280" s="12" t="s">
+      <c r="C280" s="13" t="s">
         <v>280</v>
       </c>
       <c r="D280" s="6" t="s">
@@ -6273,7 +6287,7 @@
       <c r="B281" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C281" s="12" t="s">
+      <c r="C281" s="13" t="s">
         <v>281</v>
       </c>
       <c r="D281" s="6" t="s">
@@ -6287,7 +6301,7 @@
       <c r="B282" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C282" s="12" t="s">
+      <c r="C282" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D282" s="6" t="s">
@@ -6301,7 +6315,7 @@
       <c r="B283" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="12" t="s">
+      <c r="C283" s="13" t="s">
         <v>283</v>
       </c>
       <c r="D283" s="6" t="s">
@@ -6315,7 +6329,7 @@
       <c r="B284" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C284" s="12" t="s">
+      <c r="C284" s="13" t="s">
         <v>284</v>
       </c>
       <c r="D284" s="6" t="s">
@@ -6329,7 +6343,7 @@
       <c r="B285" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C285" s="12" t="s">
+      <c r="C285" s="13" t="s">
         <v>285</v>
       </c>
       <c r="D285" s="6" t="s">
@@ -6343,7 +6357,7 @@
       <c r="B286" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C286" s="12" t="s">
+      <c r="C286" s="13" t="s">
         <v>286</v>
       </c>
       <c r="D286" s="6" t="s">
@@ -6357,7 +6371,7 @@
       <c r="B287" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C287" s="12" t="s">
+      <c r="C287" s="13" t="s">
         <v>287</v>
       </c>
       <c r="D287" s="6" t="s">
@@ -6371,7 +6385,7 @@
       <c r="B288" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C288" s="12" t="s">
+      <c r="C288" s="13" t="s">
         <v>288</v>
       </c>
       <c r="D288" s="6" t="s">
@@ -6385,7 +6399,7 @@
       <c r="B289" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C289" s="12" t="s">
+      <c r="C289" s="13" t="s">
         <v>289</v>
       </c>
       <c r="D289" s="6" t="s">
@@ -6399,7 +6413,7 @@
       <c r="B290" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C290" s="12" t="s">
+      <c r="C290" s="13" t="s">
         <v>290</v>
       </c>
       <c r="D290" s="6" t="s">
@@ -6413,7 +6427,7 @@
       <c r="B291" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C291" s="12" t="s">
+      <c r="C291" s="13" t="s">
         <v>291</v>
       </c>
       <c r="D291" s="6" t="s">
@@ -6427,7 +6441,7 @@
       <c r="B292" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C292" s="12" t="s">
+      <c r="C292" s="13" t="s">
         <v>292</v>
       </c>
       <c r="D292" s="6" t="s">
@@ -6441,7 +6455,7 @@
       <c r="B293" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C293" s="12" t="s">
+      <c r="C293" s="13" t="s">
         <v>293</v>
       </c>
       <c r="D293" s="6" t="s">
@@ -6449,11 +6463,11 @@
       </c>
     </row>
     <row r="294" ht="21" spans="3:4">
-      <c r="C294" s="13"/>
+      <c r="C294" s="14"/>
       <c r="D294" s="6"/>
     </row>
     <row r="295" ht="21" spans="3:4">
-      <c r="C295" s="13"/>
+      <c r="C295" s="14"/>
       <c r="D295" s="6"/>
     </row>
     <row r="296" ht="21" spans="1:4">
@@ -6463,7 +6477,7 @@
       <c r="B296" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C296" s="12" t="s">
+      <c r="C296" s="13" t="s">
         <v>295</v>
       </c>
       <c r="D296" s="6" t="s">
@@ -6477,7 +6491,7 @@
       <c r="B297" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C297" s="12" t="s">
+      <c r="C297" s="13" t="s">
         <v>296</v>
       </c>
       <c r="D297" s="6" t="s">
@@ -6491,7 +6505,7 @@
       <c r="B298" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C298" s="12" t="s">
+      <c r="C298" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D298" s="6" t="s">
@@ -6505,7 +6519,7 @@
       <c r="B299" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C299" s="12" t="s">
+      <c r="C299" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D299" s="6" t="s">
@@ -6519,7 +6533,7 @@
       <c r="B300" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C300" s="12" t="s">
+      <c r="C300" s="13" t="s">
         <v>299</v>
       </c>
       <c r="D300" s="6" t="s">
@@ -6533,7 +6547,7 @@
       <c r="B301" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C301" s="12" t="s">
+      <c r="C301" s="13" t="s">
         <v>300</v>
       </c>
       <c r="D301" s="6" t="s">
@@ -6547,7 +6561,7 @@
       <c r="B302" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C302" s="12" t="s">
+      <c r="C302" s="13" t="s">
         <v>301</v>
       </c>
       <c r="D302" s="6" t="s">
@@ -6561,7 +6575,7 @@
       <c r="B303" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C303" s="12" t="s">
+      <c r="C303" s="13" t="s">
         <v>302</v>
       </c>
       <c r="D303" s="6" t="s">
@@ -6575,7 +6589,7 @@
       <c r="B304" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="12" t="s">
+      <c r="C304" s="13" t="s">
         <v>303</v>
       </c>
       <c r="D304" s="6" t="s">
@@ -6589,7 +6603,7 @@
       <c r="B305" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C305" s="12" t="s">
+      <c r="C305" s="13" t="s">
         <v>304</v>
       </c>
       <c r="D305" s="6" t="s">
@@ -6603,7 +6617,7 @@
       <c r="B306" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C306" s="12" t="s">
+      <c r="C306" s="13" t="s">
         <v>305</v>
       </c>
       <c r="D306" s="6" t="s">
@@ -6617,7 +6631,7 @@
       <c r="B307" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C307" s="12" t="s">
+      <c r="C307" s="13" t="s">
         <v>306</v>
       </c>
       <c r="D307" s="6" t="s">
@@ -6631,7 +6645,7 @@
       <c r="B308" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C308" s="12" t="s">
+      <c r="C308" s="13" t="s">
         <v>307</v>
       </c>
       <c r="D308" s="6" t="s">
@@ -6645,7 +6659,7 @@
       <c r="B309" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C309" s="16" t="s">
         <v>308</v>
       </c>
       <c r="D309" s="6" t="s">
@@ -6659,7 +6673,7 @@
       <c r="B310" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C310" s="12" t="s">
+      <c r="C310" s="13" t="s">
         <v>309</v>
       </c>
       <c r="D310" s="6" t="s">
@@ -6673,7 +6687,7 @@
       <c r="B311" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C311" s="12" t="s">
+      <c r="C311" s="13" t="s">
         <v>310</v>
       </c>
       <c r="D311" s="6" t="s">
@@ -6687,7 +6701,7 @@
       <c r="B312" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C312" s="12" t="s">
+      <c r="C312" s="13" t="s">
         <v>311</v>
       </c>
       <c r="D312" s="6" t="s">
@@ -6701,7 +6715,7 @@
       <c r="B313" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C313" s="12" t="s">
+      <c r="C313" s="13" t="s">
         <v>312</v>
       </c>
       <c r="D313" s="6" t="s">
@@ -6715,7 +6729,7 @@
       <c r="B314" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C314" s="12" t="s">
+      <c r="C314" s="13" t="s">
         <v>313</v>
       </c>
       <c r="D314" s="6" t="s">
@@ -6729,7 +6743,7 @@
       <c r="B315" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C315" s="12" t="s">
+      <c r="C315" s="13" t="s">
         <v>314</v>
       </c>
       <c r="D315" s="6" t="s">
@@ -6743,7 +6757,7 @@
       <c r="B316" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C316" s="12" t="s">
+      <c r="C316" s="13" t="s">
         <v>315</v>
       </c>
       <c r="D316" s="6" t="s">
@@ -6757,7 +6771,7 @@
       <c r="B317" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C317" s="12" t="s">
+      <c r="C317" s="13" t="s">
         <v>316</v>
       </c>
       <c r="D317" s="6" t="s">
@@ -6771,7 +6785,7 @@
       <c r="B318" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C318" s="12" t="s">
+      <c r="C318" s="13" t="s">
         <v>317</v>
       </c>
       <c r="D318" s="6" t="s">
@@ -6785,7 +6799,7 @@
       <c r="B319" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C319" s="12" t="s">
+      <c r="C319" s="13" t="s">
         <v>318</v>
       </c>
       <c r="D319" s="6" t="s">
@@ -6799,7 +6813,7 @@
       <c r="B320" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C320" s="12" t="s">
+      <c r="C320" s="13" t="s">
         <v>319</v>
       </c>
       <c r="D320" s="6" t="s">
@@ -6813,7 +6827,7 @@
       <c r="B321" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C321" s="12" t="s">
+      <c r="C321" s="13" t="s">
         <v>320</v>
       </c>
       <c r="D321" s="6" t="s">
@@ -6827,7 +6841,7 @@
       <c r="B322" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C322" s="12" t="s">
+      <c r="C322" s="13" t="s">
         <v>321</v>
       </c>
       <c r="D322" s="6" t="s">
@@ -6841,7 +6855,7 @@
       <c r="B323" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C323" s="12" t="s">
+      <c r="C323" s="13" t="s">
         <v>322</v>
       </c>
       <c r="D323" s="6" t="s">
@@ -6855,7 +6869,7 @@
       <c r="B324" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C324" s="13" t="s">
         <v>323</v>
       </c>
       <c r="D324" s="6" t="s">
@@ -6869,7 +6883,7 @@
       <c r="B325" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C325" s="12" t="s">
+      <c r="C325" s="13" t="s">
         <v>324</v>
       </c>
       <c r="D325" s="6" t="s">
@@ -6883,7 +6897,7 @@
       <c r="B326" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C326" s="12" t="s">
+      <c r="C326" s="13" t="s">
         <v>325</v>
       </c>
       <c r="D326" s="6" t="s">
@@ -6897,7 +6911,7 @@
       <c r="B327" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C327" s="12" t="s">
+      <c r="C327" s="13" t="s">
         <v>326</v>
       </c>
       <c r="D327" s="6" t="s">
@@ -6911,7 +6925,7 @@
       <c r="B328" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C328" s="12" t="s">
+      <c r="C328" s="13" t="s">
         <v>327</v>
       </c>
       <c r="D328" s="6" t="s">
@@ -6925,7 +6939,7 @@
       <c r="B329" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C329" s="12" t="s">
+      <c r="C329" s="13" t="s">
         <v>328</v>
       </c>
       <c r="D329" s="6" t="s">
@@ -6939,7 +6953,7 @@
       <c r="B330" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C330" s="12" t="s">
+      <c r="C330" s="13" t="s">
         <v>329</v>
       </c>
       <c r="D330" s="6" t="s">
@@ -6953,7 +6967,7 @@
       <c r="B331" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C331" s="12" t="s">
+      <c r="C331" s="13" t="s">
         <v>330</v>
       </c>
       <c r="D331" s="6" t="s">
@@ -6967,7 +6981,7 @@
       <c r="B332" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C332" s="12" t="s">
+      <c r="C332" s="13" t="s">
         <v>331</v>
       </c>
       <c r="D332" s="6" t="s">
@@ -6981,7 +6995,7 @@
       <c r="B333" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C333" s="12" t="s">
+      <c r="C333" s="13" t="s">
         <v>332</v>
       </c>
       <c r="D333" s="6" t="s">
@@ -6989,21 +7003,21 @@
       </c>
     </row>
     <row r="334" ht="21" spans="3:4">
-      <c r="C334" s="13"/>
+      <c r="C334" s="14"/>
       <c r="D334" s="6"/>
     </row>
     <row r="335" ht="21" spans="3:4">
-      <c r="C335" s="13"/>
+      <c r="C335" s="14"/>
       <c r="D335" s="6"/>
     </row>
     <row r="336" ht="21" spans="1:4">
       <c r="A336">
         <v>311</v>
       </c>
-      <c r="B336" s="14" t="s">
+      <c r="B336" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C336" s="12" t="s">
+      <c r="C336" s="13" t="s">
         <v>334</v>
       </c>
       <c r="D336" s="6" t="s">
@@ -7014,10 +7028,10 @@
       <c r="A337">
         <v>312</v>
       </c>
-      <c r="B337" s="14" t="s">
+      <c r="B337" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C337" s="12" t="s">
+      <c r="C337" s="13" t="s">
         <v>335</v>
       </c>
       <c r="D337" s="6" t="s">
@@ -7028,10 +7042,10 @@
       <c r="A338">
         <v>313</v>
       </c>
-      <c r="B338" s="14" t="s">
+      <c r="B338" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C338" s="12" t="s">
+      <c r="C338" s="13" t="s">
         <v>336</v>
       </c>
       <c r="D338" s="6" t="s">
@@ -7042,10 +7056,10 @@
       <c r="A339">
         <v>314</v>
       </c>
-      <c r="B339" s="14" t="s">
+      <c r="B339" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C339" s="12" t="s">
+      <c r="C339" s="13" t="s">
         <v>337</v>
       </c>
       <c r="D339" s="6" t="s">
@@ -7056,10 +7070,10 @@
       <c r="A340">
         <v>315</v>
       </c>
-      <c r="B340" s="14" t="s">
+      <c r="B340" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C340" s="12" t="s">
+      <c r="C340" s="13" t="s">
         <v>338</v>
       </c>
       <c r="D340" s="6" t="s">
@@ -7070,10 +7084,10 @@
       <c r="A341">
         <v>316</v>
       </c>
-      <c r="B341" s="14" t="s">
+      <c r="B341" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C341" s="12" t="s">
+      <c r="C341" s="13" t="s">
         <v>339</v>
       </c>
       <c r="D341" s="6" t="s">
@@ -7084,10 +7098,10 @@
       <c r="A342">
         <v>317</v>
       </c>
-      <c r="B342" s="14" t="s">
+      <c r="B342" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C342" s="12" t="s">
+      <c r="C342" s="13" t="s">
         <v>340</v>
       </c>
       <c r="D342" s="6" t="s">
@@ -7098,10 +7112,10 @@
       <c r="A343">
         <v>318</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="B343" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C343" s="12" t="s">
+      <c r="C343" s="13" t="s">
         <v>341</v>
       </c>
       <c r="D343" s="6" t="s">
@@ -7112,10 +7126,10 @@
       <c r="A344">
         <v>319</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="16" t="s">
         <v>342</v>
       </c>
       <c r="D344" s="6" t="s">
@@ -7126,10 +7140,10 @@
       <c r="A345">
         <v>320</v>
       </c>
-      <c r="B345" s="14" t="s">
+      <c r="B345" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C345" s="12" t="s">
+      <c r="C345" s="13" t="s">
         <v>343</v>
       </c>
       <c r="D345" s="6" t="s">
@@ -7140,10 +7154,10 @@
       <c r="A346">
         <v>321</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C346" s="12" t="s">
+      <c r="C346" s="13" t="s">
         <v>344</v>
       </c>
       <c r="D346" s="6" t="s">
@@ -7154,10 +7168,10 @@
       <c r="A347">
         <v>322</v>
       </c>
-      <c r="B347" s="14" t="s">
+      <c r="B347" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C347" s="12" t="s">
+      <c r="C347" s="13" t="s">
         <v>345</v>
       </c>
       <c r="D347" s="6" t="s">
@@ -7168,10 +7182,10 @@
       <c r="A348">
         <v>323</v>
       </c>
-      <c r="B348" s="14" t="s">
+      <c r="B348" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C348" s="12" t="s">
+      <c r="C348" s="13" t="s">
         <v>346</v>
       </c>
       <c r="D348" s="6" t="s">
@@ -7182,10 +7196,10 @@
       <c r="A349">
         <v>324</v>
       </c>
-      <c r="B349" s="14" t="s">
+      <c r="B349" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C349" s="12" t="s">
+      <c r="C349" s="13" t="s">
         <v>347</v>
       </c>
       <c r="D349" s="6" t="s">
@@ -7196,10 +7210,10 @@
       <c r="A350">
         <v>325</v>
       </c>
-      <c r="B350" s="14" t="s">
+      <c r="B350" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C350" s="12" t="s">
+      <c r="C350" s="13" t="s">
         <v>348</v>
       </c>
       <c r="D350" s="6" t="s">
@@ -7210,10 +7224,10 @@
       <c r="A351">
         <v>326</v>
       </c>
-      <c r="B351" s="14" t="s">
+      <c r="B351" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C351" s="12" t="s">
+      <c r="C351" s="13" t="s">
         <v>349</v>
       </c>
       <c r="D351" s="6" t="s">
@@ -7224,10 +7238,10 @@
       <c r="A352">
         <v>327</v>
       </c>
-      <c r="B352" s="14" t="s">
+      <c r="B352" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C352" s="12" t="s">
+      <c r="C352" s="13" t="s">
         <v>350</v>
       </c>
       <c r="D352" s="6" t="s">
@@ -7238,10 +7252,10 @@
       <c r="A353">
         <v>328</v>
       </c>
-      <c r="B353" s="14" t="s">
+      <c r="B353" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C353" s="12" t="s">
+      <c r="C353" s="13" t="s">
         <v>351</v>
       </c>
       <c r="D353" s="6" t="s">
@@ -7249,21 +7263,21 @@
       </c>
     </row>
     <row r="354" ht="21" spans="3:4">
-      <c r="C354" s="13"/>
+      <c r="C354" s="14"/>
       <c r="D354" s="6"/>
     </row>
     <row r="355" ht="21" spans="3:4">
-      <c r="C355" s="13"/>
+      <c r="C355" s="14"/>
       <c r="D355" s="6"/>
     </row>
     <row r="356" ht="21" spans="1:4">
       <c r="A356">
         <v>329</v>
       </c>
-      <c r="B356" s="14" t="s">
+      <c r="B356" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C356" s="12" t="s">
+      <c r="C356" s="13" t="s">
         <v>353</v>
       </c>
       <c r="D356" s="6" t="s">
@@ -7274,10 +7288,10 @@
       <c r="A357">
         <v>330</v>
       </c>
-      <c r="B357" s="14" t="s">
+      <c r="B357" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C357" s="12" t="s">
+      <c r="C357" s="13" t="s">
         <v>354</v>
       </c>
       <c r="D357" s="6" t="s">
@@ -7288,10 +7302,10 @@
       <c r="A358">
         <v>331</v>
       </c>
-      <c r="B358" s="14" t="s">
+      <c r="B358" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C358" s="12" t="s">
+      <c r="C358" s="13" t="s">
         <v>355</v>
       </c>
       <c r="D358" s="6" t="s">
@@ -7302,10 +7316,10 @@
       <c r="A359">
         <v>332</v>
       </c>
-      <c r="B359" s="14" t="s">
+      <c r="B359" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C359" s="12" t="s">
+      <c r="C359" s="13" t="s">
         <v>356</v>
       </c>
       <c r="D359" s="6" t="s">
@@ -7316,10 +7330,10 @@
       <c r="A360">
         <v>333</v>
       </c>
-      <c r="B360" s="14" t="s">
+      <c r="B360" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C360" s="12" t="s">
+      <c r="C360" s="13" t="s">
         <v>357</v>
       </c>
       <c r="D360" s="6" t="s">
@@ -7330,10 +7344,10 @@
       <c r="A361">
         <v>334</v>
       </c>
-      <c r="B361" s="14" t="s">
+      <c r="B361" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C361" s="12" t="s">
+      <c r="C361" s="13" t="s">
         <v>358</v>
       </c>
       <c r="D361" s="6" t="s">
@@ -7344,10 +7358,10 @@
       <c r="A362">
         <v>335</v>
       </c>
-      <c r="B362" s="14" t="s">
+      <c r="B362" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C362" s="12" t="s">
+      <c r="C362" s="13" t="s">
         <v>359</v>
       </c>
       <c r="D362" s="6" t="s">
@@ -7358,10 +7372,10 @@
       <c r="A363">
         <v>336</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="B363" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="C363" s="13" t="s">
         <v>360</v>
       </c>
       <c r="D363" s="6" t="s">
@@ -7372,10 +7386,10 @@
       <c r="A364">
         <v>337</v>
       </c>
-      <c r="B364" s="14" t="s">
+      <c r="B364" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C364" s="12" t="s">
+      <c r="C364" s="13" t="s">
         <v>361</v>
       </c>
       <c r="D364" s="6" t="s">
@@ -7386,10 +7400,10 @@
       <c r="A365">
         <v>338</v>
       </c>
-      <c r="B365" s="14" t="s">
+      <c r="B365" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C365" s="12" t="s">
+      <c r="C365" s="13" t="s">
         <v>362</v>
       </c>
       <c r="D365" s="6" t="s">
@@ -7400,10 +7414,10 @@
       <c r="A366">
         <v>339</v>
       </c>
-      <c r="B366" s="14" t="s">
+      <c r="B366" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C366" s="12" t="s">
+      <c r="C366" s="13" t="s">
         <v>363</v>
       </c>
       <c r="D366" s="6" t="s">
@@ -7414,10 +7428,10 @@
       <c r="A367">
         <v>340</v>
       </c>
-      <c r="B367" s="14" t="s">
+      <c r="B367" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C367" s="12" t="s">
+      <c r="C367" s="13" t="s">
         <v>364</v>
       </c>
       <c r="D367" s="6" t="s">
@@ -7428,10 +7442,10 @@
       <c r="A368">
         <v>341</v>
       </c>
-      <c r="B368" s="14" t="s">
+      <c r="B368" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C368" s="12" t="s">
+      <c r="C368" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D368" s="6" t="s">
@@ -7442,10 +7456,10 @@
       <c r="A369">
         <v>342</v>
       </c>
-      <c r="B369" s="14" t="s">
+      <c r="B369" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C369" s="12" t="s">
+      <c r="C369" s="13" t="s">
         <v>366</v>
       </c>
       <c r="D369" s="6" t="s">
@@ -7456,10 +7470,10 @@
       <c r="A370">
         <v>343</v>
       </c>
-      <c r="B370" s="14" t="s">
+      <c r="B370" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C370" s="12" t="s">
+      <c r="C370" s="13" t="s">
         <v>367</v>
       </c>
       <c r="D370" s="6" t="s">
@@ -7470,10 +7484,10 @@
       <c r="A371">
         <v>344</v>
       </c>
-      <c r="B371" s="14" t="s">
+      <c r="B371" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C371" s="12" t="s">
+      <c r="C371" s="13" t="s">
         <v>368</v>
       </c>
       <c r="D371" s="6" t="s">
@@ -7484,10 +7498,10 @@
       <c r="A372">
         <v>345</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C372" s="12" t="s">
+      <c r="C372" s="13" t="s">
         <v>369</v>
       </c>
       <c r="D372" s="6" t="s">
@@ -7498,10 +7512,10 @@
       <c r="A373">
         <v>346</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C373" s="12" t="s">
+      <c r="C373" s="13" t="s">
         <v>370</v>
       </c>
       <c r="D373" s="6" t="s">
@@ -7512,10 +7526,10 @@
       <c r="A374">
         <v>347</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C374" s="12" t="s">
+      <c r="C374" s="13" t="s">
         <v>371</v>
       </c>
       <c r="D374" s="6" t="s">
@@ -7526,10 +7540,10 @@
       <c r="A375">
         <v>348</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C375" s="12" t="s">
+      <c r="C375" s="13" t="s">
         <v>372</v>
       </c>
       <c r="D375" s="6" t="s">
@@ -7540,10 +7554,10 @@
       <c r="A376">
         <v>349</v>
       </c>
-      <c r="B376" s="14" t="s">
+      <c r="B376" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C376" s="12" t="s">
+      <c r="C376" s="13" t="s">
         <v>373</v>
       </c>
       <c r="D376" s="6" t="s">
@@ -7554,10 +7568,10 @@
       <c r="A377">
         <v>350</v>
       </c>
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C377" s="12" t="s">
+      <c r="C377" s="13" t="s">
         <v>374</v>
       </c>
       <c r="D377" s="6" t="s">
@@ -7568,10 +7582,10 @@
       <c r="A378">
         <v>351</v>
       </c>
-      <c r="B378" s="14" t="s">
+      <c r="B378" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C378" s="12" t="s">
+      <c r="C378" s="13" t="s">
         <v>375</v>
       </c>
       <c r="D378" s="6" t="s">
@@ -7582,10 +7596,10 @@
       <c r="A379">
         <v>352</v>
       </c>
-      <c r="B379" s="14" t="s">
+      <c r="B379" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C379" s="12" t="s">
+      <c r="C379" s="13" t="s">
         <v>376</v>
       </c>
       <c r="D379" s="6" t="s">
@@ -7596,10 +7610,10 @@
       <c r="A380">
         <v>353</v>
       </c>
-      <c r="B380" s="14" t="s">
+      <c r="B380" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C380" s="12" t="s">
+      <c r="C380" s="13" t="s">
         <v>377</v>
       </c>
       <c r="D380" s="6" t="s">
@@ -7610,10 +7624,10 @@
       <c r="A381">
         <v>354</v>
       </c>
-      <c r="B381" s="14" t="s">
+      <c r="B381" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C381" s="12" t="s">
+      <c r="C381" s="13" t="s">
         <v>378</v>
       </c>
       <c r="D381" s="6" t="s">
@@ -7624,10 +7638,10 @@
       <c r="A382">
         <v>355</v>
       </c>
-      <c r="B382" s="14" t="s">
+      <c r="B382" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C382" s="12" t="s">
+      <c r="C382" s="13" t="s">
         <v>379</v>
       </c>
       <c r="D382" s="6" t="s">
@@ -7638,10 +7652,10 @@
       <c r="A383">
         <v>356</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C383" s="12" t="s">
+      <c r="C383" s="13" t="s">
         <v>380</v>
       </c>
       <c r="D383" s="6" t="s">
@@ -7652,10 +7666,10 @@
       <c r="A384">
         <v>357</v>
       </c>
-      <c r="B384" s="14" t="s">
+      <c r="B384" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C384" s="12" t="s">
+      <c r="C384" s="13" t="s">
         <v>381</v>
       </c>
       <c r="D384" s="6" t="s">
@@ -7666,10 +7680,10 @@
       <c r="A385">
         <v>358</v>
       </c>
-      <c r="B385" s="14" t="s">
+      <c r="B385" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C385" s="12" t="s">
+      <c r="C385" s="13" t="s">
         <v>382</v>
       </c>
       <c r="D385" s="6" t="s">
@@ -7680,10 +7694,10 @@
       <c r="A386">
         <v>359</v>
       </c>
-      <c r="B386" s="14" t="s">
+      <c r="B386" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C386" s="12" t="s">
+      <c r="C386" s="13" t="s">
         <v>383</v>
       </c>
       <c r="D386" s="6" t="s">
@@ -7694,10 +7708,10 @@
       <c r="A387">
         <v>360</v>
       </c>
-      <c r="B387" s="14" t="s">
+      <c r="B387" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C387" s="12" t="s">
+      <c r="C387" s="13" t="s">
         <v>384</v>
       </c>
       <c r="D387" s="6" t="s">
@@ -7708,10 +7722,10 @@
       <c r="A388">
         <v>361</v>
       </c>
-      <c r="B388" s="14" t="s">
+      <c r="B388" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C388" s="12" t="s">
+      <c r="C388" s="13" t="s">
         <v>385</v>
       </c>
       <c r="D388" s="6" t="s">
@@ -7722,10 +7736,10 @@
       <c r="A389">
         <v>362</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C389" s="12" t="s">
+      <c r="C389" s="13" t="s">
         <v>386</v>
       </c>
       <c r="D389" s="6" t="s">
@@ -7736,10 +7750,10 @@
       <c r="A390">
         <v>363</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C390" s="12" t="s">
+      <c r="C390" s="13" t="s">
         <v>386</v>
       </c>
       <c r="D390" s="6" t="s">
@@ -7750,10 +7764,10 @@
       <c r="A391">
         <v>364</v>
       </c>
-      <c r="B391" s="14" t="s">
+      <c r="B391" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C391" s="12" t="s">
+      <c r="C391" s="13" t="s">
         <v>387</v>
       </c>
       <c r="D391" s="6" t="s">
@@ -7764,10 +7778,10 @@
       <c r="A392">
         <v>365</v>
       </c>
-      <c r="B392" s="14" t="s">
+      <c r="B392" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C392" s="12" t="s">
+      <c r="C392" s="13" t="s">
         <v>388</v>
       </c>
       <c r="D392" s="6" t="s">
@@ -7778,10 +7792,10 @@
       <c r="A393">
         <v>366</v>
       </c>
-      <c r="B393" s="14" t="s">
+      <c r="B393" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C393" s="12" t="s">
+      <c r="C393" s="13" t="s">
         <v>389</v>
       </c>
       <c r="D393" s="6" t="s">
@@ -7792,10 +7806,10 @@
       <c r="A394">
         <v>367</v>
       </c>
-      <c r="B394" s="14" t="s">
+      <c r="B394" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C394" s="12" t="s">
+      <c r="C394" s="13" t="s">
         <v>390</v>
       </c>
       <c r="D394" s="6" t="s">
@@ -7806,10 +7820,10 @@
       <c r="A395">
         <v>368</v>
       </c>
-      <c r="B395" s="14" t="s">
+      <c r="B395" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C395" s="12" t="s">
+      <c r="C395" s="13" t="s">
         <v>391</v>
       </c>
       <c r="D395" s="6" t="s">
@@ -7820,10 +7834,10 @@
       <c r="A396">
         <v>369</v>
       </c>
-      <c r="B396" s="14" t="s">
+      <c r="B396" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C396" s="12" t="s">
+      <c r="C396" s="13" t="s">
         <v>392</v>
       </c>
       <c r="D396" s="6" t="s">
@@ -7834,10 +7848,10 @@
       <c r="A397">
         <v>370</v>
       </c>
-      <c r="B397" s="14" t="s">
+      <c r="B397" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C397" s="12" t="s">
+      <c r="C397" s="13" t="s">
         <v>393</v>
       </c>
       <c r="D397" s="6" t="s">
@@ -7848,10 +7862,10 @@
       <c r="A398">
         <v>371</v>
       </c>
-      <c r="B398" s="14" t="s">
+      <c r="B398" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C398" s="12" t="s">
+      <c r="C398" s="13" t="s">
         <v>394</v>
       </c>
       <c r="D398" s="6" t="s">
@@ -7862,10 +7876,10 @@
       <c r="A399">
         <v>372</v>
       </c>
-      <c r="B399" s="14" t="s">
+      <c r="B399" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C399" s="12" t="s">
+      <c r="C399" s="13" t="s">
         <v>395</v>
       </c>
       <c r="D399" s="6" t="s">
@@ -7873,21 +7887,21 @@
       </c>
     </row>
     <row r="400" ht="21" spans="3:4">
-      <c r="C400" s="13"/>
+      <c r="C400" s="14"/>
       <c r="D400" s="6"/>
     </row>
     <row r="401" ht="21" spans="3:4">
-      <c r="C401" s="13"/>
+      <c r="C401" s="14"/>
       <c r="D401" s="6"/>
     </row>
     <row r="402" ht="21" spans="1:4">
       <c r="A402">
         <v>373</v>
       </c>
-      <c r="B402" s="14" t="s">
+      <c r="B402" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C402" s="12" t="s">
+      <c r="C402" s="13" t="s">
         <v>397</v>
       </c>
       <c r="D402" s="6" t="s">
@@ -7898,10 +7912,10 @@
       <c r="A403">
         <v>374</v>
       </c>
-      <c r="B403" s="14" t="s">
+      <c r="B403" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C403" s="12" t="s">
+      <c r="C403" s="13" t="s">
         <v>398</v>
       </c>
       <c r="D403" s="6" t="s">
@@ -7912,10 +7926,10 @@
       <c r="A404">
         <v>375</v>
       </c>
-      <c r="B404" s="14" t="s">
+      <c r="B404" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C404" s="12" t="s">
+      <c r="C404" s="13" t="s">
         <v>399</v>
       </c>
       <c r="D404" s="6" t="s">
@@ -7926,10 +7940,10 @@
       <c r="A405">
         <v>376</v>
       </c>
-      <c r="B405" s="14" t="s">
+      <c r="B405" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C405" s="12" t="s">
+      <c r="C405" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D405" s="6" t="s">
@@ -7940,10 +7954,10 @@
       <c r="A406">
         <v>377</v>
       </c>
-      <c r="B406" s="14" t="s">
+      <c r="B406" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C406" s="12" t="s">
+      <c r="C406" s="13" t="s">
         <v>400</v>
       </c>
       <c r="D406" s="6" t="s">
@@ -7954,10 +7968,10 @@
       <c r="A407">
         <v>378</v>
       </c>
-      <c r="B407" s="14" t="s">
+      <c r="B407" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C407" s="12" t="s">
+      <c r="C407" s="13" t="s">
         <v>401</v>
       </c>
       <c r="D407" s="6" t="s">
@@ -7965,11 +7979,11 @@
       </c>
     </row>
     <row r="408" ht="21" spans="3:4">
-      <c r="C408" s="13"/>
+      <c r="C408" s="14"/>
       <c r="D408" s="6"/>
     </row>
     <row r="409" ht="21" spans="3:4">
-      <c r="C409" s="13"/>
+      <c r="C409" s="14"/>
       <c r="D409" s="6"/>
     </row>
     <row r="410" ht="21" spans="1:4">
@@ -7979,7 +7993,7 @@
       <c r="B410" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C410" s="12" t="s">
+      <c r="C410" s="13" t="s">
         <v>403</v>
       </c>
       <c r="D410" s="6" t="s">
@@ -7993,7 +8007,7 @@
       <c r="B411" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C411" s="12" t="s">
+      <c r="C411" s="13" t="s">
         <v>404</v>
       </c>
       <c r="D411" s="6" t="s">
@@ -8007,7 +8021,7 @@
       <c r="B412" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C412" s="12" t="s">
+      <c r="C412" s="13" t="s">
         <v>405</v>
       </c>
       <c r="D412" s="6" t="s">
@@ -8021,7 +8035,7 @@
       <c r="B413" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C413" s="12" t="s">
+      <c r="C413" s="13" t="s">
         <v>406</v>
       </c>
       <c r="D413" s="6" t="s">
@@ -8035,7 +8049,7 @@
       <c r="B414" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C414" s="12" t="s">
+      <c r="C414" s="13" t="s">
         <v>407</v>
       </c>
       <c r="D414" s="6" t="s">
@@ -8049,7 +8063,7 @@
       <c r="B415" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C415" s="12" t="s">
+      <c r="C415" s="13" t="s">
         <v>408</v>
       </c>
       <c r="D415" s="6" t="s">
@@ -8063,7 +8077,7 @@
       <c r="B416" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C416" s="12" t="s">
+      <c r="C416" s="13" t="s">
         <v>409</v>
       </c>
       <c r="D416" s="6" t="s">
@@ -8077,7 +8091,7 @@
       <c r="B417" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C417" s="12" t="s">
+      <c r="C417" s="13" t="s">
         <v>282</v>
       </c>
       <c r="D417" s="6" t="s">
@@ -8091,7 +8105,7 @@
       <c r="B418" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C418" s="12" t="s">
+      <c r="C418" s="13" t="s">
         <v>410</v>
       </c>
       <c r="D418" s="6" t="s">
@@ -8105,7 +8119,7 @@
       <c r="B419" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C419" s="12" t="s">
+      <c r="C419" s="13" t="s">
         <v>411</v>
       </c>
       <c r="D419" s="6" t="s">
@@ -8119,7 +8133,7 @@
       <c r="B420" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C420" s="12" t="s">
+      <c r="C420" s="13" t="s">
         <v>412</v>
       </c>
       <c r="D420" s="6" t="s">
@@ -8133,7 +8147,7 @@
       <c r="B421" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C421" s="12" t="s">
+      <c r="C421" s="13" t="s">
         <v>413</v>
       </c>
       <c r="D421" s="6" t="s">
@@ -8147,7 +8161,7 @@
       <c r="B422" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C422" s="12" t="s">
+      <c r="C422" s="13" t="s">
         <v>414</v>
       </c>
       <c r="D422" s="6" t="s">
@@ -8161,7 +8175,7 @@
       <c r="B423" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C423" s="12" t="s">
+      <c r="C423" s="13" t="s">
         <v>415</v>
       </c>
       <c r="D423" s="6" t="s">
@@ -8175,7 +8189,7 @@
       <c r="B424" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C424" s="12" t="s">
+      <c r="C424" s="13" t="s">
         <v>416</v>
       </c>
       <c r="D424" s="6" t="s">
@@ -8189,7 +8203,7 @@
       <c r="B425" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C425" s="12" t="s">
+      <c r="C425" s="13" t="s">
         <v>417</v>
       </c>
       <c r="D425" s="6" t="s">
@@ -8203,7 +8217,7 @@
       <c r="B426" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C426" s="12" t="s">
+      <c r="C426" s="13" t="s">
         <v>418</v>
       </c>
       <c r="D426" s="6" t="s">
@@ -8217,7 +8231,7 @@
       <c r="B427" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C427" s="12" t="s">
+      <c r="C427" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D427" s="6" t="s">
@@ -8231,7 +8245,7 @@
       <c r="B428" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C428" s="12" t="s">
+      <c r="C428" s="13" t="s">
         <v>420</v>
       </c>
       <c r="D428" s="6" t="s">
@@ -8245,7 +8259,7 @@
       <c r="B429" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C429" s="12" t="s">
+      <c r="C429" s="13" t="s">
         <v>421</v>
       </c>
       <c r="D429" s="6" t="s">
@@ -8259,7 +8273,7 @@
       <c r="B430" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C430" s="12" t="s">
+      <c r="C430" s="13" t="s">
         <v>422</v>
       </c>
       <c r="D430" s="6" t="s">
@@ -8273,7 +8287,7 @@
       <c r="B431" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C431" s="12" t="s">
+      <c r="C431" s="13" t="s">
         <v>423</v>
       </c>
       <c r="D431" s="6" t="s">
@@ -8287,7 +8301,7 @@
       <c r="B432" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C432" s="12" t="s">
+      <c r="C432" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D432" s="6" t="s">
@@ -8301,7 +8315,7 @@
       <c r="B433" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C433" s="12" t="s">
+      <c r="C433" s="13" t="s">
         <v>425</v>
       </c>
       <c r="D433" s="6" t="s">
@@ -8315,7 +8329,7 @@
       <c r="B434" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C434" s="12" t="s">
+      <c r="C434" s="13" t="s">
         <v>426</v>
       </c>
       <c r="D434" s="6" t="s">
@@ -8329,7 +8343,7 @@
       <c r="B435" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C435" s="12" t="s">
+      <c r="C435" s="13" t="s">
         <v>427</v>
       </c>
       <c r="D435" s="6" t="s">
@@ -8343,7 +8357,7 @@
       <c r="B436" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C436" s="12" t="s">
+      <c r="C436" s="13" t="s">
         <v>428</v>
       </c>
       <c r="D436" s="6" t="s">
@@ -8357,7 +8371,7 @@
       <c r="B437" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C437" s="12" t="s">
+      <c r="C437" s="13" t="s">
         <v>429</v>
       </c>
       <c r="D437" s="6" t="s">
@@ -8371,7 +8385,7 @@
       <c r="B438" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C438" s="12" t="s">
+      <c r="C438" s="13" t="s">
         <v>430</v>
       </c>
       <c r="D438" s="6" t="s">
@@ -8385,7 +8399,7 @@
       <c r="B439" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C439" s="12" t="s">
+      <c r="C439" s="13" t="s">
         <v>431</v>
       </c>
       <c r="D439" s="6" t="s">
@@ -8399,7 +8413,7 @@
       <c r="B440" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C440" s="12" t="s">
+      <c r="C440" s="13" t="s">
         <v>432</v>
       </c>
       <c r="D440" s="6" t="s">
@@ -8413,7 +8427,7 @@
       <c r="B441" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C441" s="12" t="s">
+      <c r="C441" s="13" t="s">
         <v>433</v>
       </c>
       <c r="D441" s="6" t="s">
@@ -8427,7 +8441,7 @@
       <c r="B442" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C442" s="12" t="s">
+      <c r="C442" s="13" t="s">
         <v>434</v>
       </c>
       <c r="D442" s="6" t="s">
@@ -8441,7 +8455,7 @@
       <c r="B443" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C443" s="12" t="s">
+      <c r="C443" s="13" t="s">
         <v>435</v>
       </c>
       <c r="D443" s="6" t="s">
@@ -8455,7 +8469,7 @@
       <c r="B444" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C444" s="12" t="s">
+      <c r="C444" s="13" t="s">
         <v>436</v>
       </c>
       <c r="D444" s="6" t="s">
@@ -8469,7 +8483,7 @@
       <c r="B445" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C445" s="12" t="s">
+      <c r="C445" s="13" t="s">
         <v>437</v>
       </c>
       <c r="D445" s="6" t="s">
@@ -8483,7 +8497,7 @@
       <c r="B446" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C446" s="12" t="s">
+      <c r="C446" s="13" t="s">
         <v>438</v>
       </c>
       <c r="D446" s="6" t="s">
@@ -8497,7 +8511,7 @@
       <c r="B447" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C447" s="12" t="s">
+      <c r="C447" s="13" t="s">
         <v>439</v>
       </c>
       <c r="D447" s="6" t="s">
@@ -8511,7 +8525,7 @@
       <c r="B448" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C448" s="12" t="s">
+      <c r="C448" s="13" t="s">
         <v>440</v>
       </c>
       <c r="D448" s="6" t="s">
@@ -8525,7 +8539,7 @@
       <c r="B449" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C449" s="12" t="s">
+      <c r="C449" s="13" t="s">
         <v>441</v>
       </c>
       <c r="D449" s="6" t="s">
@@ -8539,7 +8553,7 @@
       <c r="B450" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C450" s="12" t="s">
+      <c r="C450" s="13" t="s">
         <v>442</v>
       </c>
       <c r="D450" s="6" t="s">
@@ -8553,7 +8567,7 @@
       <c r="B451" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C451" s="12" t="s">
+      <c r="C451" s="13" t="s">
         <v>443</v>
       </c>
       <c r="D451" s="6" t="s">
@@ -8567,7 +8581,7 @@
       <c r="B452" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C452" s="12" t="s">
+      <c r="C452" s="13" t="s">
         <v>444</v>
       </c>
       <c r="D452" s="6" t="s">
@@ -8581,7 +8595,7 @@
       <c r="B453" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C453" s="12" t="s">
+      <c r="C453" s="13" t="s">
         <v>445</v>
       </c>
       <c r="D453" s="6" t="s">
@@ -8595,7 +8609,7 @@
       <c r="B454" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C454" s="12" t="s">
+      <c r="C454" s="13" t="s">
         <v>446</v>
       </c>
       <c r="D454" s="6" t="s">
@@ -8609,7 +8623,7 @@
       <c r="B455" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C455" s="12" t="s">
+      <c r="C455" s="13" t="s">
         <v>447</v>
       </c>
       <c r="D455" s="6" t="s">
@@ -8623,7 +8637,7 @@
       <c r="B456" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C456" s="12" t="s">
+      <c r="C456" s="13" t="s">
         <v>448</v>
       </c>
       <c r="D456" s="6" t="s">
@@ -8637,7 +8651,7 @@
       <c r="B457" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C457" s="12" t="s">
+      <c r="C457" s="13" t="s">
         <v>449</v>
       </c>
       <c r="D457" s="6" t="s">
@@ -8651,7 +8665,7 @@
       <c r="B458" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C458" s="12" t="s">
+      <c r="C458" s="13" t="s">
         <v>450</v>
       </c>
       <c r="D458" s="6" t="s">
@@ -8665,7 +8679,7 @@
       <c r="B459" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C459" s="12" t="s">
+      <c r="C459" s="13" t="s">
         <v>451</v>
       </c>
       <c r="D459" s="6" t="s">
@@ -8679,7 +8693,7 @@
       <c r="B460" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C460" s="12" t="s">
+      <c r="C460" s="13" t="s">
         <v>452</v>
       </c>
       <c r="D460" s="6" t="s">
@@ -8693,7 +8707,7 @@
       <c r="B461" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C461" s="12" t="s">
+      <c r="C461" s="13" t="s">
         <v>453</v>
       </c>
       <c r="D461" s="6" t="s">
@@ -8707,7 +8721,7 @@
       <c r="B462" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C462" s="12" t="s">
+      <c r="C462" s="13" t="s">
         <v>454</v>
       </c>
       <c r="D462" s="6" t="s">
@@ -8721,7 +8735,7 @@
       <c r="B463" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C463" s="12" t="s">
+      <c r="C463" s="13" t="s">
         <v>455</v>
       </c>
       <c r="D463" s="6" t="s">
@@ -8735,7 +8749,7 @@
       <c r="B464" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C464" s="12" t="s">
+      <c r="C464" s="13" t="s">
         <v>456</v>
       </c>
       <c r="D464" s="6" t="s">
@@ -8749,7 +8763,7 @@
       <c r="B465" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C465" s="12" t="s">
+      <c r="C465" s="13" t="s">
         <v>457</v>
       </c>
       <c r="D465" s="6" t="s">
@@ -8763,7 +8777,7 @@
       <c r="B466" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C466" s="12" t="s">
+      <c r="C466" s="13" t="s">
         <v>458</v>
       </c>
       <c r="D466" s="6" t="s">
@@ -8777,7 +8791,7 @@
       <c r="B467" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C467" s="12" t="s">
+      <c r="C467" s="13" t="s">
         <v>459</v>
       </c>
       <c r="D467" s="6" t="s">
@@ -8791,7 +8805,7 @@
       <c r="B468" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C468" s="12" t="s">
+      <c r="C468" s="13" t="s">
         <v>460</v>
       </c>
       <c r="D468" s="6" t="s">
@@ -8805,7 +8819,7 @@
       <c r="B469" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="C469" s="12" t="s">
+      <c r="C469" s="13" t="s">
         <v>461</v>
       </c>
       <c r="D469" s="6" t="s">
@@ -8813,12 +8827,12 @@
       </c>
     </row>
     <row r="470" ht="21" spans="3:4">
-      <c r="C470" s="13"/>
+      <c r="C470" s="14"/>
       <c r="D470" s="6"/>
     </row>
     <row r="471" ht="21" spans="2:4">
-      <c r="B471" s="14"/>
-      <c r="C471" s="13"/>
+      <c r="B471" s="15"/>
+      <c r="C471" s="14"/>
       <c r="D471" s="6"/>
     </row>
     <row r="472" ht="21" spans="1:4">
@@ -8828,7 +8842,7 @@
       <c r="B472" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C472" s="12" t="s">
+      <c r="C472" s="13" t="s">
         <v>463</v>
       </c>
       <c r="D472" s="6" t="s">
@@ -8842,7 +8856,7 @@
       <c r="B473" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C473" s="12" t="s">
+      <c r="C473" s="13" t="s">
         <v>464</v>
       </c>
       <c r="D473" s="6" t="s">
@@ -8856,7 +8870,7 @@
       <c r="B474" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C474" s="12" t="s">
+      <c r="C474" s="13" t="s">
         <v>465</v>
       </c>
       <c r="D474" s="6" t="s">
@@ -8870,7 +8884,7 @@
       <c r="B475" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C475" s="12" t="s">
+      <c r="C475" s="13" t="s">
         <v>466</v>
       </c>
       <c r="D475" s="6" t="s">
@@ -8884,7 +8898,7 @@
       <c r="B476" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C476" s="12" t="s">
+      <c r="C476" s="13" t="s">
         <v>467</v>
       </c>
       <c r="D476" s="6" t="s">
@@ -8898,7 +8912,7 @@
       <c r="B477" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C477" s="12" t="s">
+      <c r="C477" s="13" t="s">
         <v>468</v>
       </c>
       <c r="D477" s="6" t="s">
@@ -8912,7 +8926,7 @@
       <c r="B478" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C478" s="12" t="s">
+      <c r="C478" s="13" t="s">
         <v>469</v>
       </c>
       <c r="D478" s="6" t="s">
@@ -8926,7 +8940,7 @@
       <c r="B479" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C479" s="12" t="s">
+      <c r="C479" s="13" t="s">
         <v>470</v>
       </c>
       <c r="D479" s="6" t="s">
@@ -8940,7 +8954,7 @@
       <c r="B480" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C480" s="12" t="s">
+      <c r="C480" s="13" t="s">
         <v>471</v>
       </c>
       <c r="D480" s="6" t="s">
@@ -8954,7 +8968,7 @@
       <c r="B481" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C481" s="12" t="s">
+      <c r="C481" s="13" t="s">
         <v>472</v>
       </c>
       <c r="D481" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="473">
   <si>
     <t>DSA</t>
   </si>
@@ -1440,8 +1440,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -1540,7 +1540,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1561,37 +1575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1607,16 +1590,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,6 +1629,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1639,37 +1646,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,162 +1702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1870,7 +1714,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,7 +1804,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,17 +1929,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1951,6 +1940,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1987,155 +1985,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2731,7 +2731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:4">
+    <row r="16" ht="21" spans="1:6">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2741,8 +2741,14 @@
       <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:4">
@@ -2814,7 +2820,7 @@
       <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1441,9 +1441,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1533,14 +1533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,13 +1541,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1577,14 +1563,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,54 +1633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,17 +1646,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,25 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,7 +1732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,7 +1744,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,73 +1846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,49 +1864,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,41 +1905,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,6 +1940,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1985,157 +1987,155 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A505" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2806,7 +2806,7 @@
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="473">
   <si>
     <t>DSA</t>
   </si>
@@ -1440,10 +1440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1533,6 +1533,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1540,7 +1547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1558,6 +1565,52 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1587,7 +1640,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,39 +1654,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,28 +1663,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,7 +1702,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,7 +1762,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,163 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,6 +1905,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1916,11 +1931,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1940,32 +1961,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,154 +1988,154 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2813,7 +2813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" ht="21" spans="1:4">
+    <row r="21" ht="21" spans="1:6">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2823,8 +2823,14 @@
       <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
+      <c r="D21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10">
+        <v>44184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="473">
   <si>
     <t>DSA</t>
   </si>
@@ -1440,10 +1440,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1533,7 +1533,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,7 +1547,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,7 +1577,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1578,37 +1585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,9 +1615,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,15 +1637,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,6 +1702,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1714,31 +1744,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,25 +1846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,85 +1870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,13 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,7 +1899,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1922,11 +1942,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,30 +1980,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1984,158 +1993,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2495,7 +2495,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2833,7 +2833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="21" spans="1:4">
+    <row r="22" ht="21" spans="1:6">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2843,8 +2843,14 @@
       <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10">
+        <v>44184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="474">
   <si>
     <t>DSA</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>O(n1+n2+n3)</t>
   </si>
   <si>
     <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
@@ -1540,14 +1543,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,17 +1579,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,15 +1610,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,10 +1635,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1652,24 +1664,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,19 +1705,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,37 +1831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,43 +1849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,61 +1873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,11 +1899,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,17 +1918,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1942,24 +1940,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,23 +1974,32 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2014,128 +2017,128 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2495,7 +2498,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2867,18 +2870,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="21" spans="1:4">
+    <row r="24" ht="21" spans="1:6">
       <c r="A24">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="10">
+        <v>44184</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:4">
@@ -2889,7 +2898,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
@@ -2903,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>6</v>
@@ -2917,7 +2926,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>6</v>
@@ -2931,7 +2940,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>6</v>
@@ -2945,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>6</v>
@@ -2959,7 +2968,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>6</v>
@@ -2973,7 +2982,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>6</v>
@@ -2987,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>6</v>
@@ -3001,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>6</v>
@@ -3015,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>6</v>
@@ -3029,7 +3038,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -3043,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -3057,7 +3066,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
@@ -3071,7 +3080,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -3085,7 +3094,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>6</v>
@@ -3099,7 +3108,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
@@ -3113,7 +3122,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>6</v>
@@ -3137,10 +3146,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
@@ -3151,10 +3160,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -3165,10 +3174,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>6</v>
@@ -3179,10 +3188,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>6</v>
@@ -3193,10 +3202,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
@@ -3207,10 +3216,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>6</v>
@@ -3221,10 +3230,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>6</v>
@@ -3235,10 +3244,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>6</v>
@@ -3249,10 +3258,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>6</v>
@@ -3263,10 +3272,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>6</v>
@@ -3282,10 +3291,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3296,10 +3305,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>6</v>
@@ -3310,10 +3319,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>6</v>
@@ -3324,10 +3333,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>6</v>
@@ -3338,10 +3347,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
@@ -3352,10 +3361,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>6</v>
@@ -3366,10 +3375,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>6</v>
@@ -3380,10 +3389,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>6</v>
@@ -3394,10 +3403,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>6</v>
@@ -3408,10 +3417,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -3422,10 +3431,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>6</v>
@@ -3436,10 +3445,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>6</v>
@@ -3450,10 +3459,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>6</v>
@@ -3464,10 +3473,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>6</v>
@@ -3478,10 +3487,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>6</v>
@@ -3492,10 +3501,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>6</v>
@@ -3506,10 +3515,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>6</v>
@@ -3520,10 +3529,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
@@ -3534,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>6</v>
@@ -3548,10 +3557,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -3562,10 +3571,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>6</v>
@@ -3576,10 +3585,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>6</v>
@@ -3590,10 +3599,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>6</v>
@@ -3604,10 +3613,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>6</v>
@@ -3618,10 +3627,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>6</v>
@@ -3632,10 +3641,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>6</v>
@@ -3646,10 +3655,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>6</v>
@@ -3660,10 +3669,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>6</v>
@@ -3674,10 +3683,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>6</v>
@@ -3688,10 +3697,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -3702,10 +3711,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>6</v>
@@ -3716,10 +3725,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
@@ -3730,10 +3739,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>6</v>
@@ -3744,10 +3753,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>6</v>
@@ -3758,10 +3767,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>6</v>
@@ -3772,10 +3781,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>6</v>
@@ -3786,10 +3795,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>6</v>
@@ -3800,10 +3809,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>6</v>
@@ -3814,10 +3823,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>6</v>
@@ -3828,10 +3837,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -3842,10 +3851,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
@@ -3856,10 +3865,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>6</v>
@@ -3870,10 +3879,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>6</v>
@@ -3889,10 +3898,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>6</v>
@@ -3903,10 +3912,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
@@ -3917,10 +3926,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>6</v>
@@ -3931,10 +3940,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>6</v>
@@ -3945,10 +3954,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -3959,10 +3968,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
@@ -3973,10 +3982,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>6</v>
@@ -3987,10 +3996,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
@@ -4001,10 +4010,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>6</v>
@@ -4015,10 +4024,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>6</v>
@@ -4029,10 +4038,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>6</v>
@@ -4043,10 +4052,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
@@ -4057,10 +4066,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>6</v>
@@ -4071,10 +4080,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>6</v>
@@ -4085,10 +4094,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -4099,10 +4108,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
@@ -4113,10 +4122,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>6</v>
@@ -4127,10 +4136,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>6</v>
@@ -4141,10 +4150,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>6</v>
@@ -4155,10 +4164,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>6</v>
@@ -4169,10 +4178,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>6</v>
@@ -4183,10 +4192,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
@@ -4197,10 +4206,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
@@ -4211,10 +4220,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>6</v>
@@ -4225,10 +4234,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -4239,10 +4248,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
@@ -4253,10 +4262,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>6</v>
@@ -4267,10 +4276,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>6</v>
@@ -4281,10 +4290,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
@@ -4295,10 +4304,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>6</v>
@@ -4309,10 +4318,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>6</v>
@@ -4323,10 +4332,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>6</v>
@@ -4337,10 +4346,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
@@ -4351,10 +4360,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>6</v>
@@ -4365,10 +4374,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -4379,10 +4388,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
@@ -4397,10 +4406,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>6</v>
@@ -4411,10 +4420,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>6</v>
@@ -4425,10 +4434,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>6</v>
@@ -4439,10 +4448,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -4453,10 +4462,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>6</v>
@@ -4467,10 +4476,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>6</v>
@@ -4481,10 +4490,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -4495,10 +4504,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>6</v>
@@ -4509,10 +4518,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>6</v>
@@ -4523,10 +4532,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>6</v>
@@ -4537,10 +4546,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>6</v>
@@ -4551,10 +4560,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>6</v>
@@ -4565,10 +4574,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>6</v>
@@ -4579,10 +4588,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>6</v>
@@ -4593,10 +4602,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>6</v>
@@ -4607,10 +4616,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>6</v>
@@ -4621,10 +4630,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -4635,10 +4644,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>6</v>
@@ -4649,10 +4658,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>6</v>
@@ -4663,10 +4672,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>6</v>
@@ -4677,10 +4686,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>6</v>
@@ -4691,10 +4700,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>6</v>
@@ -4705,10 +4714,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>6</v>
@@ -4719,10 +4728,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>6</v>
@@ -4733,10 +4742,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>6</v>
@@ -4747,10 +4756,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>6</v>
@@ -4761,10 +4770,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -4775,10 +4784,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>6</v>
@@ -4789,10 +4798,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>6</v>
@@ -4803,10 +4812,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
@@ -4817,10 +4826,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>6</v>
@@ -4831,10 +4840,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>6</v>
@@ -4845,10 +4854,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>6</v>
@@ -4859,10 +4868,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>6</v>
@@ -4873,10 +4882,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>6</v>
@@ -4887,10 +4896,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
@@ -4905,10 +4914,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
@@ -4919,10 +4928,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>6</v>
@@ -4933,10 +4942,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>6</v>
@@ -4947,10 +4956,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>6</v>
@@ -4961,10 +4970,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>6</v>
@@ -4975,10 +4984,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>6</v>
@@ -4989,10 +4998,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>6</v>
@@ -5003,10 +5012,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>6</v>
@@ -5017,10 +5026,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>6</v>
@@ -5031,10 +5040,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>6</v>
@@ -5045,10 +5054,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>6</v>
@@ -5059,10 +5068,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>6</v>
@@ -5073,10 +5082,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>6</v>
@@ -5087,10 +5096,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>6</v>
@@ -5101,10 +5110,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>6</v>
@@ -5115,10 +5124,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>6</v>
@@ -5129,10 +5138,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>6</v>
@@ -5143,10 +5152,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>6</v>
@@ -5157,10 +5166,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>6</v>
@@ -5171,10 +5180,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>6</v>
@@ -5185,10 +5194,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>6</v>
@@ -5199,10 +5208,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>6</v>
@@ -5213,10 +5222,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>6</v>
@@ -5227,10 +5236,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>6</v>
@@ -5241,10 +5250,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>6</v>
@@ -5255,10 +5264,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>6</v>
@@ -5269,10 +5278,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>6</v>
@@ -5283,10 +5292,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>6</v>
@@ -5297,10 +5306,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>6</v>
@@ -5311,10 +5320,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>6</v>
@@ -5325,10 +5334,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>6</v>
@@ -5339,10 +5348,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>6</v>
@@ -5353,10 +5362,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>6</v>
@@ -5367,10 +5376,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>6</v>
@@ -5381,10 +5390,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>6</v>
@@ -5405,10 +5414,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>6</v>
@@ -5419,10 +5428,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>6</v>
@@ -5433,10 +5442,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>6</v>
@@ -5447,10 +5456,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>6</v>
@@ -5461,10 +5470,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
@@ -5475,10 +5484,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>6</v>
@@ -5489,10 +5498,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>6</v>
@@ -5503,10 +5512,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>6</v>
@@ -5517,10 +5526,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>6</v>
@@ -5531,10 +5540,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>6</v>
@@ -5545,10 +5554,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>6</v>
@@ -5559,10 +5568,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>6</v>
@@ -5573,10 +5582,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>6</v>
@@ -5587,10 +5596,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>6</v>
@@ -5601,10 +5610,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>6</v>
@@ -5615,10 +5624,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>6</v>
@@ -5629,10 +5638,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>6</v>
@@ -5643,10 +5652,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>6</v>
@@ -5657,10 +5666,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>6</v>
@@ -5671,10 +5680,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>6</v>
@@ -5685,10 +5694,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>6</v>
@@ -5699,10 +5708,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>6</v>
@@ -5721,10 +5730,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>6</v>
@@ -5735,10 +5744,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>6</v>
@@ -5749,10 +5758,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>6</v>
@@ -5763,10 +5772,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6</v>
@@ -5777,10 +5786,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>6</v>
@@ -5791,10 +5800,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>6</v>
@@ -5805,10 +5814,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>6</v>
@@ -5819,10 +5828,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>6</v>
@@ -5833,10 +5842,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>6</v>
@@ -5847,10 +5856,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>6</v>
@@ -5861,10 +5870,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>6</v>
@@ -5875,10 +5884,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>6</v>
@@ -5889,10 +5898,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>6</v>
@@ -5903,10 +5912,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>6</v>
@@ -5917,10 +5926,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>6</v>
@@ -5931,10 +5940,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>6</v>
@@ -5945,10 +5954,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>6</v>
@@ -5959,10 +5968,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>6</v>
@@ -5973,10 +5982,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>6</v>
@@ -5987,10 +5996,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>6</v>
@@ -6001,10 +6010,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>6</v>
@@ -6015,10 +6024,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>6</v>
@@ -6029,10 +6038,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>6</v>
@@ -6043,10 +6052,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>6</v>
@@ -6057,10 +6066,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>6</v>
@@ -6071,10 +6080,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>6</v>
@@ -6085,10 +6094,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>6</v>
@@ -6099,10 +6108,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>6</v>
@@ -6113,10 +6122,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>6</v>
@@ -6127,10 +6136,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>6</v>
@@ -6141,10 +6150,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>6</v>
@@ -6155,10 +6164,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>6</v>
@@ -6169,10 +6178,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>6</v>
@@ -6183,10 +6192,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>6</v>
@@ -6197,10 +6206,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>6</v>
@@ -6219,10 +6228,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>6</v>
@@ -6233,10 +6242,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>6</v>
@@ -6247,10 +6256,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>6</v>
@@ -6261,10 +6270,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>6</v>
@@ -6275,10 +6284,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>6</v>
@@ -6289,10 +6298,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6303,10 +6312,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>6</v>
@@ -6317,10 +6326,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>6</v>
@@ -6331,10 +6340,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6345,10 +6354,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>6</v>
@@ -6359,10 +6368,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>6</v>
@@ -6373,10 +6382,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>6</v>
@@ -6387,10 +6396,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>6</v>
@@ -6401,10 +6410,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>6</v>
@@ -6415,10 +6424,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>6</v>
@@ -6429,10 +6438,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>6</v>
@@ -6443,10 +6452,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>6</v>
@@ -6457,10 +6466,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>6</v>
@@ -6471,10 +6480,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>6</v>
@@ -6493,10 +6502,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>6</v>
@@ -6507,10 +6516,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>6</v>
@@ -6521,10 +6530,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>6</v>
@@ -6535,10 +6544,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>6</v>
@@ -6549,10 +6558,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>6</v>
@@ -6563,10 +6572,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>6</v>
@@ -6577,10 +6586,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>6</v>
@@ -6591,10 +6600,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>6</v>
@@ -6605,10 +6614,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>6</v>
@@ -6619,10 +6628,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>6</v>
@@ -6633,10 +6642,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>6</v>
@@ -6647,10 +6656,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>6</v>
@@ -6661,10 +6670,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>6</v>
@@ -6675,10 +6684,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>6</v>
@@ -6689,10 +6698,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>6</v>
@@ -6703,10 +6712,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>6</v>
@@ -6717,10 +6726,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>6</v>
@@ -6731,10 +6740,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>6</v>
@@ -6745,10 +6754,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>6</v>
@@ -6759,10 +6768,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>6</v>
@@ -6773,10 +6782,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>6</v>
@@ -6787,10 +6796,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>6</v>
@@ -6801,10 +6810,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>6</v>
@@ -6815,10 +6824,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>6</v>
@@ -6829,10 +6838,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>6</v>
@@ -6843,10 +6852,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>6</v>
@@ -6857,10 +6866,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>6</v>
@@ -6871,10 +6880,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>6</v>
@@ -6885,10 +6894,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>6</v>
@@ -6899,10 +6908,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>6</v>
@@ -6913,10 +6922,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>6</v>
@@ -6927,10 +6936,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>6</v>
@@ -6941,10 +6950,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>6</v>
@@ -6955,10 +6964,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>6</v>
@@ -6969,10 +6978,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>6</v>
@@ -6983,10 +6992,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>6</v>
@@ -6997,10 +7006,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>6</v>
@@ -7011,10 +7020,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>6</v>
@@ -7033,10 +7042,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>6</v>
@@ -7047,10 +7056,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>6</v>
@@ -7061,10 +7070,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>6</v>
@@ -7075,10 +7084,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>6</v>
@@ -7089,10 +7098,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>6</v>
@@ -7103,10 +7112,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>6</v>
@@ -7117,10 +7126,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>6</v>
@@ -7131,10 +7140,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>6</v>
@@ -7145,10 +7154,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>6</v>
@@ -7159,10 +7168,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>6</v>
@@ -7173,10 +7182,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>6</v>
@@ -7187,10 +7196,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>6</v>
@@ -7201,10 +7210,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>6</v>
@@ -7215,10 +7224,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>6</v>
@@ -7229,10 +7238,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>6</v>
@@ -7243,10 +7252,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>6</v>
@@ -7257,10 +7266,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>6</v>
@@ -7271,10 +7280,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>6</v>
@@ -7293,10 +7302,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>6</v>
@@ -7307,10 +7316,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>6</v>
@@ -7321,10 +7330,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>6</v>
@@ -7335,10 +7344,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>6</v>
@@ -7349,10 +7358,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>6</v>
@@ -7363,10 +7372,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>6</v>
@@ -7377,10 +7386,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>6</v>
@@ -7391,10 +7400,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>6</v>
@@ -7405,10 +7414,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>6</v>
@@ -7419,10 +7428,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>6</v>
@@ -7433,10 +7442,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>6</v>
@@ -7447,10 +7456,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>6</v>
@@ -7461,10 +7470,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>6</v>
@@ -7475,10 +7484,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>6</v>
@@ -7489,10 +7498,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>6</v>
@@ -7503,10 +7512,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>6</v>
@@ -7517,10 +7526,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>6</v>
@@ -7531,10 +7540,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>6</v>
@@ -7545,10 +7554,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>6</v>
@@ -7559,10 +7568,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>6</v>
@@ -7573,10 +7582,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>6</v>
@@ -7587,10 +7596,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>6</v>
@@ -7601,10 +7610,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>6</v>
@@ -7615,10 +7624,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>6</v>
@@ -7629,10 +7638,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>6</v>
@@ -7643,10 +7652,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>6</v>
@@ -7657,10 +7666,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>6</v>
@@ -7671,10 +7680,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>6</v>
@@ -7685,10 +7694,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>6</v>
@@ -7699,10 +7708,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>6</v>
@@ -7713,10 +7722,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>6</v>
@@ -7727,10 +7736,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>6</v>
@@ -7741,10 +7750,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>6</v>
@@ -7755,10 +7764,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>6</v>
@@ -7769,10 +7778,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>6</v>
@@ -7783,10 +7792,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>6</v>
@@ -7797,10 +7806,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>6</v>
@@ -7811,10 +7820,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>6</v>
@@ -7825,10 +7834,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>6</v>
@@ -7839,10 +7848,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>6</v>
@@ -7853,10 +7862,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>6</v>
@@ -7867,10 +7876,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C397" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>6</v>
@@ -7881,10 +7890,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>6</v>
@@ -7895,10 +7904,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>6</v>
@@ -7917,10 +7926,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>6</v>
@@ -7931,10 +7940,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>6</v>
@@ -7945,10 +7954,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>6</v>
@@ -7959,10 +7968,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>6</v>
@@ -7973,10 +7982,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>6</v>
@@ -7987,10 +7996,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>6</v>
@@ -8009,10 +8018,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C410" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>6</v>
@@ -8023,10 +8032,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>6</v>
@@ -8037,10 +8046,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>6</v>
@@ -8051,10 +8060,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>6</v>
@@ -8065,10 +8074,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>6</v>
@@ -8079,10 +8088,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>6</v>
@@ -8093,10 +8102,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>6</v>
@@ -8107,10 +8116,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>6</v>
@@ -8121,10 +8130,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>6</v>
@@ -8135,10 +8144,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>6</v>
@@ -8149,10 +8158,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>6</v>
@@ -8163,10 +8172,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>6</v>
@@ -8177,10 +8186,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>6</v>
@@ -8191,10 +8200,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>6</v>
@@ -8205,10 +8214,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>6</v>
@@ -8219,10 +8228,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>6</v>
@@ -8233,10 +8242,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>6</v>
@@ -8247,10 +8256,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>6</v>
@@ -8261,10 +8270,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>6</v>
@@ -8275,10 +8284,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>6</v>
@@ -8289,10 +8298,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>6</v>
@@ -8303,10 +8312,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>6</v>
@@ -8317,10 +8326,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>6</v>
@@ -8331,10 +8340,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>6</v>
@@ -8345,10 +8354,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>6</v>
@@ -8359,10 +8368,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>6</v>
@@ -8373,10 +8382,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>6</v>
@@ -8387,10 +8396,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>6</v>
@@ -8401,10 +8410,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>6</v>
@@ -8415,10 +8424,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>6</v>
@@ -8429,10 +8438,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>6</v>
@@ -8443,10 +8452,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>6</v>
@@ -8457,10 +8466,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>6</v>
@@ -8471,10 +8480,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>6</v>
@@ -8485,10 +8494,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>6</v>
@@ -8499,10 +8508,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>6</v>
@@ -8513,10 +8522,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>6</v>
@@ -8527,10 +8536,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>6</v>
@@ -8541,10 +8550,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>6</v>
@@ -8555,10 +8564,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>6</v>
@@ -8569,10 +8578,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>6</v>
@@ -8583,10 +8592,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>6</v>
@@ -8597,10 +8606,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>6</v>
@@ -8611,10 +8620,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>6</v>
@@ -8625,10 +8634,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C454" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>6</v>
@@ -8639,10 +8648,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C455" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>6</v>
@@ -8653,10 +8662,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C456" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>6</v>
@@ -8667,10 +8676,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>6</v>
@@ -8681,10 +8690,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C458" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>6</v>
@@ -8695,10 +8704,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>6</v>
@@ -8709,10 +8718,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>6</v>
@@ -8723,10 +8732,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>6</v>
@@ -8737,10 +8746,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>6</v>
@@ -8751,10 +8760,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>6</v>
@@ -8765,10 +8774,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>6</v>
@@ -8779,10 +8788,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>6</v>
@@ -8793,10 +8802,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>6</v>
@@ -8807,10 +8816,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>6</v>
@@ -8821,10 +8830,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C468" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>6</v>
@@ -8835,10 +8844,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>6</v>
@@ -8858,10 +8867,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C472" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>6</v>
@@ -8872,10 +8881,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>6</v>
@@ -8886,10 +8895,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C474" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>6</v>
@@ -8900,10 +8909,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C475" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>6</v>
@@ -8914,10 +8923,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>6</v>
@@ -8928,10 +8937,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>6</v>
@@ -8942,10 +8951,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>6</v>
@@ -8956,10 +8965,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>6</v>
@@ -8970,10 +8979,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C480" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>6</v>
@@ -8984,10 +8993,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>6</v>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="474">
   <si>
     <t>DSA</t>
   </si>
@@ -1536,22 +1536,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,8 +1571,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,9 +1588,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,17 +1626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1634,9 +1641,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,28 +1664,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,43 +1705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1759,7 +1741,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,120 +1889,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1899,17 +1899,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1938,26 +1932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1969,6 +1943,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1990,155 +1988,157 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D457" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2863,7 +2863,7 @@
       <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -2925,7 +2925,7 @@
       <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3016,18 +3016,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="21" spans="1:4">
+    <row r="34" ht="21" spans="1:6">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>6</v>
+      <c r="D34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="10">
+        <v>44187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="474">
   <si>
     <t>DSA</t>
   </si>
@@ -1443,10 +1443,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1536,20 +1536,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1579,60 +1565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1641,8 +1573,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,9 +1603,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,19 +1705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,13 +1753,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,25 +1783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1789,49 +1819,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,25 +1867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,19 +1879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,8 +1902,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1912,21 +1912,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1948,30 +1948,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1982,6 +1958,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1999,146 +1999,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="D457" sqref="D457"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3092,18 +3092,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="21" spans="1:4">
+    <row r="39" ht="21" spans="1:6">
       <c r="A39">
         <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>6</v>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="10">
+        <v>44189</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18210" windowHeight="7710"/>
+    <workbookView windowWidth="18210" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,6 +1549,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1557,61 +1564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,9 +1581,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1640,16 +1603,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1663,16 +1664,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,37 +1705,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,13 +1771,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,121 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,11 +1908,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1932,60 +1986,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1999,7 +1999,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2017,128 +2017,128 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2147,7 +2147,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,7 +2159,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2168,12 +2168,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2185,12 +2185,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -2497,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C352" sqref="A336:D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1444,9 +1444,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1536,7 +1536,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,11 +1556,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1574,14 +1581,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,32 +1618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1634,8 +1633,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1648,9 +1663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,20 +1673,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,42 +1705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1753,7 +1717,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1771,7 +1753,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,109 +1879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,11 +1899,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,17 +1938,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,24 +1958,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1988,6 +1979,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1999,7 +1999,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2018,127 +2018,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,8 +2497,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C352" sqref="A336:D353"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3119,7 +3119,7 @@
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D40" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>O(N*N)</t>
   </si>
   <si>
     <t>Trapping Rain water problem</t>
@@ -1443,9 +1446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -1536,7 +1539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,21 +1549,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,11 +1567,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1604,7 +1591,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,8 +1605,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1642,7 +1653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,22 +1668,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,7 +1708,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,43 +1840,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,121 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,30 +1899,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1943,6 +1922,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,27 +1999,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2018,127 +2021,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2497,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3002,18 +3005,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="21" spans="1:4">
+    <row r="33" ht="21" spans="1:6">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>6</v>
+      <c r="D33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10">
+        <v>44193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:6">
@@ -3024,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>9</v>
@@ -3044,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>6</v>
@@ -3058,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>6</v>
@@ -3072,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>6</v>
@@ -3086,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>6</v>
@@ -3100,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>9</v>
@@ -3120,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>6</v>
@@ -3134,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>6</v>
@@ -3158,10 +3167,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>6</v>
@@ -3172,10 +3181,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>6</v>
@@ -3186,10 +3195,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>6</v>
@@ -3200,10 +3209,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>6</v>
@@ -3214,10 +3223,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>6</v>
@@ -3228,10 +3237,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>6</v>
@@ -3242,10 +3251,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>6</v>
@@ -3256,10 +3265,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>6</v>
@@ -3270,10 +3279,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>6</v>
@@ -3284,10 +3293,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>6</v>
@@ -3303,10 +3312,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3317,10 +3326,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>6</v>
@@ -3331,10 +3340,10 @@
         <v>49</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>6</v>
@@ -3345,10 +3354,10 @@
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>6</v>
@@ -3359,10 +3368,10 @@
         <v>51</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>6</v>
@@ -3373,10 +3382,10 @@
         <v>52</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>6</v>
@@ -3387,10 +3396,10 @@
         <v>53</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>6</v>
@@ -3401,10 +3410,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>6</v>
@@ -3415,10 +3424,10 @@
         <v>55</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>6</v>
@@ -3429,10 +3438,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>6</v>
@@ -3443,10 +3452,10 @@
         <v>57</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>6</v>
@@ -3457,10 +3466,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>6</v>
@@ -3471,10 +3480,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>6</v>
@@ -3485,10 +3494,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>6</v>
@@ -3499,10 +3508,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>6</v>
@@ -3513,10 +3522,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>6</v>
@@ -3527,10 +3536,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>6</v>
@@ -3541,10 +3550,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>6</v>
@@ -3555,10 +3564,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>6</v>
@@ -3569,10 +3578,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>6</v>
@@ -3583,10 +3592,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>6</v>
@@ -3597,10 +3606,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>6</v>
@@ -3611,10 +3620,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>6</v>
@@ -3625,10 +3634,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>6</v>
@@ -3639,10 +3648,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>6</v>
@@ -3653,10 +3662,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>6</v>
@@ -3667,10 +3676,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>6</v>
@@ -3681,10 +3690,10 @@
         <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>6</v>
@@ -3695,10 +3704,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>6</v>
@@ -3709,10 +3718,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>6</v>
@@ -3723,10 +3732,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>6</v>
@@ -3737,10 +3746,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>6</v>
@@ -3751,10 +3760,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>6</v>
@@ -3765,10 +3774,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>6</v>
@@ -3779,10 +3788,10 @@
         <v>81</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>6</v>
@@ -3793,10 +3802,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>6</v>
@@ -3807,10 +3816,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>6</v>
@@ -3821,10 +3830,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>6</v>
@@ -3835,10 +3844,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>6</v>
@@ -3849,10 +3858,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>6</v>
@@ -3863,10 +3872,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>6</v>
@@ -3877,10 +3886,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>6</v>
@@ -3891,10 +3900,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>6</v>
@@ -3910,10 +3919,10 @@
         <v>90</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>6</v>
@@ -3924,10 +3933,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>6</v>
@@ -3938,10 +3947,10 @@
         <v>92</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>6</v>
@@ -3952,10 +3961,10 @@
         <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>6</v>
@@ -3966,10 +3975,10 @@
         <v>94</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>6</v>
@@ -3980,10 +3989,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>6</v>
@@ -3994,10 +4003,10 @@
         <v>96</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>6</v>
@@ -4008,10 +4017,10 @@
         <v>97</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>6</v>
@@ -4022,10 +4031,10 @@
         <v>98</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>6</v>
@@ -4036,10 +4045,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>6</v>
@@ -4050,10 +4059,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>6</v>
@@ -4064,10 +4073,10 @@
         <v>101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>6</v>
@@ -4078,10 +4087,10 @@
         <v>102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>6</v>
@@ -4092,10 +4101,10 @@
         <v>103</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>6</v>
@@ -4106,10 +4115,10 @@
         <v>104</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>6</v>
@@ -4120,10 +4129,10 @@
         <v>105</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>6</v>
@@ -4134,10 +4143,10 @@
         <v>106</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>6</v>
@@ -4148,10 +4157,10 @@
         <v>107</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>6</v>
@@ -4162,10 +4171,10 @@
         <v>108</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>6</v>
@@ -4176,10 +4185,10 @@
         <v>109</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>6</v>
@@ -4190,10 +4199,10 @@
         <v>110</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>6</v>
@@ -4204,10 +4213,10 @@
         <v>111</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>6</v>
@@ -4218,10 +4227,10 @@
         <v>112</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>6</v>
@@ -4232,10 +4241,10 @@
         <v>113</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>6</v>
@@ -4246,10 +4255,10 @@
         <v>114</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>6</v>
@@ -4260,10 +4269,10 @@
         <v>115</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>6</v>
@@ -4274,10 +4283,10 @@
         <v>116</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>6</v>
@@ -4288,10 +4297,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>6</v>
@@ -4302,10 +4311,10 @@
         <v>118</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>6</v>
@@ -4316,10 +4325,10 @@
         <v>119</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>6</v>
@@ -4330,10 +4339,10 @@
         <v>120</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>6</v>
@@ -4344,10 +4353,10 @@
         <v>121</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>6</v>
@@ -4358,10 +4367,10 @@
         <v>122</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>6</v>
@@ -4372,10 +4381,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>6</v>
@@ -4386,10 +4395,10 @@
         <v>124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>6</v>
@@ -4400,10 +4409,10 @@
         <v>125</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>6</v>
@@ -4418,10 +4427,10 @@
         <v>126</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>6</v>
@@ -4432,10 +4441,10 @@
         <v>127</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>6</v>
@@ -4446,10 +4455,10 @@
         <v>128</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>6</v>
@@ -4460,10 +4469,10 @@
         <v>129</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -4474,10 +4483,10 @@
         <v>130</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>6</v>
@@ -4488,10 +4497,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>6</v>
@@ -4502,10 +4511,10 @@
         <v>132</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>6</v>
@@ -4516,10 +4525,10 @@
         <v>133</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>6</v>
@@ -4530,10 +4539,10 @@
         <v>134</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>6</v>
@@ -4544,10 +4553,10 @@
         <v>135</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>6</v>
@@ -4558,10 +4567,10 @@
         <v>136</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>6</v>
@@ -4572,10 +4581,10 @@
         <v>137</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>6</v>
@@ -4586,10 +4595,10 @@
         <v>138</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>6</v>
@@ -4600,10 +4609,10 @@
         <v>139</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>6</v>
@@ -4614,10 +4623,10 @@
         <v>140</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>6</v>
@@ -4628,10 +4637,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>6</v>
@@ -4642,10 +4651,10 @@
         <v>142</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>6</v>
@@ -4656,10 +4665,10 @@
         <v>143</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>6</v>
@@ -4670,10 +4679,10 @@
         <v>144</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>6</v>
@@ -4684,10 +4693,10 @@
         <v>145</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>6</v>
@@ -4698,10 +4707,10 @@
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>6</v>
@@ -4712,10 +4721,10 @@
         <v>147</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>6</v>
@@ -4726,10 +4735,10 @@
         <v>148</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>6</v>
@@ -4740,10 +4749,10 @@
         <v>149</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>6</v>
@@ -4754,10 +4763,10 @@
         <v>150</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>6</v>
@@ -4768,10 +4777,10 @@
         <v>151</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>6</v>
@@ -4782,10 +4791,10 @@
         <v>152</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>6</v>
@@ -4796,10 +4805,10 @@
         <v>153</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>6</v>
@@ -4810,10 +4819,10 @@
         <v>154</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>6</v>
@@ -4824,10 +4833,10 @@
         <v>155</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>6</v>
@@ -4838,10 +4847,10 @@
         <v>156</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>6</v>
@@ -4852,10 +4861,10 @@
         <v>157</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>6</v>
@@ -4866,10 +4875,10 @@
         <v>158</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>6</v>
@@ -4880,10 +4889,10 @@
         <v>159</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>6</v>
@@ -4894,10 +4903,10 @@
         <v>160</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>6</v>
@@ -4908,10 +4917,10 @@
         <v>161</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>6</v>
@@ -4926,10 +4935,10 @@
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>6</v>
@@ -4940,10 +4949,10 @@
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D178" s="6" t="s">
         <v>6</v>
@@ -4954,10 +4963,10 @@
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>6</v>
@@ -4968,10 +4977,10 @@
         <v>165</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D180" s="6" t="s">
         <v>6</v>
@@ -4982,10 +4991,10 @@
         <v>166</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>6</v>
@@ -4996,10 +5005,10 @@
         <v>167</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>6</v>
@@ -5010,10 +5019,10 @@
         <v>168</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>6</v>
@@ -5024,10 +5033,10 @@
         <v>169</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>6</v>
@@ -5038,10 +5047,10 @@
         <v>170</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>6</v>
@@ -5052,10 +5061,10 @@
         <v>171</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>6</v>
@@ -5066,10 +5075,10 @@
         <v>172</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>6</v>
@@ -5080,10 +5089,10 @@
         <v>173</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>6</v>
@@ -5094,10 +5103,10 @@
         <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>6</v>
@@ -5108,10 +5117,10 @@
         <v>175</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>6</v>
@@ -5122,10 +5131,10 @@
         <v>176</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>6</v>
@@ -5136,10 +5145,10 @@
         <v>177</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>6</v>
@@ -5150,10 +5159,10 @@
         <v>178</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>6</v>
@@ -5164,10 +5173,10 @@
         <v>179</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>6</v>
@@ -5178,10 +5187,10 @@
         <v>180</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>6</v>
@@ -5192,10 +5201,10 @@
         <v>181</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>6</v>
@@ -5206,10 +5215,10 @@
         <v>182</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>6</v>
@@ -5220,10 +5229,10 @@
         <v>183</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>6</v>
@@ -5234,10 +5243,10 @@
         <v>184</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>6</v>
@@ -5248,10 +5257,10 @@
         <v>185</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>6</v>
@@ -5262,10 +5271,10 @@
         <v>186</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>6</v>
@@ -5276,10 +5285,10 @@
         <v>187</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>6</v>
@@ -5290,10 +5299,10 @@
         <v>188</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>6</v>
@@ -5304,10 +5313,10 @@
         <v>189</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>6</v>
@@ -5318,10 +5327,10 @@
         <v>190</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>6</v>
@@ -5332,10 +5341,10 @@
         <v>191</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>6</v>
@@ -5346,10 +5355,10 @@
         <v>192</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>6</v>
@@ -5360,10 +5369,10 @@
         <v>193</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>6</v>
@@ -5374,10 +5383,10 @@
         <v>194</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>6</v>
@@ -5388,10 +5397,10 @@
         <v>195</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>6</v>
@@ -5402,10 +5411,10 @@
         <v>196</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>6</v>
@@ -5426,10 +5435,10 @@
         <v>197</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>6</v>
@@ -5440,10 +5449,10 @@
         <v>198</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>6</v>
@@ -5454,10 +5463,10 @@
         <v>199</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>6</v>
@@ -5468,10 +5477,10 @@
         <v>200</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>6</v>
@@ -5482,10 +5491,10 @@
         <v>201</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>6</v>
@@ -5496,10 +5505,10 @@
         <v>202</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>6</v>
@@ -5510,10 +5519,10 @@
         <v>203</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>6</v>
@@ -5524,10 +5533,10 @@
         <v>204</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>6</v>
@@ -5538,10 +5547,10 @@
         <v>205</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D222" s="6" t="s">
         <v>6</v>
@@ -5552,10 +5561,10 @@
         <v>206</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>6</v>
@@ -5566,10 +5575,10 @@
         <v>207</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>6</v>
@@ -5580,10 +5589,10 @@
         <v>208</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>6</v>
@@ -5594,10 +5603,10 @@
         <v>209</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>6</v>
@@ -5608,10 +5617,10 @@
         <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D227" s="6" t="s">
         <v>6</v>
@@ -5622,10 +5631,10 @@
         <v>211</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>6</v>
@@ -5636,10 +5645,10 @@
         <v>212</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>6</v>
@@ -5650,10 +5659,10 @@
         <v>213</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>6</v>
@@ -5664,10 +5673,10 @@
         <v>214</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>6</v>
@@ -5678,10 +5687,10 @@
         <v>215</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>6</v>
@@ -5692,10 +5701,10 @@
         <v>216</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>6</v>
@@ -5706,10 +5715,10 @@
         <v>217</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D234" s="6" t="s">
         <v>6</v>
@@ -5720,10 +5729,10 @@
         <v>218</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>6</v>
@@ -5742,10 +5751,10 @@
         <v>219</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>6</v>
@@ -5756,10 +5765,10 @@
         <v>220</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>6</v>
@@ -5770,10 +5779,10 @@
         <v>221</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>6</v>
@@ -5784,10 +5793,10 @@
         <v>222</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>6</v>
@@ -5798,10 +5807,10 @@
         <v>223</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>6</v>
@@ -5812,10 +5821,10 @@
         <v>224</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>6</v>
@@ -5826,10 +5835,10 @@
         <v>225</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>6</v>
@@ -5840,10 +5849,10 @@
         <v>226</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>6</v>
@@ -5854,10 +5863,10 @@
         <v>227</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>6</v>
@@ -5868,10 +5877,10 @@
         <v>228</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>6</v>
@@ -5882,10 +5891,10 @@
         <v>229</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D248" s="6" t="s">
         <v>6</v>
@@ -5896,10 +5905,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>6</v>
@@ -5910,10 +5919,10 @@
         <v>231</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>6</v>
@@ -5924,10 +5933,10 @@
         <v>232</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>6</v>
@@ -5938,10 +5947,10 @@
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>6</v>
@@ -5952,10 +5961,10 @@
         <v>234</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>6</v>
@@ -5966,10 +5975,10 @@
         <v>235</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>6</v>
@@ -5980,10 +5989,10 @@
         <v>236</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>6</v>
@@ -5994,10 +6003,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>6</v>
@@ -6008,10 +6017,10 @@
         <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>6</v>
@@ -6022,10 +6031,10 @@
         <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>6</v>
@@ -6036,10 +6045,10 @@
         <v>240</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>6</v>
@@ -6050,10 +6059,10 @@
         <v>241</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>6</v>
@@ -6064,10 +6073,10 @@
         <v>242</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>6</v>
@@ -6078,10 +6087,10 @@
         <v>243</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>6</v>
@@ -6092,10 +6101,10 @@
         <v>244</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>6</v>
@@ -6106,10 +6115,10 @@
         <v>245</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>6</v>
@@ -6120,10 +6129,10 @@
         <v>246</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>6</v>
@@ -6134,10 +6143,10 @@
         <v>247</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>6</v>
@@ -6148,10 +6157,10 @@
         <v>248</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>6</v>
@@ -6162,10 +6171,10 @@
         <v>249</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>6</v>
@@ -6176,10 +6185,10 @@
         <v>250</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>6</v>
@@ -6190,10 +6199,10 @@
         <v>251</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D270" s="6" t="s">
         <v>6</v>
@@ -6204,10 +6213,10 @@
         <v>252</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>6</v>
@@ -6218,10 +6227,10 @@
         <v>253</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>6</v>
@@ -6240,10 +6249,10 @@
         <v>254</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>6</v>
@@ -6254,10 +6263,10 @@
         <v>255</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>6</v>
@@ -6268,10 +6277,10 @@
         <v>256</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>6</v>
@@ -6282,10 +6291,10 @@
         <v>257</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>6</v>
@@ -6296,10 +6305,10 @@
         <v>258</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>6</v>
@@ -6310,10 +6319,10 @@
         <v>259</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>6</v>
@@ -6324,10 +6333,10 @@
         <v>260</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>6</v>
@@ -6338,10 +6347,10 @@
         <v>261</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>6</v>
@@ -6352,10 +6361,10 @@
         <v>262</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>6</v>
@@ -6366,10 +6375,10 @@
         <v>263</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D284" s="6" t="s">
         <v>6</v>
@@ -6380,10 +6389,10 @@
         <v>264</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D285" s="6" t="s">
         <v>6</v>
@@ -6394,10 +6403,10 @@
         <v>265</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D286" s="6" t="s">
         <v>6</v>
@@ -6408,10 +6417,10 @@
         <v>266</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D287" s="6" t="s">
         <v>6</v>
@@ -6422,10 +6431,10 @@
         <v>267</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D288" s="6" t="s">
         <v>6</v>
@@ -6436,10 +6445,10 @@
         <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D289" s="6" t="s">
         <v>6</v>
@@ -6450,10 +6459,10 @@
         <v>269</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D290" s="6" t="s">
         <v>6</v>
@@ -6464,10 +6473,10 @@
         <v>270</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D291" s="6" t="s">
         <v>6</v>
@@ -6478,10 +6487,10 @@
         <v>271</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>6</v>
@@ -6492,10 +6501,10 @@
         <v>272</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D293" s="6" t="s">
         <v>6</v>
@@ -6514,10 +6523,10 @@
         <v>273</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D296" s="6" t="s">
         <v>6</v>
@@ -6528,10 +6537,10 @@
         <v>274</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D297" s="6" t="s">
         <v>6</v>
@@ -6542,10 +6551,10 @@
         <v>275</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>6</v>
@@ -6556,10 +6565,10 @@
         <v>276</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>6</v>
@@ -6570,10 +6579,10 @@
         <v>277</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D300" s="6" t="s">
         <v>6</v>
@@ -6584,10 +6593,10 @@
         <v>278</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D301" s="6" t="s">
         <v>6</v>
@@ -6598,10 +6607,10 @@
         <v>279</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D302" s="6" t="s">
         <v>6</v>
@@ -6612,10 +6621,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D303" s="6" t="s">
         <v>6</v>
@@ -6626,10 +6635,10 @@
         <v>281</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D304" s="6" t="s">
         <v>6</v>
@@ -6640,10 +6649,10 @@
         <v>282</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D305" s="6" t="s">
         <v>6</v>
@@ -6654,10 +6663,10 @@
         <v>283</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>6</v>
@@ -6668,10 +6677,10 @@
         <v>284</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D307" s="6" t="s">
         <v>6</v>
@@ -6682,10 +6691,10 @@
         <v>285</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D308" s="6" t="s">
         <v>6</v>
@@ -6696,10 +6705,10 @@
         <v>286</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>6</v>
@@ -6710,10 +6719,10 @@
         <v>287</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D310" s="6" t="s">
         <v>6</v>
@@ -6724,10 +6733,10 @@
         <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D311" s="6" t="s">
         <v>6</v>
@@ -6738,10 +6747,10 @@
         <v>289</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>6</v>
@@ -6752,10 +6761,10 @@
         <v>290</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D313" s="6" t="s">
         <v>6</v>
@@ -6766,10 +6775,10 @@
         <v>291</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D314" s="6" t="s">
         <v>6</v>
@@ -6780,10 +6789,10 @@
         <v>292</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D315" s="6" t="s">
         <v>6</v>
@@ -6794,10 +6803,10 @@
         <v>293</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>6</v>
@@ -6808,10 +6817,10 @@
         <v>294</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>6</v>
@@ -6822,10 +6831,10 @@
         <v>295</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D318" s="6" t="s">
         <v>6</v>
@@ -6836,10 +6845,10 @@
         <v>296</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D319" s="6" t="s">
         <v>6</v>
@@ -6850,10 +6859,10 @@
         <v>297</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D320" s="6" t="s">
         <v>6</v>
@@ -6864,10 +6873,10 @@
         <v>298</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>6</v>
@@ -6878,10 +6887,10 @@
         <v>299</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D322" s="6" t="s">
         <v>6</v>
@@ -6892,10 +6901,10 @@
         <v>300</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D323" s="6" t="s">
         <v>6</v>
@@ -6906,10 +6915,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D324" s="6" t="s">
         <v>6</v>
@@ -6920,10 +6929,10 @@
         <v>302</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D325" s="6" t="s">
         <v>6</v>
@@ -6934,10 +6943,10 @@
         <v>303</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D326" s="6" t="s">
         <v>6</v>
@@ -6948,10 +6957,10 @@
         <v>304</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>6</v>
@@ -6962,10 +6971,10 @@
         <v>305</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D328" s="6" t="s">
         <v>6</v>
@@ -6976,10 +6985,10 @@
         <v>306</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D329" s="6" t="s">
         <v>6</v>
@@ -6990,10 +6999,10 @@
         <v>307</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D330" s="6" t="s">
         <v>6</v>
@@ -7004,10 +7013,10 @@
         <v>308</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>6</v>
@@ -7018,10 +7027,10 @@
         <v>309</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>6</v>
@@ -7032,10 +7041,10 @@
         <v>310</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>6</v>
@@ -7054,10 +7063,10 @@
         <v>311</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D336" s="6" t="s">
         <v>6</v>
@@ -7068,10 +7077,10 @@
         <v>312</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D337" s="6" t="s">
         <v>6</v>
@@ -7082,10 +7091,10 @@
         <v>313</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D338" s="6" t="s">
         <v>6</v>
@@ -7096,10 +7105,10 @@
         <v>314</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>6</v>
@@ -7110,10 +7119,10 @@
         <v>315</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>6</v>
@@ -7124,10 +7133,10 @@
         <v>316</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>6</v>
@@ -7138,10 +7147,10 @@
         <v>317</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>6</v>
@@ -7152,10 +7161,10 @@
         <v>318</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>6</v>
@@ -7166,10 +7175,10 @@
         <v>319</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D344" s="6" t="s">
         <v>6</v>
@@ -7180,10 +7189,10 @@
         <v>320</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D345" s="6" t="s">
         <v>6</v>
@@ -7194,10 +7203,10 @@
         <v>321</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D346" s="6" t="s">
         <v>6</v>
@@ -7208,10 +7217,10 @@
         <v>322</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D347" s="6" t="s">
         <v>6</v>
@@ -7222,10 +7231,10 @@
         <v>323</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>6</v>
@@ -7236,10 +7245,10 @@
         <v>324</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D349" s="6" t="s">
         <v>6</v>
@@ -7250,10 +7259,10 @@
         <v>325</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D350" s="6" t="s">
         <v>6</v>
@@ -7264,10 +7273,10 @@
         <v>326</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D351" s="6" t="s">
         <v>6</v>
@@ -7278,10 +7287,10 @@
         <v>327</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D352" s="6" t="s">
         <v>6</v>
@@ -7292,10 +7301,10 @@
         <v>328</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D353" s="6" t="s">
         <v>6</v>
@@ -7314,10 +7323,10 @@
         <v>329</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D356" s="6" t="s">
         <v>6</v>
@@ -7328,10 +7337,10 @@
         <v>330</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D357" s="6" t="s">
         <v>6</v>
@@ -7342,10 +7351,10 @@
         <v>331</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>6</v>
@@ -7356,10 +7365,10 @@
         <v>332</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>6</v>
@@ -7370,10 +7379,10 @@
         <v>333</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>6</v>
@@ -7384,10 +7393,10 @@
         <v>334</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>6</v>
@@ -7398,10 +7407,10 @@
         <v>335</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>6</v>
@@ -7412,10 +7421,10 @@
         <v>336</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>6</v>
@@ -7426,10 +7435,10 @@
         <v>337</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>6</v>
@@ -7440,10 +7449,10 @@
         <v>338</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>6</v>
@@ -7454,10 +7463,10 @@
         <v>339</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>6</v>
@@ -7468,10 +7477,10 @@
         <v>340</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>6</v>
@@ -7482,10 +7491,10 @@
         <v>341</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>6</v>
@@ -7496,10 +7505,10 @@
         <v>342</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D369" s="6" t="s">
         <v>6</v>
@@ -7510,10 +7519,10 @@
         <v>343</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>6</v>
@@ -7524,10 +7533,10 @@
         <v>344</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D371" s="6" t="s">
         <v>6</v>
@@ -7538,10 +7547,10 @@
         <v>345</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>6</v>
@@ -7552,10 +7561,10 @@
         <v>346</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>6</v>
@@ -7566,10 +7575,10 @@
         <v>347</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D374" s="6" t="s">
         <v>6</v>
@@ -7580,10 +7589,10 @@
         <v>348</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>6</v>
@@ -7594,10 +7603,10 @@
         <v>349</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D376" s="6" t="s">
         <v>6</v>
@@ -7608,10 +7617,10 @@
         <v>350</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D377" s="6" t="s">
         <v>6</v>
@@ -7622,10 +7631,10 @@
         <v>351</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D378" s="6" t="s">
         <v>6</v>
@@ -7636,10 +7645,10 @@
         <v>352</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D379" s="6" t="s">
         <v>6</v>
@@ -7650,10 +7659,10 @@
         <v>353</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D380" s="6" t="s">
         <v>6</v>
@@ -7664,10 +7673,10 @@
         <v>354</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D381" s="6" t="s">
         <v>6</v>
@@ -7678,10 +7687,10 @@
         <v>355</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D382" s="6" t="s">
         <v>6</v>
@@ -7692,10 +7701,10 @@
         <v>356</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D383" s="6" t="s">
         <v>6</v>
@@ -7706,10 +7715,10 @@
         <v>357</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D384" s="6" t="s">
         <v>6</v>
@@ -7720,10 +7729,10 @@
         <v>358</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D385" s="6" t="s">
         <v>6</v>
@@ -7734,10 +7743,10 @@
         <v>359</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D386" s="6" t="s">
         <v>6</v>
@@ -7748,10 +7757,10 @@
         <v>360</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D387" s="6" t="s">
         <v>6</v>
@@ -7762,10 +7771,10 @@
         <v>361</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D388" s="6" t="s">
         <v>6</v>
@@ -7776,10 +7785,10 @@
         <v>362</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>6</v>
@@ -7790,10 +7799,10 @@
         <v>363</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D390" s="6" t="s">
         <v>6</v>
@@ -7804,10 +7813,10 @@
         <v>364</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D391" s="6" t="s">
         <v>6</v>
@@ -7818,10 +7827,10 @@
         <v>365</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D392" s="6" t="s">
         <v>6</v>
@@ -7832,10 +7841,10 @@
         <v>366</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D393" s="6" t="s">
         <v>6</v>
@@ -7846,10 +7855,10 @@
         <v>367</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D394" s="6" t="s">
         <v>6</v>
@@ -7860,10 +7869,10 @@
         <v>368</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>6</v>
@@ -7874,10 +7883,10 @@
         <v>369</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D396" s="6" t="s">
         <v>6</v>
@@ -7888,10 +7897,10 @@
         <v>370</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C397" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D397" s="6" t="s">
         <v>6</v>
@@ -7902,10 +7911,10 @@
         <v>371</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D398" s="6" t="s">
         <v>6</v>
@@ -7916,10 +7925,10 @@
         <v>372</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D399" s="6" t="s">
         <v>6</v>
@@ -7938,10 +7947,10 @@
         <v>373</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C402" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D402" s="6" t="s">
         <v>6</v>
@@ -7952,10 +7961,10 @@
         <v>374</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C403" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D403" s="6" t="s">
         <v>6</v>
@@ -7966,10 +7975,10 @@
         <v>375</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C404" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D404" s="6" t="s">
         <v>6</v>
@@ -7980,10 +7989,10 @@
         <v>376</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C405" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D405" s="6" t="s">
         <v>6</v>
@@ -7994,10 +8003,10 @@
         <v>377</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C406" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D406" s="6" t="s">
         <v>6</v>
@@ -8008,10 +8017,10 @@
         <v>378</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C407" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D407" s="6" t="s">
         <v>6</v>
@@ -8030,10 +8039,10 @@
         <v>379</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C410" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D410" s="6" t="s">
         <v>6</v>
@@ -8044,10 +8053,10 @@
         <v>380</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C411" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D411" s="6" t="s">
         <v>6</v>
@@ -8058,10 +8067,10 @@
         <v>381</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C412" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D412" s="6" t="s">
         <v>6</v>
@@ -8072,10 +8081,10 @@
         <v>382</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C413" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D413" s="6" t="s">
         <v>6</v>
@@ -8086,10 +8095,10 @@
         <v>383</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C414" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D414" s="6" t="s">
         <v>6</v>
@@ -8100,10 +8109,10 @@
         <v>384</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D415" s="6" t="s">
         <v>6</v>
@@ -8114,10 +8123,10 @@
         <v>385</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D416" s="6" t="s">
         <v>6</v>
@@ -8128,10 +8137,10 @@
         <v>386</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C417" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D417" s="6" t="s">
         <v>6</v>
@@ -8142,10 +8151,10 @@
         <v>387</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D418" s="6" t="s">
         <v>6</v>
@@ -8156,10 +8165,10 @@
         <v>388</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C419" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D419" s="6" t="s">
         <v>6</v>
@@ -8170,10 +8179,10 @@
         <v>389</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C420" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D420" s="6" t="s">
         <v>6</v>
@@ -8184,10 +8193,10 @@
         <v>390</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C421" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D421" s="6" t="s">
         <v>6</v>
@@ -8198,10 +8207,10 @@
         <v>391</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C422" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D422" s="6" t="s">
         <v>6</v>
@@ -8212,10 +8221,10 @@
         <v>392</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C423" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D423" s="6" t="s">
         <v>6</v>
@@ -8226,10 +8235,10 @@
         <v>393</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C424" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D424" s="6" t="s">
         <v>6</v>
@@ -8240,10 +8249,10 @@
         <v>394</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C425" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>6</v>
@@ -8254,10 +8263,10 @@
         <v>395</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C426" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D426" s="6" t="s">
         <v>6</v>
@@ -8268,10 +8277,10 @@
         <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C427" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D427" s="6" t="s">
         <v>6</v>
@@ -8282,10 +8291,10 @@
         <v>397</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C428" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D428" s="6" t="s">
         <v>6</v>
@@ -8296,10 +8305,10 @@
         <v>398</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C429" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D429" s="6" t="s">
         <v>6</v>
@@ -8310,10 +8319,10 @@
         <v>399</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C430" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D430" s="6" t="s">
         <v>6</v>
@@ -8324,10 +8333,10 @@
         <v>400</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C431" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D431" s="6" t="s">
         <v>6</v>
@@ -8338,10 +8347,10 @@
         <v>401</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C432" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D432" s="6" t="s">
         <v>6</v>
@@ -8352,10 +8361,10 @@
         <v>402</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C433" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D433" s="6" t="s">
         <v>6</v>
@@ -8366,10 +8375,10 @@
         <v>403</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C434" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D434" s="6" t="s">
         <v>6</v>
@@ -8380,10 +8389,10 @@
         <v>404</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C435" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D435" s="6" t="s">
         <v>6</v>
@@ -8394,10 +8403,10 @@
         <v>405</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C436" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D436" s="6" t="s">
         <v>6</v>
@@ -8408,10 +8417,10 @@
         <v>406</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C437" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D437" s="6" t="s">
         <v>6</v>
@@ -8422,10 +8431,10 @@
         <v>407</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C438" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D438" s="6" t="s">
         <v>6</v>
@@ -8436,10 +8445,10 @@
         <v>408</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C439" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D439" s="6" t="s">
         <v>6</v>
@@ -8450,10 +8459,10 @@
         <v>409</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C440" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D440" s="6" t="s">
         <v>6</v>
@@ -8464,10 +8473,10 @@
         <v>410</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C441" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D441" s="6" t="s">
         <v>6</v>
@@ -8478,10 +8487,10 @@
         <v>411</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C442" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D442" s="6" t="s">
         <v>6</v>
@@ -8492,10 +8501,10 @@
         <v>412</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C443" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D443" s="6" t="s">
         <v>6</v>
@@ -8506,10 +8515,10 @@
         <v>413</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D444" s="6" t="s">
         <v>6</v>
@@ -8520,10 +8529,10 @@
         <v>414</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D445" s="6" t="s">
         <v>6</v>
@@ -8534,10 +8543,10 @@
         <v>415</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D446" s="6" t="s">
         <v>6</v>
@@ -8548,10 +8557,10 @@
         <v>416</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D447" s="6" t="s">
         <v>6</v>
@@ -8562,10 +8571,10 @@
         <v>417</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D448" s="6" t="s">
         <v>6</v>
@@ -8576,10 +8585,10 @@
         <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C449" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D449" s="6" t="s">
         <v>6</v>
@@ -8590,10 +8599,10 @@
         <v>419</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D450" s="6" t="s">
         <v>6</v>
@@ -8604,10 +8613,10 @@
         <v>420</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D451" s="6" t="s">
         <v>6</v>
@@ -8618,10 +8627,10 @@
         <v>421</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D452" s="6" t="s">
         <v>6</v>
@@ -8632,10 +8641,10 @@
         <v>422</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C453" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D453" s="6" t="s">
         <v>6</v>
@@ -8646,10 +8655,10 @@
         <v>423</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C454" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D454" s="6" t="s">
         <v>6</v>
@@ -8660,10 +8669,10 @@
         <v>424</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C455" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D455" s="6" t="s">
         <v>6</v>
@@ -8674,10 +8683,10 @@
         <v>425</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C456" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D456" s="6" t="s">
         <v>6</v>
@@ -8688,10 +8697,10 @@
         <v>426</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C457" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D457" s="6" t="s">
         <v>6</v>
@@ -8702,10 +8711,10 @@
         <v>427</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C458" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D458" s="6" t="s">
         <v>6</v>
@@ -8716,10 +8725,10 @@
         <v>428</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C459" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D459" s="6" t="s">
         <v>6</v>
@@ -8730,10 +8739,10 @@
         <v>429</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C460" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D460" s="6" t="s">
         <v>6</v>
@@ -8744,10 +8753,10 @@
         <v>430</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C461" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D461" s="6" t="s">
         <v>6</v>
@@ -8758,10 +8767,10 @@
         <v>431</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C462" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D462" s="6" t="s">
         <v>6</v>
@@ -8772,10 +8781,10 @@
         <v>432</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C463" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D463" s="6" t="s">
         <v>6</v>
@@ -8786,10 +8795,10 @@
         <v>433</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D464" s="6" t="s">
         <v>6</v>
@@ -8800,10 +8809,10 @@
         <v>434</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D465" s="6" t="s">
         <v>6</v>
@@ -8814,10 +8823,10 @@
         <v>435</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C466" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D466" s="6" t="s">
         <v>6</v>
@@ -8828,10 +8837,10 @@
         <v>436</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C467" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D467" s="6" t="s">
         <v>6</v>
@@ -8842,10 +8851,10 @@
         <v>437</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C468" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D468" s="6" t="s">
         <v>6</v>
@@ -8856,10 +8865,10 @@
         <v>438</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C469" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D469" s="6" t="s">
         <v>6</v>
@@ -8879,10 +8888,10 @@
         <v>439</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C472" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D472" s="6" t="s">
         <v>6</v>
@@ -8893,10 +8902,10 @@
         <v>440</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C473" s="13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D473" s="6" t="s">
         <v>6</v>
@@ -8907,10 +8916,10 @@
         <v>441</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C474" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D474" s="6" t="s">
         <v>6</v>
@@ -8921,10 +8930,10 @@
         <v>442</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C475" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D475" s="6" t="s">
         <v>6</v>
@@ -8935,10 +8944,10 @@
         <v>443</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C476" s="13" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D476" s="6" t="s">
         <v>6</v>
@@ -8949,10 +8958,10 @@
         <v>444</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C477" s="13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D477" s="6" t="s">
         <v>6</v>
@@ -8963,10 +8972,10 @@
         <v>445</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C478" s="13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D478" s="6" t="s">
         <v>6</v>
@@ -8977,10 +8986,10 @@
         <v>446</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D479" s="6" t="s">
         <v>6</v>
@@ -8991,10 +9000,10 @@
         <v>447</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C480" s="13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D480" s="6" t="s">
         <v>6</v>
@@ -9005,10 +9014,10 @@
         <v>448</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C481" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D481" s="6" t="s">
         <v>6</v>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1446,9 +1446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -1545,6 +1545,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1559,16 +1567,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,22 +1637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1644,9 +1644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,6 +1660,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1668,14 +1675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,7 +1708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,13 +1726,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,19 +1762,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1822,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,109 +1864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,6 +1880,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1899,6 +1899,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1941,26 +1970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1990,158 +1999,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -4930,18 +4930,24 @@
       <c r="C176" s="14"/>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" ht="21" spans="1:4">
+    <row r="177" ht="21" spans="1:6">
       <c r="A177">
         <v>162</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>6</v>
+      <c r="D177" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="10">
+        <v>44194</v>
+      </c>
+      <c r="F177" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:4">
@@ -5000,7 +5006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" ht="21" spans="1:4">
+    <row r="182" ht="21" spans="1:5">
       <c r="A182">
         <v>167</v>
       </c>
@@ -5010,11 +5016,14 @@
       <c r="C182" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D182" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" ht="21" spans="1:4">
+      <c r="D182" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="10">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="183" ht="21" spans="1:5">
       <c r="A183">
         <v>168</v>
       </c>
@@ -5024,11 +5033,14 @@
       <c r="C183" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D183" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" ht="21" spans="1:4">
+      <c r="D183" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="10">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="184" ht="21" spans="1:5">
       <c r="A184">
         <v>169</v>
       </c>
@@ -5038,8 +5050,11 @@
       <c r="C184" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D184" s="6" t="s">
-        <v>6</v>
+      <c r="D184" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="10">
+        <v>44194</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1541,11 +1541,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1554,14 +1568,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1575,44 +1634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1621,9 +1642,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,27 +1658,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1666,16 +1666,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,13 +1708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,19 +1720,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,25 +1756,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,19 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,25 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,19 +1840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,7 +1858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,13 +1888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,22 +1902,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,7 +1921,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,23 +1944,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,6 +1965,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1999,149 +1988,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -4950,18 +4950,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" ht="21" spans="1:4">
+    <row r="178" ht="21" spans="1:6">
       <c r="A178">
         <v>163</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D178" s="6" t="s">
-        <v>6</v>
+      <c r="D178" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="10">
+        <v>44194</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1541,13 +1541,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,20 +1562,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1593,13 +1585,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,7 +1612,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1635,7 +1620,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1651,16 +1660,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1668,14 +1676,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,7 +1708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,19 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,13 +1762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,7 +1804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,55 +1840,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,13 +1858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,31 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,21 +1899,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1941,11 +1926,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1967,9 +1958,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,157 +1984,164 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2900,25 +2900,31 @@
       <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="21" spans="1:4">
+    <row r="26" ht="21" spans="1:6">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>6</v>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:4">
@@ -4970,18 +4976,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" ht="21" spans="1:4">
+    <row r="179" ht="21" spans="1:5">
       <c r="A179">
         <v>164</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>6</v>
+      <c r="D179" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="10">
+        <v>44195</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:4">
@@ -4991,7 +5000,7 @@
       <c r="B180" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D180" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1538,10 +1538,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1559,16 +1574,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,7 +1622,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,84 +1675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,13 +1708,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,19 +1768,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,139 +1882,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,11 +1902,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,32 +1947,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,15 +1994,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2002,146 +2002,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2941,18 +2941,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="21" spans="1:4">
+    <row r="28" ht="21" spans="1:6">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="10">
+        <v>44198</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:4">
@@ -2983,18 +2989,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="21" spans="1:4">
+    <row r="31" ht="21" spans="1:6">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>6</v>
+      <c r="D31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="10">
+        <v>44198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1538,25 +1538,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1568,22 +1560,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1606,7 +1590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,6 +1601,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1637,14 +1652,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1653,7 +1660,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,21 +1675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,7 +1708,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,13 +1786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,25 +1810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,19 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,19 +1846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,55 +1864,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,19 +1888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,6 +1899,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1917,6 +1932,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1928,50 +1952,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,154 +1974,174 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3070,7 +3070,7 @@
       <c r="B35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -3278,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" ht="21" spans="1:4">
+    <row r="51" ht="21" spans="1:5">
       <c r="A51">
         <v>44</v>
       </c>
@@ -3288,8 +3288,11 @@
       <c r="C51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>6</v>
+      <c r="D51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="10">
+        <v>44200</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:4">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1541,13 +1541,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1560,16 +1553,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1589,70 +1591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1667,7 +1607,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,7 +1660,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,6 +1708,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1720,175 +1882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,6 +1899,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1913,21 +1924,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1956,6 +1952,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1970,88 +1999,59 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2060,88 +2060,88 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3180,32 +3180,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="21" spans="1:4">
+    <row r="44" ht="21" spans="1:5">
       <c r="A44">
         <v>37</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" ht="21" spans="1:4">
+      <c r="D44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="10">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="45" ht="21" spans="1:5">
       <c r="A45">
         <v>38</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>6</v>
+      <c r="D45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="10">
+        <v>44555</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:4">
@@ -3215,7 +3221,7 @@
       <c r="B46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="6" t="s">

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1447,8 +1447,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -1559,25 +1559,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1600,29 +1606,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1645,7 +1645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,14 +1660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,7 +1668,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,13 +1714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,7 +1738,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,73 +1834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,43 +1852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1876,19 +1870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,13 +1902,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,17 +1956,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,15 +1970,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,24 +1989,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2027,16 +2027,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2045,103 +2045,103 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2500,8 +2500,8 @@
   <sheetPr/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2968,7 +2968,7 @@
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -3077,18 +3077,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="21" spans="1:4">
+    <row r="36" ht="21" spans="1:6">
       <c r="A36">
         <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>6</v>
+      <c r="D36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>44204</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:4">
@@ -9106,420 +9112,420 @@
     <hyperlink ref="C33" r:id="rId27" display="Find the triplet that sum to a given value"/>
     <hyperlink ref="C34" r:id="rId28" display="Trapping Rain water problem"/>
     <hyperlink ref="C35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="C36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="C37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="C38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="C39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="C40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="C41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="C46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="C50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="C57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="C63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="C64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="C65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="C74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="C75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="C83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="C85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="C106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="C108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="C109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="C111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C37" r:id="rId30" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="C38" r:id="rId31" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="C39" r:id="rId32" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="C40" r:id="rId33" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="C41" r:id="rId34" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="C44" r:id="rId35" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C45" r:id="rId36" display="Search an element in a matriix"/>
+    <hyperlink ref="C46" r:id="rId37" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C47" r:id="rId38" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C48" r:id="rId39" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C49" r:id="rId40" display="Maximum size rectangle"/>
+    <hyperlink ref="C50" r:id="rId41" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C51" r:id="rId42" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C52" r:id="rId43" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C53" r:id="rId44" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C56" r:id="rId45" display="Reverse a String"/>
+    <hyperlink ref="C57" r:id="rId46" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C58" r:id="rId47" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C60" r:id="rId48" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C61" r:id="rId49" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C62" r:id="rId50" display="Count and Say problem"/>
+    <hyperlink ref="C63" r:id="rId51" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="C64" r:id="rId52" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="C65" r:id="rId53" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C66" r:id="rId54" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C67" r:id="rId55" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C68" r:id="rId56" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C69" r:id="rId57" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C70" r:id="rId58" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C71" r:id="rId59" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C72" r:id="rId60" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C73" r:id="rId61" display="Rabin Karp Algo"/>
+    <hyperlink ref="C74" r:id="rId62" display="KMP Algo"/>
+    <hyperlink ref="C75" r:id="rId63" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C76" r:id="rId64" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C77" r:id="rId65" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C78" r:id="rId66" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C79" r:id="rId67" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C80" r:id="rId68" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C81" r:id="rId69" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C82" r:id="rId70" display="Longest Common Prefix"/>
+    <hyperlink ref="C83" r:id="rId71" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C84" r:id="rId72" display="Find the first repeated word in string."/>
+    <hyperlink ref="C85" r:id="rId73" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C86" r:id="rId74" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C87" r:id="rId75" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C88" r:id="rId76" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C89" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C90" r:id="rId78" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C91" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C92" r:id="rId80" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C93" r:id="rId81" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C94" r:id="rId82" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C95" r:id="rId83" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C96" r:id="rId84" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C97" r:id="rId85" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C98" r:id="rId86" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C101" r:id="rId87" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C102" r:id="rId88" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C103" r:id="rId89" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C104" r:id="rId90" display="square root of an integer"/>
+    <hyperlink ref="C106" r:id="rId91" display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C107" r:id="rId92" display="Find the repeating and the missing"/>
+    <hyperlink ref="C108" r:id="rId93" display="find majority element"/>
+    <hyperlink ref="C109" r:id="rId94" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C110" r:id="rId95" display="find a pair with a given difference"/>
+    <hyperlink ref="C111" r:id="rId96" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C113" r:id="rId97" display="Count triplet with sum smaller than a given value"/>
     <hyperlink ref="C114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="C117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="C120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="C122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="C125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="C126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="C127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="C128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="C129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="C131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C133" r:id="rId116" display="Subset Sums"/>
+    <hyperlink ref="C115" r:id="rId98" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C116" r:id="rId99" display="Product array Puzzle"/>
+    <hyperlink ref="C117" r:id="rId100" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C118" r:id="rId101" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C119" r:id="rId102" display="Bishu and Soldiers"/>
+    <hyperlink ref="C120" r:id="rId103" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C121" r:id="rId104" display="Kth smallest number again"/>
+    <hyperlink ref="C122" r:id="rId105" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C123" r:id="rId106" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C124" r:id="rId107" display="Aggressive cows"/>
+    <hyperlink ref="C125" r:id="rId108" display="Book Allocation Problem"/>
+    <hyperlink ref="C126" r:id="rId109" display="EKOSPOJ:"/>
+    <hyperlink ref="C127" r:id="rId110" display="Job Scheduling Algo"/>
+    <hyperlink ref="C128" r:id="rId111" display="Missing Number in AP"/>
+    <hyperlink ref="C129" r:id="rId112" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C130" r:id="rId108" display="Painters Partition Problem:"/>
+    <hyperlink ref="C131" r:id="rId113" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C132" r:id="rId114" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C133" r:id="rId115" display="Subset Sums"/>
     <hyperlink ref="C134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="C135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="C167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="C178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="C180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="C181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="C182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="C186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="C187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="C188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="C189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="C215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="C217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="C233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="C239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="C240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="C241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="C242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="C253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C135" r:id="rId116" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C136" r:id="rId117" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C105" r:id="rId118" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C112" r:id="rId119" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C139" r:id="rId120" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C140" r:id="rId121" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C141" r:id="rId122" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C142" r:id="rId123" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C143" r:id="rId124" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C144" r:id="rId125" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C145" r:id="rId126" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C146" r:id="rId127" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C147" r:id="rId128" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C148" r:id="rId129" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C149" r:id="rId130" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C150" r:id="rId131" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C151" r:id="rId132" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C152" r:id="rId133" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C153" r:id="rId134" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C154" r:id="rId135" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C155" r:id="rId136" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C156" r:id="rId137" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C157" r:id="rId138" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C158" r:id="rId139" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C159" r:id="rId140" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C160" r:id="rId141" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C161" r:id="rId142" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C162" r:id="rId143" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C163" r:id="rId144" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C166" r:id="rId145" display="Flatten a Linked List"/>
+    <hyperlink ref="C167" r:id="rId146" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C168" r:id="rId147" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C169" r:id="rId148" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C170" r:id="rId149" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C171" r:id="rId150" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C172" r:id="rId151" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C173" r:id="rId152" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C174" r:id="rId153" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C177" r:id="rId154" display="level order traversal"/>
+    <hyperlink ref="C178" r:id="rId155" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C179" r:id="rId156" display="Height of a tree"/>
+    <hyperlink ref="C180" r:id="rId157" display="Diameter of a tree"/>
+    <hyperlink ref="C181" r:id="rId158" display="Mirror of a tree"/>
+    <hyperlink ref="C182" r:id="rId159" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C183" r:id="rId160" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C184" r:id="rId161" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C185" r:id="rId162" display="Left View of a tree"/>
+    <hyperlink ref="C186" r:id="rId163" display="Right View of Tree"/>
+    <hyperlink ref="C187" r:id="rId164" display="Top View of a tree"/>
+    <hyperlink ref="C188" r:id="rId165" display="Bottom View of a tree"/>
+    <hyperlink ref="C189" r:id="rId166" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C190" r:id="rId167" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C191" r:id="rId168" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C192" r:id="rId169" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C193" r:id="rId170" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C194" r:id="rId171" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C195" r:id="rId172" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C196" r:id="rId173" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C197" r:id="rId174" display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C198" r:id="rId175" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C199" r:id="rId176" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C200" r:id="rId177" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C201" r:id="rId178" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C202" r:id="rId179" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C203" r:id="rId180" display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C204" r:id="rId181" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C205" r:id="rId182" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C206" r:id="rId183" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C207" r:id="rId184" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C208" r:id="rId185" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C209" r:id="rId186" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C210" r:id="rId187" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C211" r:id="rId188" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C214" r:id="rId189" display="Fina a value in a BST"/>
+    <hyperlink ref="C215" r:id="rId190" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C216" r:id="rId191" display="Find min and max value in a BST"/>
+    <hyperlink ref="C217" r:id="rId192" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C218" r:id="rId193" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C219" r:id="rId194" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C220" r:id="rId195" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C221" r:id="rId196" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C222" r:id="rId197" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C223" r:id="rId198" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C224" r:id="rId199" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C225" r:id="rId200" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C226" r:id="rId201" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C227" r:id="rId202" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C228" r:id="rId203" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C229" r:id="rId204" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C230" r:id="rId205" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C231" r:id="rId206" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C232" r:id="rId207" display="Check preorder is valid or not"/>
+    <hyperlink ref="C233" r:id="rId208" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C234" r:id="rId209" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C235" r:id="rId210" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C238" r:id="rId211" display="Activity Selection Problem"/>
+    <hyperlink ref="C239" r:id="rId212" display="Job SequencingProblem"/>
+    <hyperlink ref="C240" r:id="rId213" display="Huffman Coding"/>
+    <hyperlink ref="C241" r:id="rId214" display="Water Connection Problem"/>
+    <hyperlink ref="C242" r:id="rId215" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C243" r:id="rId216" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C244" r:id="rId217" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C245" r:id="rId218" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C246" r:id="rId219" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C247" r:id="rId220" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C248" r:id="rId221" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C249" r:id="rId222" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C250" r:id="rId223" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C251" r:id="rId224" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C252" r:id="rId225" display="Maximum product subset of an array"/>
+    <hyperlink ref="C253" r:id="rId226" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C254" r:id="rId227" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C255" r:id="rId228" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C256" r:id="rId229" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C257" r:id="rId230" display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C258" r:id="rId231" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C259" r:id="rId232" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C260" r:id="rId233" display="Smallest subset with sum greater than all other elements"/>
     <hyperlink ref="C261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="C266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="C269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="C276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="C280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="C281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="C283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="C284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="C285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="C287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="C289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="C300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="C303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="C305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="C306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="C316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="C317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="C321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="C336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="C340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="C348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="C352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="C358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="C359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="C362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="C363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="C364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="C365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="C366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="C367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="C368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="C369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="C380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="C382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="C387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="C389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="C393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="C397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="C402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="C403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="C407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="C411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="C412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="C417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="C418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="C419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="C420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="C424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="C433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="C437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C262" r:id="rId234" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C263" r:id="rId235" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C264" r:id="rId236" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C265" r:id="rId237" display="Picking Up Chicks"/>
+    <hyperlink ref="C266" r:id="rId238" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C267" r:id="rId239" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C268" r:id="rId240" display="K Centers Problem"/>
+    <hyperlink ref="C269" r:id="rId241" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C270" r:id="rId242" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C271" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C272" r:id="rId243" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C275" r:id="rId244" display="Rat in a maze Problem"/>
+    <hyperlink ref="C276" r:id="rId245" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C277" r:id="rId246" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C278" r:id="rId247" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C279" r:id="rId248" display="Sudoku Solver"/>
+    <hyperlink ref="C280" r:id="rId249" display="m Coloring Problem"/>
+    <hyperlink ref="C281" r:id="rId250" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C282" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="C283" r:id="rId252" display="The Knight’s tour problem"/>
+    <hyperlink ref="C284" r:id="rId253" display="Tug of War"/>
+    <hyperlink ref="C285" r:id="rId254" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C286" r:id="rId255" display="Combinational Sum"/>
+    <hyperlink ref="C287" r:id="rId256" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C288" r:id="rId54" display="Print all permutations of a string "/>
+    <hyperlink ref="C289" r:id="rId257" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C290" r:id="rId258" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C291" r:id="rId259" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C292" r:id="rId260" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C293" r:id="rId261" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C296" r:id="rId262" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C297" r:id="rId263" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C298" r:id="rId264" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C299" r:id="rId265" display="find the middle element of a stack"/>
+    <hyperlink ref="C300" r:id="rId266" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C301" r:id="rId59" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C302" r:id="rId267" display="Reverse a String using Stack"/>
+    <hyperlink ref="C303" r:id="rId268" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C304" r:id="rId269" display="Find the next Greater element"/>
+    <hyperlink ref="C305" r:id="rId270" display="The celebrity Problem"/>
+    <hyperlink ref="C306" r:id="rId271" display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C307" r:id="rId272" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C308" r:id="rId273" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C309" r:id="rId274" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C310" r:id="rId275" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C311" r:id="rId276" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C312" r:id="rId277" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C313" r:id="rId278" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C314" r:id="rId279" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C315" r:id="rId280" display="Implement Stack using Queue"/>
+    <hyperlink ref="C316" r:id="rId281" display="Implement Stack using Deque"/>
+    <hyperlink ref="C317" r:id="rId282" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C318" r:id="rId283" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C319" r:id="rId284" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C320" r:id="rId285" display="Implement a Circular queue"/>
+    <hyperlink ref="C321" r:id="rId286" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C322" r:id="rId287" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C323" r:id="rId288" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C324" r:id="rId289" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C325" r:id="rId290" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C326" r:id="rId291" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C327" r:id="rId292" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C328" r:id="rId293" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C329" r:id="rId294" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C330" r:id="rId295" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C331" r:id="rId296" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C332" r:id="rId153" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C333" r:id="rId297" display="Next Smaller Element"/>
+    <hyperlink ref="C336" r:id="rId298" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C337" r:id="rId299" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C338" r:id="rId300" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C339" r:id="rId301" display="“k” largest element in an array"/>
+    <hyperlink ref="C340" r:id="rId302" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C341" r:id="rId303" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C342" r:id="rId304" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C343" r:id="rId305" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C344" r:id="rId306" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C345" r:id="rId148" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C346" r:id="rId307" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C347" r:id="rId308" display="Median in a stream of Integers"/>
+    <hyperlink ref="C348" r:id="rId309" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C349" r:id="rId241" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C350" r:id="rId310" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C351" r:id="rId311" display="Convert min heap to max heap"/>
+    <hyperlink ref="C352" r:id="rId77" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C353" r:id="rId312" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C357" r:id="rId313" display="Implement BFS algorithm "/>
+    <hyperlink ref="C358" r:id="rId314" display="Implement DFS Algo "/>
+    <hyperlink ref="C359" r:id="rId315" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C360" r:id="rId316" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C361" r:id="rId244" display="Search in a Maze"/>
+    <hyperlink ref="C362" r:id="rId317" display="Minimum Step by Knight"/>
+    <hyperlink ref="C363" r:id="rId318" display="flood fill algo"/>
+    <hyperlink ref="C364" r:id="rId319" display="Clone a graph"/>
+    <hyperlink ref="C365" r:id="rId320" display="Making wired Connections"/>
+    <hyperlink ref="C366" r:id="rId321" display="word Ladder "/>
+    <hyperlink ref="C367" r:id="rId322" display="Dijkstra algo"/>
+    <hyperlink ref="C368" r:id="rId323" display="Implement Topological Sort "/>
+    <hyperlink ref="C369" r:id="rId324" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C370" r:id="rId325" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C371" r:id="rId326" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C372" r:id="rId327" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C373" r:id="rId328" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C374" r:id="rId329" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C375" r:id="rId330" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C376" r:id="rId331" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C377" r:id="rId332" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C378" r:id="rId333" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C379" r:id="rId334" display="Graph ColouringProblem"/>
+    <hyperlink ref="C380" r:id="rId335" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C381" r:id="rId336" display="Find bridge in a graph"/>
+    <hyperlink ref="C382" r:id="rId337" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C383" r:id="rId338" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C384" r:id="rId339" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C385" r:id="rId340" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C386" r:id="rId341" display="Journey to the Moon"/>
+    <hyperlink ref="C387" r:id="rId342" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C388" r:id="rId343" display="Oliver and the Game"/>
+    <hyperlink ref="C389" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C390" r:id="rId344" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C391" r:id="rId257" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C392" r:id="rId249" display="M-ColouringProblem"/>
+    <hyperlink ref="C393" r:id="rId345" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C394" r:id="rId346" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C396" r:id="rId347" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C395" r:id="rId348" display="Vertex Cover Problem"/>
+    <hyperlink ref="C397" r:id="rId349" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C398" r:id="rId221" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C399" r:id="rId350" display="Two Clique Problem"/>
+    <hyperlink ref="C402" r:id="rId351" display="Construct a trie from scratch"/>
+    <hyperlink ref="C403" r:id="rId352" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C404" r:id="rId353" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C405" r:id="rId79" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C406" r:id="rId354" display="Implement a Phone Directory"/>
+    <hyperlink ref="C407" r:id="rId355" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C410" r:id="rId356" display="Coin ChangeProblem"/>
+    <hyperlink ref="C411" r:id="rId357" display="Knapsack Problem"/>
+    <hyperlink ref="C412" r:id="rId358" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C413" r:id="rId359" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C414" r:id="rId360" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C415" r:id="rId361" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C416" r:id="rId57" display="Edit Distance"/>
+    <hyperlink ref="C417" r:id="rId251" display="Subset Sum Problem"/>
+    <hyperlink ref="C418" r:id="rId362" display="Friends Pairing Problem"/>
+    <hyperlink ref="C419" r:id="rId363" display="Gold Mine Problem"/>
+    <hyperlink ref="C420" r:id="rId364" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C421" r:id="rId365" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C422" r:id="rId366" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C423" r:id="rId74" display="Longest Common Subsequence"/>
+    <hyperlink ref="C424" r:id="rId52" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C425" r:id="rId367" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C426" r:id="rId368" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C427" r:id="rId369" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C428" r:id="rId370" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C429" r:id="rId371" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C430" r:id="rId372" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C431" r:id="rId373" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C432" r:id="rId374" display="Egg Dropping Problem"/>
+    <hyperlink ref="C433" r:id="rId375" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C434" r:id="rId376" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C435" r:id="rId377" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C436" r:id="rId378" display="Min Cost PathProblem"/>
+    <hyperlink ref="C437" r:id="rId379" display="Maximum difference of zeros and ones in binary string"/>
     <hyperlink ref="C438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="C442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C439" r:id="rId380" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C440" r:id="rId381" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C441" r:id="rId382" display="Longest Common Substring"/>
+    <hyperlink ref="C442" r:id="rId383" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C443" r:id="rId384" display="Count Balanced Binary Trees of Height h"/>
     <hyperlink ref="C444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="C448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="C451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="C454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C445" r:id="rId385" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C446" r:id="rId386" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C447" r:id="rId60" display="Word Break Problem"/>
+    <hyperlink ref="C448" r:id="rId387" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C449" r:id="rId251" display="Partition problem"/>
+    <hyperlink ref="C451" r:id="rId65" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C450" r:id="rId388" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C452" r:id="rId389" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C453" r:id="rId390" display="Longest alternating subsequence"/>
+    <hyperlink ref="C454" r:id="rId391" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C455" r:id="rId392" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C456" r:id="rId393" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
     <hyperlink ref="C457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="C462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="C473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="C478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="C481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="C479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C458" r:id="rId394" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C459" r:id="rId395" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C460" r:id="rId396" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C461" r:id="rId56" display="Word Wrap Problem"/>
+    <hyperlink ref="C462" r:id="rId397" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C469" r:id="rId398" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C468" r:id="rId399" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C467" r:id="rId400" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C466" r:id="rId401" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C465" r:id="rId402" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C464" r:id="rId403" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C463" r:id="rId404" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C472" r:id="rId405" display="Count set bits in an integer"/>
+    <hyperlink ref="C473" r:id="rId406" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C474" r:id="rId407" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C475" r:id="rId408" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C476" r:id="rId409" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C477" r:id="rId410" display="Find position of the only set bit"/>
+    <hyperlink ref="C478" r:id="rId411" display="Copy set bits in a range"/>
+    <hyperlink ref="C481" r:id="rId412" display="Power Set"/>
+    <hyperlink ref="C479" r:id="rId413" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C480" r:id="rId414" display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C36" r:id="rId415" display="Smallest Subarray with sum greater than a given value"/>
     <hyperlink ref="C356" r:id="rId416" display="Create a Graph, print it"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions/FINAL450.xlsx
+++ b/Questions/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="475">
   <si>
     <t>DSA</t>
   </si>
@@ -1446,10 +1446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1541,7 +1541,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1555,20 +1555,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,8 +1574,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1598,6 +1591,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1605,24 +1606,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,10 +1645,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1652,30 +1675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,13 +1708,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,13 +1798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,13 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,19 +1840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,97 +1876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,7 +1888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,17 +1917,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1951,7 +1947,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1960,16 +1956,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,157 +1993,155 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2501,7 +2501,7 @@
   <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2961,7 +2961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="21" spans="1:4">
+    <row r="29" ht="21" spans="1:6">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2971,8 +2971,14 @@
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>6</v>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:4">
